--- a/exports/06b_analysis/llama3.1:70b_V4/Sleep/TP_Event_Name_LLM_Events_example_evidence_Doc_Sleep.xlsx
+++ b/exports/06b_analysis/llama3.1:70b_V4/Sleep/TP_Event_Name_LLM_Events_example_evidence_Doc_Sleep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,60 +456,70 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>DCT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LLM_Events_example_evidence_Doc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Event_Name_Sleep</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>negation</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_in_gt</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Doc_Sleep</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Event_Name_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Attribute_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Text_Quote_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Event_Id_LLM_Events_example_evidence_Doc</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Order_LLM_Events_example_evidence_Doc</t>
         </is>
@@ -560,56 +570,66 @@
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-11 06:50:00'), Timestamp('2180-03-11 07:05:00'))</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nsg progress note 7p-7a/ aortic dissection\n\n\ns- "i have a little pain..not much..."\n\no-\n\n[**name (ni) 231**] patient initially on neo 0.86 mcg to keep maps &gt; 60. hr- 70\'s sr, no vea- bp- 86/40-120/58- rt ij inserted on eves- initial filling pressures wnl- high normal- pa- 40/18, pcw-18-22, cvp-16-18.\nco/ci/svr- 3.3/1.79/1624--started 0.375 mcg milrinone after 50mcg bolus. improved co/ci/svr- 5.7/3.1/730 but unable to wean neo much less than 0.7 mcg neo currently. while asleep- bp /pa # dropping , but improving once awake.\n\nresp- 6l np- some apnea, mouth breathing- oxygen saturation- 99-100%- down to 90-92% when mouth breathing/apnea periods occasionally.\nno distress/comfortable- no further diuresis nor ivf bolus for i/o (-)500cc as of 12am.\n\nid- afebrile\n\ngu- poor uo since mid afternoon hypotension and post diuresis.\neve creatinine- 1.7- am levels pending.\nnot much change in uo even after change in co/ci.\n\ngi- npo - taking small sips to wet mouth- took pm dose amiodorone and immediately felt nauseas, vomited- 100cc- felt ok afterwards- same nausea as with previous dose and emesis- but no hemodynamic changes this time- no vagal or hypotension.\nremains on protonix qd.\n\n[**name (ni) 324**] patient sedate, but easily [**name (ni) 8718**] son present all eve while pa line inserted- both aware of plan of care and reason for new invasive line.\npatient sleeping all of shift but for when woken up for questions.\nlast sedation given friday morning with tee/cdv- fent/versed/propofol.\n\na/[**name (ni) **] patient with hypotensive events requiring pressor initiation currently doing well on milrinone drops\nremains with poor uo/need for neo to maintain maps.\n\ncontinue to wean off neo today as tolerated once less sedate and not sleeping.\ncheck with team before attempting 3rd dose of amiodorone as has not tolerated past 2 doses.\nwatch for any further hypotension or tachyarrythnias.\ndiscuss with team ? more fluid today- await am creatine level as well as other lytes.\nserial hct/continue to assess for back pain/ type/location/level of pain. repeat diagnostics- ct/mri as needed if pain worsens or changes in nature.\nkeep patient and son/daughter aware of plan of care.\nnpo.\n\n', 'event': ['Pain', 'Sleep', 'Eating', 'Excretion', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "aortic dissection"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "i have a little pain..not much...",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "mild",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "patient sleeping all of shift but for when woken up for questions.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of the shift"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "taking small sips to wet mouth",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "water",\n          "amount": "small sips",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "poor uo since mid afternoon hypotension and post diuresis.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "poor",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "[**name (ni) 8718**] son present all eve while pa line inserted- both aware of plan of care and reason for new invasive line.",\n      "actor": "son",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "son"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "after",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "unknown",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the shift'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'small sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'poor', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'son'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['i have a little pain..not much...', 'patient sleeping all of shift but for when woken up for questions.', 'taking small sips to wet mouth', 'poor uo since mid afternoon hypotension and post diuresis.', '[**name (ni) 8718**] son present all eve while pa line inserted- both aware of plan of care and reason for new invasive line.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-11 06:50:00 and 2180-03-11 07:05:00):\n           ccu nsg progress note 7p-7a/ aortic dissection\n\n\ns- "i have a little pain..not much..."\n\no-\n\n[**name (ni) 231**] patient initially on neo 0.86 mcg to keep maps &gt; 60. hr- 70\'s sr, no vea- bp- 86/40-120/58- rt ij inserted on eves- initial filling pressures wnl- high normal- pa- 40/18, pcw-18-22, cvp-16-18.\nco/ci/svr- 3.3/1.79/1624--started 0.375 mcg milrinone after 50mcg bolus. improved co/ci/svr- 5.7/3.1/730 but unable to wean neo much less than 0.7 mcg neo currently. while asleep- bp /pa # dropping , but improving once awake.\n\nresp- 6l np- some apnea, mouth breathing- oxygen saturation- 99-100%- down to 90-92% when mouth breathing/apnea periods occasionally.\nno distress/comfortable- no further diuresis nor ivf bolus for i/o (-)500cc as of 12am.\n\nid- afebrile\n\ngu- poor uo since mid afternoon hypotension and post diuresis.\neve creatinine- 1.7- am levels pending.\nnot much change in uo even after change in co/ci.\n\ngi- npo - taking small sips to wet mouth- took pm dose amiodorone and immediately felt nauseas, vomited- 100cc- felt ok afterwards- same nausea as with previous dose and emesis- but no hemodynamic changes this time- no vagal or hypotension.\nremains on protonix qd.\n\n[**name (ni) 324**] patient sedate, but easily [**name (ni) 8718**] son present all eve while pa line inserted- both aware of plan of care and reason for new invasive line.\npatient sleeping all of shift but for when woken up for questions.\nlast sedation given friday morning with tee/cdv- fent/versed/propofol.\n\na/[**name (ni) **] patient with hypotensive events requiring pressor initiation currently doing well on milrinone drops\nremains with poor uo/need for neo to maintain maps.\n\ncontinue to wean off neo today as tolerated once less sedate and not sleeping.\ncheck with team before attempting 3rd dose of amiodorone as has not tolerated past 2 doses.\nwatch for any further hypotension or tachyarrythnias.\ndiscuss with team ? more fluid today- await am creatine level as well as other lytes.\nserial hct/continue to assess for back pain/ type/location/level of pain. repeat diagnostics- ct/mri as needed if pain worsens or changes in nature.\nkeep patient and son/daughter aware of plan of care.\nnpo.\n\n\n        ', 'case_attributes': [[{'attribute_name': 'aortic dissection'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'son'], 'event_detection_time': 23.214703667908907}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>patient sleeping all of shift|</t>
         </is>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['patient sleeping all of shift but for when woken up for questions.']</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the shift'}}}]</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Eating', 'Excretion', 'Family']</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the shift'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'small sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'poor', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'son'}}}]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>['i have a little pain..not much...', 'patient sleeping all of shift but for when woken up for questions.', 'taking small sips to wet mouth', 'poor uo since mid afternoon hypotension and post diuresis.', '[**name (ni) 8718**] son present all eve while pa line inserted- both aware of plan of care and reason for new invasive line.']</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>['e1=Pain|1:i have a little pain..not much...', 'e2=Sleep|1:patient sleeping all of shift but for when woken up for questions.', 'e3=Eating|1:taking small sips to wet mouth', 'e4=Excretion|1:poor uo since mid afternoon hypotension and post diuresis.', 'e5=Family|1:[**name (ni) 8718**] son present all eve while pa line inserted- both aware of plan of care and reason for new invasive line.']</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -643,56 +663,66 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>1</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-11 15:35:00'), Timestamp('2180-03-11 15:46:00'))</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>{'text': 'patient denies pain,nausea.sleeping all day but easily aroused ,alert and oreinted.\n\nsr no ect. .neo dc ci 2.99/svr 858.now weaning milrinone.pad 13 to 19.pa sat 73 .cvp 10 to 20 .map 75 to 87.good distal pulses,bp equal both arms .\n\n6l np 7.38/32/87/20/96\n\ntaking cl liquids ,abd soft, no stool\n\nhuo 15 to 20 ,lytes sent\n\nseen by sx ,[**month (only) 108**] need mra\n\nrecheck hemodynamics and wean milrinone as tol\nfollow hcts\n', 'event': ['Pain', 'Sleep', 'Eating', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient denies pain",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "sleeping all day but easily aroused",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "all day"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "taking cl liquids",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "cl liquids",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "no stool",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'all day'}}}, {'Eating': {'Eating': {'food': 'cl liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['patient denies pain', 'sleeping all day but easily aroused', 'taking cl liquids', 'no stool'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [True, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-11 15:35:00 and 2180-03-11 15:46:00):\n           patient denies pain,nausea.sleeping all day but easily aroused ,alert and oreinted.\n\nsr no ect. .neo dc ci 2.99/svr 858.now weaning milrinone.pad 13 to 19.pa sat 73 .cvp 10 to 20 .map 75 to 87.good distal pulses,bp equal both arms .\n\n6l np 7.38/32/87/20/96\n\ntaking cl liquids ,abd soft, no stool\n\nhuo 15 to 20 ,lytes sent\n\nseen by sx ,[**month (only) 108**] need mra\n\nrecheck hemodynamics and wean milrinone as tol\nfollow hcts\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 15.513109986903146}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>sleeping all day</t>
         </is>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>['sleeping all day but easily aroused']</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'all day'}}}]</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Eating', 'Excretion']</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'all day'}}}, {'Eating': {'Eating': {'food': 'cl liquids', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>['patient denies pain', 'sleeping all day but easily aroused', 'taking cl liquids', 'no stool']</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient denies pain', 'e2=Sleep|1:sleeping all day but easily aroused', 'e3=Eating|1:taking cl liquids', 'e4=Excretion|1:no stool']</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -744,56 +774,66 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-12 04:25:00'), Timestamp('2180-03-12 04:40:00'))</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nsg progress note 7p-7a/ status post aortic dissection\n\ns- " i don\'t remember doing that"?\n\no- see flowsheet for objective data\n\n[**name (ni) 231**] patient [**name (ni) 591**] hypotensive slightly - 90/40- dipping to low 80\'s asleep systolically- given 500cc ivf normal saline bolus, increased milrinone to 0.375 mcg and decreased per schedule amiodorone to 0.5mg. no significant improvement in bp and by 9:30- decided to add back small amount neo drops- 0.2 mcg/kg.\ndenies worse back pain, serial hct wnl, no evidence of worsening disection.\npa # wnl- pa- 33/17-18 ; cvp- 14-17, pcw- 16-18.\npatient found to have self d/c pa line and introducer from rt ij- bleeding small amount-\nheld pressure- no evidence of pneumo/ho called and came to examine.\nwith commotion of pa line d/c- bp up to 130/.\nd/c neo drops as of 2am and remains off drops.\n\n[**name (ni) 62**] patient on 6l np- resp rate- mid 20\'s, lungs clear- appears comfortable in no distress.\n\nid- temp flat- no fever\n\ngu-20cc/hour via foley catheter- am creat to be checked- atn\n\n[**name (ni) 232**] patient taking meds/lix without issue\n(+) bowel sounds, no stool.\n\n[**name (ni) 324**] patient alert and oriented- when awakened in middle of nite with pa line self d/[**name (ni) **] patient slightly disoriented , but easily reoriented to\ntime/place.\nson and wife in evening to visit.\nall aware of plan of care.\n\na/[**name (ni) **] patient status post aortic dissection- currently stable on milrinone drops 0.375\n- transiently requiring neo drops for low normal bp\n\ncontinue milrinone as ordered, am labs- replete lytes as needed.\nserial hct\'s check to make sure no sign of acute expansion in disection- assess back pain/level etc.\nkeep patient safe, and continue to closely assess mental status.\nif bp continues to stay above 120-130\'s, discuss with team ? addition again of some esmolol type [**doctor last name 528**] to control rate pressure product\nkeep patient aware of plan of care.\n', 'event': ['Sleep', 'Pain', 'Excretion', 'Family', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "status post aortic dissection"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "asleep systolically- given 500cc ivf normal saline bolus, increased milrinone to 0.375 mcg and decreased per schedule amiodorone to 0.5mg.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "denies worse back pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "gu-20cc/hour via foley catheter- am creat to be checked- atn",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "20cc/hour",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "son and wife in evening to visit.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "son and wife"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "[**name (ni) 232**] patient taking meds/lix without issue",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "meds/lix",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '20cc/hour', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'son and wife'}}}, {'Eating': {'Eating': {'food': 'meds/lix', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['asleep systolically- given 500cc ivf normal saline bolus, increased milrinone to 0.375 mcg and decreased per schedule amiodorone to 0.5mg.', 'denies worse back pain', 'gu-20cc/hour via foley catheter- am creat to be checked- atn', 'son and wife in evening to visit.', '[**name (ni) 232**] patient taking meds/lix without issue'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'evening', 'Unknown'], 'negation': [False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-12 04:25:00 and 2180-03-12 04:40:00):\n           ccu nsg progress note 7p-7a/ status post aortic dissection\n\ns- " i don\'t remember doing that"?\n\no- see flowsheet for objective data\n\n[**name (ni) 231**] patient [**name (ni) 591**] hypotensive slightly - 90/40- dipping to low 80\'s asleep systolically- given 500cc ivf normal saline bolus, increased milrinone to 0.375 mcg and decreased per schedule amiodorone to 0.5mg. no significant improvement in bp and by 9:30- decided to add back small amount neo drops- 0.2 mcg/kg.\ndenies worse back pain, serial hct wnl, no evidence of worsening disection.\npa # wnl- pa- 33/17-18 ; cvp- 14-17, pcw- 16-18.\npatient found to have self d/c pa line and introducer from rt ij- bleeding small amount-\nheld pressure- no evidence of pneumo/ho called and came to examine.\nwith commotion of pa line d/c- bp up to 130/.\nd/c neo drops as of 2am and remains off drops.\n\n[**name (ni) 62**] patient on 6l np- resp rate- mid 20\'s, lungs clear- appears comfortable in no distress.\n\nid- temp flat- no fever\n\ngu-20cc/hour via foley catheter- am creat to be checked- atn\n\n[**name (ni) 232**] patient taking meds/lix without issue\n(+) bowel sounds, no stool.\n\n[**name (ni) 324**] patient alert and oriented- when awakened in middle of nite with pa line self d/[**name (ni) **] patient slightly disoriented , but easily reoriented to\ntime/place.\nson and wife in evening to visit.\nall aware of plan of care.\n\na/[**name (ni) **] patient status post aortic dissection- currently stable on milrinone drops 0.375\n- transiently requiring neo drops for low normal bp\n\ncontinue milrinone as ordered, am labs- replete lytes as needed.\nserial hct\'s check to make sure no sign of acute expansion in disection- assess back pain/level etc.\nkeep patient safe, and continue to closely assess mental status.\nif bp continues to stay above 120-130\'s, discuss with team ? addition again of some esmolol type [**doctor last name 528**] to control rate pressure product\nkeep patient aware of plan of care.\n\n        ', 'case_attributes': [[{'attribute_name': 'status post aortic dissection'}]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient'], 'event_detection_time': 24.181039117043838}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>dipping to low 80's asleep</t>
         </is>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>['asleep systolically- given 500cc ivf normal saline bolus, increased milrinone to 0.375 mcg and decreased per schedule amiodorone to 0.5mg.']</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Family', 'Eating']</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '20cc/hour', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'son and wife'}}}, {'Eating': {'Eating': {'food': 'meds/lix', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>['asleep systolically- given 500cc ivf normal saline bolus, increased milrinone to 0.375 mcg and decreased per schedule amiodorone to 0.5mg.', 'denies worse back pain', 'gu-20cc/hour via foley catheter- am creat to be checked- atn', 'son and wife in evening to visit.', '[**name (ni) 232**] patient taking meds/lix without issue']</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:asleep systolically- given 500cc ivf normal saline bolus, increased milrinone to 0.375 mcg and decreased per schedule amiodorone to 0.5mg.', 'e2=Pain|1:denies worse back pain', 'e3=Excretion|1:gu-20cc/hour via foley catheter- am creat to be checked- atn', 'e4=Family|1:son and wife in evening to visit.', 'e5=Eating|1:[**name (ni) 232**] patient taking meds/lix without issue']</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -829,56 +869,66 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-13 04:14:00'), Timestamp('2180-03-13 04:36:00'))</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>{'text': 'ccu npn 7p-7a\ns: "its just like in the army, hurry up and wait"\no: see carevue and update for complete assessment data\n\ncv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor. c/o mild back pain, per patient. tolerable. assists with turning, sits @ bedside. hr 60s-70s nsr, no ectopy. dps/pts weak palp and verified by dopplar, radial pulses palp. hct stable @ 38, am labs pending. awaiting mri abdomen to eval extension of dissection, ? involvement of renal arteries\n\nresp: no c/o sob, breathing comfortably on 6l nc with spo2 94-97%. rr 18-24. ls clear @ apices, diminished with occasional scattered rales @ bases r&gt;l.\n\ngi/gu: abd soft, nontender, nondistended. +bs, -bm. tol pos and meds. foley draining minimal amts clear amber urine, 15-40cc/hr, +725cc yesterday. am bun/cr pending.\n\nid: afebrile, tmax 99.0 pr. wbc 8\n\nneruo: a&amp;ox3, easliy arousable despite low bp, appropriately discouraged re: lack of sleep but otherwise pleasant.\n\na: 84yo with h/o type a dissection, repaired in \'[**77**], admitted now with type b dissection extending to bifurcation and ? renal artery involvement; hosp. course c/b cardiogenic shock (ci 1.7, ^ 2.9 with milrinone), arf and labile bp.\np: follow up am labs, q12hr hct, monitor pain, mri abdomen. labetalol/pressors to maintain diastolic blood pressure 100-120.\n', 'event': ['Pain', 'Sleep', 'Excretion', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "84"\n        },\n        {\n            "attribute_name": "history_of_type_a_dissection",\n            "attribute_value": "repaired in \'[**77**]"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o mild back pain, per patient. tolerable.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "back",\n                    "duration": "tolerable"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "down significantly when asleep but patient. awakens easily and is coherent",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "coherent",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "foley draining minimal amts clear amber urine, 15-40cc/hr, +725cc yesterday.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "minimal amts",\n                    "quality": "clear amber"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "tol pos and meds.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "pos and meds",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e1"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "after",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'mild', 'location': 'back', 'duration': 'tolerable'}}}, {'Sleep': {'Sleep': {'quality': 'coherent', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'minimal amts', 'quality': 'clear amber'}}}, {'Eating': {'Eating': {'food': 'pos and meds', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['c/o mild back pain, per patient. tolerable.', 'down significantly when asleep but patient. awakens easily and is coherent', 'foley draining minimal amts clear amber urine, 15-40cc/hr, +725cc yesterday.', 'tol pos and meds.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-13 04:14:00 and 2180-03-13 04:36:00):\n           ccu npn 7p-7a\ns: "its just like in the army, hurry up and wait"\no: see carevue and update for complete assessment data\n\ncv: diastolic blood pressure labile, transiently on labetalol for bp 150s, ranging 79-150/, down significantly when asleep but patient. awakens easily and is coherent, map &gt;60, md aware, cont to closely monitor. c/o mild back pain, per patient. tolerable. assists with turning, sits @ bedside. hr 60s-70s nsr, no ectopy. dps/pts weak palp and verified by dopplar, radial pulses palp. hct stable @ 38, am labs pending. awaiting mri abdomen to eval extension of dissection, ? involvement of renal arteries\n\nresp: no c/o sob, breathing comfortably on 6l nc with spo2 94-97%. rr 18-24. ls clear @ apices, diminished with occasional scattered rales @ bases r&gt;l.\n\ngi/gu: abd soft, nontender, nondistended. +bs, -bm. tol pos and meds. foley draining minimal amts clear amber urine, 15-40cc/hr, +725cc yesterday. am bun/cr pending.\n\nid: afebrile, tmax 99.0 pr. wbc 8\n\nneruo: a&amp;ox3, easliy arousable despite low bp, appropriately discouraged re: lack of sleep but otherwise pleasant.\n\na: 84yo with h/o type a dissection, repaired in \'[**77**], admitted now with type b dissection extending to bifurcation and ? renal artery involvement; hosp. course c/b cardiogenic shock (ci 1.7, ^ 2.9 with milrinone), arf and labile bp.\np: follow up am labs, q12hr hct, monitor pain, mri abdomen. labetalol/pressors to maintain diastolic blood pressure 100-120.\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '84'}, {'attribute_name': 'history_of_type_a_dissection', 'attribute_value': "repaired in '[**77**]"}]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 18.268946213880554}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>down significantly when asleep| lack of sleep</t>
         </is>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>['down significantly when asleep but patient. awakens easily and is coherent']</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'coherent', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Eating']</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'mild', 'location': 'back', 'duration': 'tolerable'}}}, {'Sleep': {'Sleep': {'quality': 'coherent', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'minimal amts', 'quality': 'clear amber'}}}, {'Eating': {'Eating': {'food': 'pos and meds', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>['c/o mild back pain, per patient. tolerable.', 'down significantly when asleep but patient. awakens easily and is coherent', 'foley draining minimal amts clear amber urine, 15-40cc/hr, +725cc yesterday.', 'tol pos and meds.']</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o mild back pain, per patient. tolerable.', 'e2=Sleep|1:down significantly when asleep but patient. awakens easily and is coherent', 'e3=Excretion|1:foley draining minimal amts clear amber urine, 15-40cc/hr, +725cc yesterday.', 'e4=Eating|1:tol pos and meds.']</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -916,56 +966,66 @@
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-14 04:34:00'), Timestamp('2180-03-14 04:53:00'))</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>{'text': "ccu nursing progress note 7pm 3/21-7am [**3-14**]\ns:  i can't sleep at night at home either.  i walk around alot.\n\no:  patient sleeping only in short intervals, but states that this is normal for him.  sitting on side of bed to relieve generalized aches.\n\nt max 97.7\n\ncv - hr 56-62 sb/sr with no vea.  bp continues to be labile 80-150/59-70.  found that patient was initially on 1mg/min labetelol.  attempting to titrate down and while patient was asleep, labetolol was briefly off per bp.  but as patient is awake, labetolol resumed and increased up to 1mg/min for goal diastolic blood pressure 100-120/.  milrinone cont 0.375mcgs/kg/min and is unchanged.  pulses +1/+2 bilaterally.  mri tonight with no documented results.\n\nresp - ls are decreased at bases l&gt;r and o2 on 6ln/p.  patient denies sob.  patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%.\n\ngu - foley patent cloudy amber urine 15-40cc/hr.\n\ngi - abd is soft with +bs.  no stool tonight.  tolerating by mouth's without difficulty.\n\nskin - l hand old iv site +2 edema, reddened with approx 2-3cm area of bruising noted.  covered with dsd. ho aware.  l elbow reddened contusion noted as well as area of pressure r buttocks.  areas washed with soap and water and left open to air.\n\nsocial - wife and son [**name (ni) **] patient this evening and have spoken and were updated by ho.\n\na:  84yom with aortic dissection c/b hypotension, cardiogenic shock now is stable on milrinone and labetolol.\n\np:  check am pnd lytes, hct and replete pro re nata, ? change iv labetolol to by mouth beta blocker, monitor bp response, cont pulse checks, monitor skin integrity and encourage turning and positioning to lessen pressure areas, cont to keep patient and family informed of all plans, treatments and goals.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "patient history",\n      "attribute_value": "aortic dissection c/b hypotension, cardiogenic shock"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient sleeping only in short intervals, but states that this is normal for him.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "short intervals"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "sitting on side of bed to relieve generalized aches.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "generalized aches",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "foley patent cloudy amber urine 15-40cc/hr.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "15-40cc/hr",\n          "quality": "cloudy amber"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "tolerating by mouth\'s without difficulty.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "wife and son [**name (ni) **] patient this evening and have spoken and were updated by ho.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "evening",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "wife and son"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "simultaneous",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "after",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short intervals'}}}, {'Pain': {'Pain': {'severity': 'generalized aches', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '15-40cc/hr', 'quality': 'cloudy amber'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife and son'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]], 'text_quotes': ['patient sleeping only in short intervals, but states that this is normal for him.', 'sitting on side of bed to relieve generalized aches.', 'foley patent cloudy amber urine 15-40cc/hr.', "tolerating by mouth's without difficulty.", 'wife and son [**name (ni) **] patient this evening and have spoken and were updated by ho.'], 'event_time': ['night', 'Unknown', 'Unknown', 'Unknown', 'evening'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-14 04:34:00 and 2180-03-14 04:53:00):\n           ccu nursing progress note 7pm 3/21-7am [**3-14**]\ns:  i can\'t sleep at night at home either.  i walk around alot.\n\no:  patient sleeping only in short intervals, but states that this is normal for him.  sitting on side of bed to relieve generalized aches.\n\nt max 97.7\n\ncv - hr 56-62 sb/sr with no vea.  bp continues to be labile 80-150/59-70.  found that patient was initially on 1mg/min labetelol.  attempting to titrate down and while patient was asleep, labetolol was briefly off per bp.  but as patient is awake, labetolol resumed and increased up to 1mg/min for goal diastolic blood pressure 100-120/.  milrinone cont 0.375mcgs/kg/min and is unchanged.  pulses +1/+2 bilaterally.  mri tonight with no documented results.\n\nresp - ls are decreased at bases l&gt;r and o2 on 6ln/p.  patient denies sob.  patient is a mouth breather, so sat will decrease to 92% while patient is asleep, otherwise 95-97%.\n\ngu - foley patent cloudy amber urine 15-40cc/hr.\n\ngi - abd is soft with +bs.  no stool tonight.  tolerating by mouth\'s without difficulty.\n\nskin - l hand old iv site +2 edema, reddened with approx 2-3cm area of bruising noted.  covered with dsd. ho aware.  l elbow reddened contusion noted as well as area of pressure r buttocks.  areas washed with soap and water and left open to air.\n\nsocial - wife and son [**name (ni) **] patient this evening and have spoken and were updated by ho.\n\na:  84yom with aortic dissection c/b hypotension, cardiogenic shock now is stable on milrinone and labetolol.\n\np:  check am pnd lytes, hct and replete pro re nata, ? change iv labetolol to by mouth beta blocker, monitor bp response, cont pulse checks, monitor skin integrity and encourage turning and positioning to lessen pressure areas, cont to keep patient and family informed of all plans, treatments and goals.\n\n        ', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'aortic dissection c/b hypotension, cardiogenic shock'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 23.42847905913368}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>i can't sleep at night|while patient was asleep</t>
         </is>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>['patient sleeping only in short intervals, but states that this is normal for him.']</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short intervals'}}}]</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short intervals'}}}, {'Pain': {'Pain': {'severity': 'generalized aches', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '15-40cc/hr', 'quality': 'cloudy amber'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife and son'}}}]</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>['patient sleeping only in short intervals, but states that this is normal for him.', 'sitting on side of bed to relieve generalized aches.', 'foley patent cloudy amber urine 15-40cc/hr.', "tolerating by mouth's without difficulty.", 'wife and son [**name (ni) **] patient this evening and have spoken and were updated by ho.']</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient sleeping only in short intervals, but states that this is normal for him.', 'e2=Pain|1:sitting on side of bed to relieve generalized aches.', 'e3=Excretion|1:foley patent cloudy amber urine 15-40cc/hr.', "e4=Eating|1:tolerating by mouth's without difficulty.", 'e5=Family|1:wife and son [**name (ni) **] patient this evening and have spoken and were updated by ho.']</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -1001,56 +1061,66 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-14 19:32:00'), Timestamp('2180-03-14 19:59:00'))</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>{'text': 'ccu npn 7a-7p\ns: " i don\'t eat much anymore...i\'m fine just looking out the window.\n\no: please see careview for vs and additional data.\n\ncv: hr 54-68 sb/nsr, no ectopy noted.  patient continues on labetalol and milrinone gtts.  labetalol drops titrated from off to 1.2 mg/min, milrinone titrated from 0.375 mcg/kg/min to 0.33 mcg/kg/min-milrinone to be titrated further overnoc.  patient abp 98-164/49-70-&gt; patient systolic 100-125 for most of shift, bp labile-fluctuates with wakening. pulses palp. hct 35 this am, to be redrawn this eve. patient to go to cath lab tomorrow am, per cardiac [**doctor first name **] note in chart-to examine hemodynamics and coronaries. mri results for aortic dissection status pending.\n\nresp: patient ls clear to coarse to diminished at bases, oxygen saturation 93-100 % on 6l n.c, rr 15-20, patient denies sob appears comfortable.\n\ngi/gu: patient abd soft, +bs x 4, no stool this shift.  patient with foley cath draining amber cloudy u/o to dark yellow clearing u/o, approx 15-40 cc/hr-patient to get lasix this eve.\n\nneuro: patient a&amp;o x 3, patient moves self to dangling on side of bed.  patient cooperative with care, patient quiet but responds appropriately to questions and engages in conversation with initiation. patient dozing intermittently throughout day.\n\nid: patient afebrile.\n\nsocial: patient wife and daughter in to visit patient today, aware of plan of care.\n\na/p: 84 year old male with aortic dissection-repair in 03, c/b cardiogenic shock, labile bp and arf-continues on labetalol drops d/t labile bp, milrinone drops titrating down, awaiting mri results-patient to cath lab tomorrrow am.  as discussed per interdisciplinary rounds, continue to monitor hemodynamics-titrate labetalol-change over to by mouth beta-blocker as patient condition tol.  continue to follow hct, lytes and update team on patient condition.  continue to monitor resp status, renal func and u/o.  continue to provide emotional support to patient and family.\n\n\n', 'event': ['Eating', 'Family', 'Sleep', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "patient history",\n      "attribute_value": "aortic dissection-repair in 03, cardiogenic shock, labile bp and arf"\n    },\n    {\n      "attribute_name": "plan of care",\n      "attribute_value": "continue to monitor hemodynamics-titrate labetalol-change over to by mouth beta-blocker as patient condition tol"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Eating",\n      "text_quote": "i don\'t eat much anymore...",\n      "actor": "patient",\n      "object": "food",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "amount": "little"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "patient wife and daughter in to visit patient today",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "wife and daughter"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Sleep",\n      "text_quote": "patient dozing intermittently throughout day",\n      "actor": "patient",\n      "object": "Unknown",\n      "negation": false,\n      "time": "day",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "intermittent"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "patient with foley cath draining amber cloudy u/o to dark yellow clearing u/o, approx 15-40 cc/hr",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "15-40 cc/hr"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Pain",\n      "text_quote": "patient denies sob appears comfortable",\n      "actor": "patient",\n      "object": "Unknown",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "none"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Eating': {'Eating': {'amount': 'little'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife and daughter'}}}, {'Sleep': {'Sleep': {'quality': 'intermittent'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '15-40 cc/hr'}}}, {'Pain': {'Pain': {'severity': 'none'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ["i don't eat much anymore...", 'patient wife and daughter in to visit patient today', 'patient dozing intermittently throughout day', 'patient with foley cath draining amber cloudy u/o to dark yellow clearing u/o, approx 15-40 cc/hr', 'patient denies sob appears comfortable'], 'event_time': ['Unknown', 'Unknown', 'day', 'Unknown', 'Unknown'], 'negation': [True, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-14 19:32:00 and 2180-03-14 19:59:00):\n           ccu npn 7a-7p\ns: " i don\'t eat much anymore...i\'m fine just looking out the window.\n\no: please see careview for vs and additional data.\n\ncv: hr 54-68 sb/nsr, no ectopy noted.  patient continues on labetalol and milrinone gtts.  labetalol drops titrated from off to 1.2 mg/min, milrinone titrated from 0.375 mcg/kg/min to 0.33 mcg/kg/min-milrinone to be titrated further overnoc.  patient abp 98-164/49-70-&gt; patient systolic 100-125 for most of shift, bp labile-fluctuates with wakening. pulses palp. hct 35 this am, to be redrawn this eve. patient to go to cath lab tomorrow am, per cardiac [**doctor first name **] note in chart-to examine hemodynamics and coronaries. mri results for aortic dissection status pending.\n\nresp: patient ls clear to coarse to diminished at bases, oxygen saturation 93-100 % on 6l n.c, rr 15-20, patient denies sob appears comfortable.\n\ngi/gu: patient abd soft, +bs x 4, no stool this shift.  patient with foley cath draining amber cloudy u/o to dark yellow clearing u/o, approx 15-40 cc/hr-patient to get lasix this eve.\n\nneuro: patient a&amp;o x 3, patient moves self to dangling on side of bed.  patient cooperative with care, patient quiet but responds appropriately to questions and engages in conversation with initiation. patient dozing intermittently throughout day.\n\nid: patient afebrile.\n\nsocial: patient wife and daughter in to visit patient today, aware of plan of care.\n\na/p: 84 year old male with aortic dissection-repair in 03, c/b cardiogenic shock, labile bp and arf-continues on labetalol drops d/t labile bp, milrinone drops titrating down, awaiting mri results-patient to cath lab tomorrrow am.  as discussed per interdisciplinary rounds, continue to monitor hemodynamics-titrate labetalol-change over to by mouth beta-blocker as patient condition tol.  continue to follow hct, lytes and update team on patient condition.  continue to monitor resp status, renal func and u/o.  continue to provide emotional support to patient and family.\n\n\n\n        ', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'aortic dissection-repair in 03, cardiogenic shock, labile bp and arf'}, {'attribute_name': 'plan of care', 'attribute_value': 'continue to monitor hemodynamics-titrate labetalol-change over to by mouth beta-blocker as patient condition tol'}]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient'], 'event_detection_time': 20.987425471888855}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>bp labile-fluctuates with wakening|patient dozing intermittently throughout day</t>
         </is>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>['patient dozing intermittently throughout day']</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'intermittent'}}}]</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>['Eating', 'Family', 'Sleep', 'Excretion', 'Pain']</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>[{'Eating': {'Eating': {'amount': 'little'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife and daughter'}}}, {'Sleep': {'Sleep': {'quality': 'intermittent'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '15-40 cc/hr'}}}, {'Pain': {'Pain': {'severity': 'none'}}}]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>["i don't eat much anymore...", 'patient wife and daughter in to visit patient today', 'patient dozing intermittently throughout day', 'patient with foley cath draining amber cloudy u/o to dark yellow clearing u/o, approx 15-40 cc/hr', 'patient denies sob appears comfortable']</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>["e1=Eating|1:i don't eat much anymore...", 'e2=Family|1:patient wife and daughter in to visit patient today', 'e3=Sleep|1:patient dozing intermittently throughout day', 'e4=Excretion|1:patient with foley cath draining amber cloudy u/o to dark yellow clearing u/o, approx 15-40 cc/hr', 'e5=Pain|1:patient denies sob appears comfortable']</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -1087,56 +1157,66 @@
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>1</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(Timestamp('2180-03-16 04:45:00'), Timestamp('2180-03-16 04:54:00'))</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>{'text': 'ccu npn 7p-7a\ns: "i feel better today, [**initials (namepattern4) **] [**last name (namepattern4) **] some"\no: see carevue for complete assessment data\ncv: off labetalol and milrinone, tolerating standing labetalol by mouth and by mouth hydral, bp consistently 130s-140s&gt;120, around 0500 up to 160s, intern notified. hr sb 45-55, no ectopy. am labs pending. distal pulses palp/dop. no c/o cp/sob.\n\nresp: spo2 &gt;93% on 5l nc, @ times on ra with spo2 89-97%, noted ~20sec apenic pauses while sleeping (corresponding to subsequent ^diastolic blood pressure). lscta, diminished @ bases, fine bibasilar rales.\n\ngi/gu: abd soft, nontender, nondistended, +bs/-bm. tol pos npo after mn for tenative cath today (unlikely per resident). foley draining cyu, recieved additional 80mg lasix ivp @ mn with good diuresis, -2l yesterday, -1l thus far today.\n\nid: afebrile, tmax 97.9 by mouth. no abx.\n\nskin: cont ecchymotic in areas, l hand edema resolving. no b/d noted. turns by self in bed.\n\nneuro: slept through night, tylenol pro re nata for back pain.\n\na: 84yo with type b dissection off gtts today with spb consistently &gt;goal of 120 despite by mouth labetolol, hydralazine and diuresis with lasix.\n\np: cont to monitor bp, ? ^ by mouth meds. npo for ? cath today to eval hemodynamics and coronaries.  monitor resp sts/sleep apnea. follow up am labs. ? c/o to floor v. cath today.\n', 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "84"\n        },\n        {\n            "attribute_name": "medical condition",\n            "attribute_value": "type b dissection"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "slept through night",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "through the night"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "back pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "foley draining cyu, recieved additional 80mg lasix ivp @ mn with good diuresis",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "good diuresis",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "npo after mn for tenative cath today",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "npo"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "None",\n            "actor": "Unknown",\n            "object": "Unknown",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "~20sec apenic pauses while sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "after",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'through the night'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good diuresis', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'npo'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['slept through night', 'back pain', 'foley draining cyu, recieved additional 80mg lasix ivp @ mn with good diuresis', 'npo after mn for tenative cath today', 'None', '~20sec apenic pauses while sleeping'], 'event_time': ['night', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2180-03-16 04:45:00 and 2180-03-16 04:54:00):\n           ccu npn 7p-7a\ns: "i feel better today, [**initials (namepattern4) **] [**last name (namepattern4) **] some"\no: see carevue for complete assessment data\ncv: off labetalol and milrinone, tolerating standing labetalol by mouth and by mouth hydral, bp consistently 130s-140s&gt;120, around 0500 up to 160s, intern notified. hr sb 45-55, no ectopy. am labs pending. distal pulses palp/dop. no c/o cp/sob.\n\nresp: spo2 &gt;93% on 5l nc, @ times on ra with spo2 89-97%, noted ~20sec apenic pauses while sleeping (corresponding to subsequent ^diastolic blood pressure). lscta, diminished @ bases, fine bibasilar rales.\n\ngi/gu: abd soft, nontender, nondistended, +bs/-bm. tol pos npo after mn for tenative cath today (unlikely per resident). foley draining cyu, recieved additional 80mg lasix ivp @ mn with good diuresis, -2l yesterday, -1l thus far today.\n\nid: afebrile, tmax 97.9 by mouth. no abx.\n\nskin: cont ecchymotic in areas, l hand edema resolving. no b/d noted. turns by self in bed.\n\nneuro: slept through night, tylenol pro re nata for back pain.\n\na: 84yo with type b dissection off gtts today with spb consistently &gt;goal of 120 despite by mouth labetolol, hydralazine and diuresis with lasix.\n\np: cont to monitor bp, ? ^ by mouth meds. npo for ? cath today to eval hemodynamics and coronaries.  monitor resp sts/sleep apnea. follow up am labs. ? c/o to floor v. cath today.\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '84'}, {'attribute_name': 'medical condition', 'attribute_value': 'type b dissection'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'Unknown', 'patient'], 'event_detection_time': 22.757265579886734}</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>pauses while sleeping|slept through night</t>
         </is>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>['slept through night']</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'through the night'}}}]</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'through the night'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good diuresis', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'npo'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'Unknown'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>['slept through night', 'back pain', 'foley draining cyu, recieved additional 80mg lasix ivp @ mn with good diuresis', 'npo after mn for tenative cath today', 'None', '~20sec apenic pauses while sleeping']</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept through night', 'e2=Pain|1:back pain', 'e3=Excretion|1:foley draining cyu, recieved additional 80mg lasix ivp @ mn with good diuresis', 'e4=Eating|1:npo after mn for tenative cath today', 'e5=Family|0:None', 'e6=Unknown|1:~20sec apenic pauses while sleeping']</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -1171,56 +1251,66 @@
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="n">
-        <v>1</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-13 22:52:00'), Timestamp('2162-06-13 23:02:00'))</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>{'text': 'nursing progress note [**2085**]-2300\ns: "my breathing feels better when i sit up"\n\no: please see carevue for complete objective data.\n\n39 year old female admitted for cardiomyopathy and heart failure. ef-15%.\n\nnsr with freq pvc\'s, no runs of vt since admission. diastolic blood pressure 110-120\'s, started on carvedilol 6.25. heparin sc. pulses palp, no c/o cp. k-6.1, hemolyzed, repeat pending. echo done.\n\nlung clr with rales in bases. c/o sob when lying flat. sats 95 when awake, dropped to high 80\'s when sleeping. placed on 2l nc, sats in mid 90\'s. had cxr.\n\nnas diet, bs present, had guaiac - bm and voided. placed foley and gave lasix 20mg iv. patient on 1500cc fluid restriction.\n\nafebrile, wbc-10.4. 2 piv\'s.\n\nmonitor uo and fluid restriction. monitor response to cardiac meds. follow up c labs and tests. emotionally support patient and family.\n\n\n\n\n\n\n', 'event': ['Sleep', 'Excretion', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "39"\n        },\n        {\n            "attribute_name": "sex",\n            "attribute_value": "female"\n        },\n        {\n            "attribute_name": "admission reason",\n            "attribute_value": "cardiomyopathy and heart failure"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sats dropped to high 80\'s when sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "had guaiac - bm and voided",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "nas diet, bs present",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "nas diet"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "c/o sob when lying flat",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "moderate",\n                    "location": "chest"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'stool'}}}, {'Eating': {'Eating': {'food': 'nas diet'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'chest'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ["sats dropped to high 80's when sleeping", 'had guaiac - bm and voided', 'nas diet, bs present', 'c/o sob when lying flat'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-13 22:52:00 and 2162-06-13 23:02:00):\n           nursing progress note [**2085**]-2300\ns: "my breathing feels better when i sit up"\n\no: please see carevue for complete objective data.\n\n39 year old female admitted for cardiomyopathy and heart failure. ef-15%.\n\nnsr with freq pvc\'s, no runs of vt since admission. diastolic blood pressure 110-120\'s, started on carvedilol 6.25. heparin sc. pulses palp, no c/o cp. k-6.1, hemolyzed, repeat pending. echo done.\n\nlung clr with rales in bases. c/o sob when lying flat. sats 95 when awake, dropped to high 80\'s when sleeping. placed on 2l nc, sats in mid 90\'s. had cxr.\n\nnas diet, bs present, had guaiac - bm and voided. placed foley and gave lasix 20mg iv. patient on 1500cc fluid restriction.\n\nafebrile, wbc-10.4. 2 piv\'s.\n\nmonitor uo and fluid restriction. monitor response to cardiac meds. follow up c labs and tests. emotionally support patient and family.\n\n\n\n\n\n\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '39'}, {'attribute_name': 'sex', 'attribute_value': 'female'}, {'attribute_name': 'admission reason', 'attribute_value': 'cardiomyopathy and heart failure'}]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 17.58283355901949}</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>high 80's when sleeping</t>
         </is>
       </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>["sats dropped to high 80's when sleeping"]</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Eating', 'Pain']</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'stool'}}}, {'Eating': {'Eating': {'food': 'nas diet'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'chest'}}}]</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>["sats dropped to high 80's when sleeping", 'had guaiac - bm and voided', 'nas diet, bs present', 'c/o sob when lying flat']</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>["e1=Sleep|0:sats dropped to high 80's when sleeping", 'e2=Excretion|1:had guaiac - bm and voided', 'e3=Eating|1:nas diet, bs present', 'e4=Pain|1:c/o sob when lying flat']</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -1258,56 +1348,66 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="n">
-        <v>1</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-14 18:15:00'), Timestamp('2162-06-14 18:58:00'))</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nsg note: alt in cv/cardiomyopathy\ns: "i think i do feel better".\no: for complete vs see ccu flow sheet\nthis 39y old woman comes to [**hospital1 2**] from osh with ~3mo history of sob and 3 week history of increasing sob, fever, lower extremity edema and severe exercise intolerance. echo shows ef of 10% with cardiomyopathy of unknown origen. she started captopril overnight with previous carvedolol dose d/c.\ncv: patient initially had bp in low 100s, but by 10pm dinamap and auscultated bp were unobtainable. doppler \rbps  weree  in the mid 80s with hr in the low 100s st with frequent pvcs. urine output also dropped and lungs were more congested with near constant coughing. it was decided to send here to the cath lab for swan placement. prior to going multiple radial aline attempts were made with no success. attempts in cath lab also failed and r 4f femoral aline was placed. in lab she had swan placed thru r ij. ra was 12, rv 45/16, pa 43/21 with wedge 17. co was 3.2 with index 1.53. she was boluses with 50mic/kilo of milrinone and started on drip at .375mic/kilo. patient returned to ccu ~1430 with aline in r groin, rij swan and milrinone running. co/ci have improved and at 1800 numbers were 6.0/2.83/853. paps have ranged 40s/14-20 with wedge 14 and ra [**6-2**]. hr has increased to  108-120s with frequent pvcs, runs of ventricular trigemininy and episodes of alternans from systole seen by aline tracing. at 1530 anesthesia was able to place a l radial aline and at 1600 femoral aline was removed. there is no ooze or hematoma and all pulses palpable. all extremities remain cool. extremities were dusky this am, but color has improved since milrinone added. she received lasix 20mg ivp at 1530. bp now low 100s to 1-teens /60-70s. cough has greatly improved. nimc transplant team has been notified and if patient needs immediate intervention she will be transfered there, if not she will stay here and see them as outpatient if cardiomyopathy does not adequately resolve.\nid: temp on return from lab was 101.7. tylenol given and bc x 2 and urine sent. wbc 16.1 (10.4 this am).\nresp: breath sounds in am were crackles primarily at bases but by 10am she has decreased breath sounds throughout with experitory squeeking noise. she was sating 98-100% but coughing very frequently despite anti-tussives. since returning from the lab her breathing has much improved with only decreased bs at bases. she is sating 97% on 3l np. and gas was 7.47/29/80/22.\ngi: apetite poor and she has eaten nothing today. no bm\nrenal: she has had fair response to lasix and is presently ~900cc neg for the day.\nms/comfort: patient was very anxious about going to lab and also have so many sticks for aline. she received ativan .5mg iv pre and post lab with good results. she also received morphine 2mg iv upon return from lab to help with discomfort.  she has finally been sleeping since line was pulled.\nsocial: her mother sisters and brother and [**name2 (ni) 10815**] were in to visit as well as her husband. [**name (ni) **] husband will sleep here tonight. family aware of severity of patient condition but\n', 'event': ['Pain', 'Family', 'Sleep', 'Eating', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "39"\n        },\n        {\n            "attribute_name": "history_of_sob",\n            "attribute_value": "~3mo"\n        },\n        {\n            "attribute_name": "history_of_increasing_sob",\n            "attribute_value": "3 week"\n        },\n        {\n            "attribute_name": "fever",\n            "attribute_value": "present"\n        },\n        {\n            "attribute_name": "lower_extremity_edema",\n            "attribute_value": "present"\n        },\n        {\n            "attribute_name": "severe_exercise_intolerance",\n            "attribute_value": "present"\n        },\n        {\n            "attribute_name": "echo_results",\n            "attribute_value": "ef of 10% with cardiomyopathy of unknown origen"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient was very anxious about going to lab and also have so many sticks for aline.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "anxious",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Family",\n            "text_quote": "her mother sisters and brother and [**name2 (ni) 10815**] were in to visit as well as her husband.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "mother, sisters, brother, husband"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "she has finally been sleeping since line was pulled.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "apetite poor and she has eaten nothing today.",\n            "actor": "patient",\n            "object": "food",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "nothing",\n                    "amount": "0",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "she has had fair response to lasix and is presently ~900cc neg for the day.",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "fair response to lasix",\n                    "quality": "~900cc neg for the day"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "after",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'anxious', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'mother, sisters, brother, husband'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'nothing', 'amount': '0', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair response to lasix', 'quality': '~900cc neg for the day'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['patient was very anxious about going to lab and also have so many sticks for aline.', 'her mother sisters and brother and [**name2 (ni) 10815**] were in to visit as well as her husband.', 'she has finally been sleeping since line was pulled.', 'apetite poor and she has eaten nothing today.', 'she has had fair response to lasix and is presently ~900cc neg for the day.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-14 18:15:00 and 2162-06-14 18:58:00):\n           ccu nsg note: alt in cv/cardiomyopathy\ns: "i think i do feel better".\no: for complete vs see ccu flow sheet\nthis 39y old woman comes to [**hospital1 2**] from osh with ~3mo history of sob and 3 week history of increasing sob, fever, lower extremity edema and severe exercise intolerance. echo shows ef of 10% with cardiomyopathy of unknown origen. she started captopril overnight with previous carvedolol dose d/c.\ncv: patient initially had bp in low 100s, but by 10pm dinamap and auscultated bp were unobtainable. doppler \rbps  weree  in the mid 80s with hr in the low 100s st with frequent pvcs. urine output also dropped and lungs were more congested with near constant coughing. it was decided to send here to the cath lab for swan placement. prior to going multiple radial aline attempts were made with no success. attempts in cath lab also failed and r 4f femoral aline was placed. in lab she had swan placed thru r ij. ra was 12, rv 45/16, pa 43/21 with wedge 17. co was 3.2 with index 1.53. she was boluses with 50mic/kilo of milrinone and started on drip at .375mic/kilo. patient returned to ccu ~1430 with aline in r groin, rij swan and milrinone running. co/ci have improved and at 1800 numbers were 6.0/2.83/853. paps have ranged 40s/14-20 with wedge 14 and ra [**6-2**]. hr has increased to  108-120s with frequent pvcs, runs of ventricular trigemininy and episodes of alternans from systole seen by aline tracing. at 1530 anesthesia was able to place a l radial aline and at 1600 femoral aline was removed. there is no ooze or hematoma and all pulses palpable. all extremities remain cool. extremities were dusky this am, but color has improved since milrinone added. she received lasix 20mg ivp at 1530. bp now low 100s to 1-teens /60-70s. cough has greatly improved. nimc transplant team has been notified and if patient needs immediate intervention she will be transfered there, if not she will stay here and see them as outpatient if cardiomyopathy does not adequately resolve.\nid: temp on return from lab was 101.7. tylenol given and bc x 2 and urine sent. wbc 16.1 (10.4 this am).\nresp: breath sounds in am were crackles primarily at bases but by 10am she has decreased breath sounds throughout with experitory squeeking noise. she was sating 98-100% but coughing very frequently despite anti-tussives. since returning from the lab her breathing has much improved with only decreased bs at bases. she is sating 97% on 3l np. and gas was 7.47/29/80/22.\ngi: apetite poor and she has eaten nothing today. no bm\nrenal: she has had fair response to lasix and is presently ~900cc neg for the day.\nms/comfort: patient was very anxious about going to lab and also have so many sticks for aline. she received ativan .5mg iv pre and post lab with good results. she also received morphine 2mg iv upon return from lab to help with discomfort.  she has finally been sleeping since line was pulled.\nsocial: her mother sisters and brother and [**name2 (ni) 10815**] were in to visit as well as her husband. [**name (ni) **] husband will sleep here tonight. family aware of severity of patient condition but\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '39'}, {'attribute_name': 'history_of_sob', 'attribute_value': '~3mo'}, {'attribute_name': 'history_of_increasing_sob', 'attribute_value': '3 week'}, {'attribute_name': 'fever', 'attribute_value': 'present'}, {'attribute_name': 'lower_extremity_edema', 'attribute_value': 'present'}, {'attribute_name': 'severe_exercise_intolerance', 'attribute_value': 'present'}, {'attribute_name': 'echo_results', 'attribute_value': 'ef of 10% with cardiomyopathy of unknown origen'}]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient'], 'event_detection_time': 28.39958762913011}</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>been sleeping since</t>
         </is>
       </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>['she has finally been sleeping since line was pulled.']</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>['Pain', 'Family', 'Sleep', 'Eating', 'Excretion']</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'anxious', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'mother, sisters, brother, husband'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'nothing', 'amount': '0', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair response to lasix', 'quality': '~900cc neg for the day'}}}]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>['patient was very anxious about going to lab and also have so many sticks for aline.', 'her mother sisters and brother and [**name2 (ni) 10815**] were in to visit as well as her husband.', 'she has finally been sleeping since line was pulled.', 'apetite poor and she has eaten nothing today.', 'she has had fair response to lasix and is presently ~900cc neg for the day.']</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient was very anxious about going to lab and also have so many sticks for aline.', 'e2=Family|1:her mother sisters and brother and [**name2 (ni) 10815**] were in to visit as well as her husband.', 'e3=Sleep|1:she has finally been sleeping since line was pulled.', 'e4=Eating|1:apetite poor and she has eaten nothing today.', 'e5=Excretion|1:she has had fair response to lasix and is presently ~900cc neg for the day.']</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -1343,56 +1443,66 @@
       <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="n">
-        <v>1</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-15 05:20:00'), Timestamp('2162-06-15 05:50:00'))</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>{'text': 'nursing progress note 1900-0700\ns: "i feel so hot"\n\no: please see carevue for complete objective data\n\ncv: st/nsr, 90-110\'s, freq pvc\'s. on amio tid. diastolic blood pressure 90-120\'s, gave captopril 6.25mg @ [**2155**], diastolic blood pressure dropped to 79/low 80\'s @ 2100. co/ci numbers unchanged from earlier in day and patient felt no side effects. milrinone remains @ 0.375mcg/kg/min. co/ci/svr-4.9/2.3/1159. cvp 6-10, w-16. r fem angio site cd&amp;i, no hematoma. pulses palp. extremities warm and pale.\n\nresp: lungs clr c dim bases. last abg-7.48/33/87/25/1, on 4l nc. mvo2-64. persistant productive cough. no c/o sob although tachypneic at times. cxr done, gave benzonatate for cough relief.\n\ngi/gu: bs present, no bm. ate very small amount for dinner. uo decreased to nothing for 2 hours. gave 250cc ivfb x 2, and uo improved slightly. +400cc for day and -700 for los. urine becoming more concentrated.\n\nneuro: lethargic/sleeping @ change of shift. a&amp;o x 3, mae. becoming more interactive as night went on, but slept well through night. c/o pain in r ear (reports having chronic ear infections), md aware.\n\nid/access: wbc down to 13.1 from 16. slightly febrile to 100.6 at start of shift, gave tylenol 650mg, and temp down to 98.9 this am. bc x2, urine cx pending. needs sputum cx. has rij pa cath, 2 piv\'s.\n\nsocial: husband stayed in room overnoc, supportive with care. patient has 20yo and 9yo daughter, should be into visit today. social work consulted.\n\na/p: 39yo female c severe cardiomyopathy and hf, unknown etiology. requiring milrinone and being worked up for heart transplant. continue to monitor hemodynamics and response to meds. obtain sputum cx, monitor temp. watch uo and fluid status. follow up with labs and cxr. emotionally support patient and family and keep updated on plan.\n', 'event': ['Pain', 'Sleep', 'Eating', 'Excretion', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "cardiomyopathy",\n      "attribute_value": "severe"\n    },\n    {\n      "attribute_name": "heart failure",\n      "attribute_value": "unknown etiology"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "c/o pain in r ear (reports having chronic ear infections)",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "r ear",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "lethargic/sleeping @ change of shift. a&amp;o x 3, mae. becoming more interactive as night went on, but slept well through night.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "through the night"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "ate very small amount for dinner.",\n      "actor": "patient",\n      "object": "food",\n      "negation": false,\n      "time": "dinner time",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "very small",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "uo decreased to nothing for 2 hours. gave 250cc ivfb x 2, and uo improved slightly.",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "decreased",\n          "quality": "concentrated"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "husband stayed in room overnight, supportive with care. patient has 20yo and 9yo daughter, should be into visit today.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "husband"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Pain",\n      "text_quote": "s: \\"i feel so hot\\"",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'r ear', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'good', 'duration': 'through the night'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'very small', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'decreased', 'quality': 'concentrated'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['c/o pain in r ear (reports having chronic ear infections)', 'lethargic/sleeping @ change of shift. a&amp;o x 3, mae. becoming more interactive as night went on, but slept well through night.', 'ate very small amount for dinner.', 'uo decreased to nothing for 2 hours. gave 250cc ivfb x 2, and uo improved slightly.', 'husband stayed in room overnight, supportive with care. patient has 20yo and 9yo daughter, should be into visit today.', 's: "i feel so hot"'], 'event_time': ['Unknown', 'night', 'dinner time', 'Unknown', 'overnight', 'Unknown'], 'negation': [False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-15 05:20:00 and 2162-06-15 05:50:00):\n           nursing progress note 1900-0700\ns: "i feel so hot"\n\no: please see carevue for complete objective data\n\ncv: st/nsr, 90-110\'s, freq pvc\'s. on amio tid. diastolic blood pressure 90-120\'s, gave captopril 6.25mg @ [**2155**], diastolic blood pressure dropped to 79/low 80\'s @ 2100. co/ci numbers unchanged from earlier in day and patient felt no side effects. milrinone remains @ 0.375mcg/kg/min. co/ci/svr-4.9/2.3/1159. cvp 6-10, w-16. r fem angio site cd&amp;i, no hematoma. pulses palp. extremities warm and pale.\n\nresp: lungs clr c dim bases. last abg-7.48/33/87/25/1, on 4l nc. mvo2-64. persistant productive cough. no c/o sob although tachypneic at times. cxr done, gave benzonatate for cough relief.\n\ngi/gu: bs present, no bm. ate very small amount for dinner. uo decreased to nothing for 2 hours. gave 250cc ivfb x 2, and uo improved slightly. +400cc for day and -700 for los. urine becoming more concentrated.\n\nneuro: lethargic/sleeping @ change of shift. a&amp;o x 3, mae. becoming more interactive as night went on, but slept well through night. c/o pain in r ear (reports having chronic ear infections), md aware.\n\nid/access: wbc down to 13.1 from 16. slightly febrile to 100.6 at start of shift, gave tylenol 650mg, and temp down to 98.9 this am. bc x2, urine cx pending. needs sputum cx. has rij pa cath, 2 piv\'s.\n\nsocial: husband stayed in room overnoc, supportive with care. patient has 20yo and 9yo daughter, should be into visit today. social work consulted.\n\na/p: 39yo female c severe cardiomyopathy and hf, unknown etiology. requiring milrinone and being worked up for heart transplant. continue to monitor hemodynamics and response to meds. obtain sputum cx, monitor temp. watch uo and fluid status. follow up with labs and cxr. emotionally support patient and family and keep updated on plan.\n\n        ', 'case_attributes': [[{'attribute_name': 'cardiomyopathy', 'attribute_value': 'severe'}, {'attribute_name': 'heart failure', 'attribute_value': 'unknown etiology'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member', 'patient'], 'event_detection_time': 26.12447038292885}</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>slept well through night</t>
         </is>
       </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>['lethargic/sleeping @ change of shift. a&amp;o x 3, mae. becoming more interactive as night went on, but slept well through night.']</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'through the night'}}}]</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Eating', 'Excretion', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'r ear', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'good', 'duration': 'through the night'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'very small', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'decreased', 'quality': 'concentrated'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>['c/o pain in r ear (reports having chronic ear infections)', 'lethargic/sleeping @ change of shift. a&amp;o x 3, mae. becoming more interactive as night went on, but slept well through night.', 'ate very small amount for dinner.', 'uo decreased to nothing for 2 hours. gave 250cc ivfb x 2, and uo improved slightly.', 'husband stayed in room overnight, supportive with care. patient has 20yo and 9yo daughter, should be into visit today.', 's: "i feel so hot"']</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o pain in r ear (reports having chronic ear infections)', 'e2=Sleep|1:lethargic/sleeping @ change of shift. a&amp;o x 3, mae. becoming more interactive as night went on, but slept well through night.', 'e3=Eating|1:ate very small amount for dinner.', 'e4=Excretion|1:uo decreased to nothing for 2 hours. gave 250cc ivfb x 2, and uo improved slightly.', 'e5=Family|0:husband stayed in room overnight, supportive with care. patient has 20yo and 9yo daughter, should be into visit today.', 'e6=Pain|1:s: "i feel so hot"']</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -1428,56 +1538,66 @@
       <c r="E12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-15 14:58:00'), Timestamp('2162-06-15 15:14:00'))</t>
+        </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>{'text': '39 yr old c cardiomyopathy\n\nst c pvcs. 3 mg captopril given p weaning milrinone to .200 .hemodynamics unchanged .ci 2.6/svr 1185.w 13 .cvp 11.bp transiently to 80 but patient asymptomatic .map &gt;60.to be started on coreg .\n\nsats 93 to 98,bs diminished .coughing continuously,med pro re nata c some relief.sputum had some blood in it .\n\nappetite fair.pos bs no stool.\n\nhuo responding to fluid 250 cc x1,then 100cc.hr for 1 liter.\n\npatient sleeping in naps p med for pain.husband at bedside all day .\n\nt to 100.9,tylenol given .ppd planted .\n\nmonitor fluid status\ntitrate meds as tol\nsupportive care\n', 'event': ['Pain', 'Sleep', 'Family', 'Eating', 'Excretion', 'Pain', 'Excretion', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "cardiomyopathy"\n        },\n        {\n            "attribute_name": "39 years old"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "patient sleeping in naps p med for pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "naps"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "patient sleeping in naps p med for pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "naps"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "husband at bedside all day",\n            "actor": "husband",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "husband"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "appetite fair",\n            "actor": "patient",\n            "object": "food",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "fair",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "no stool",\n            "actor": "patient",\n            "object": "stool",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "none",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "coughing continuously,med pro re nata c some relief",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "moderate",\n                    "location": "chest/throat",\n                    "duration": "continuous"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "sputum had some blood in it",\n            "actor": "patient",\n            "object": "sputum",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sputum",\n                    "frequency": "some",\n                    "quality": "bloody"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "t to 100.9,tylenol given",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "moderate",\n                    "location": "general",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "before",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e7",\n            "relation": "after",\n            "event_id_2": "e8"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'naps'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'fair', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'chest/throat', 'duration': 'continuous'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'some', 'quality': 'bloody'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'general', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e7', 'relation': 'after', 'event_id_2': 'e8'}]], 'text_quotes': ['patient sleeping in naps p med for pain', 'patient sleeping in naps p med for pain', 'husband at bedside all day', 'appetite fair', 'no stool', 'coughing continuously,med pro re nata c some relief', 'sputum had some blood in it', 't to 100.9,tylenol given'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-15 14:58:00 and 2162-06-15 15:14:00):\n           39 yr old c cardiomyopathy\n\nst c pvcs. 3 mg captopril given p weaning milrinone to .200 .hemodynamics unchanged .ci 2.6/svr 1185.w 13 .cvp 11.bp transiently to 80 but patient asymptomatic .map &gt;60.to be started on coreg .\n\nsats 93 to 98,bs diminished .coughing continuously,med pro re nata c some relief.sputum had some blood in it .\n\nappetite fair.pos bs no stool.\n\nhuo responding to fluid 250 cc x1,then 100cc.hr for 1 liter.\n\npatient sleeping in naps p med for pain.husband at bedside all day .\n\nt to 100.9,tylenol given .ppd planted .\n\nmonitor fluid status\ntitrate meds as tol\nsupportive care\n\n        ', 'case_attributes': [[{'attribute_name': 'cardiomyopathy'}, {'attribute_name': '39 years old'}]], 'actor': ['patient', 'patient', 'husband', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 31.774690981954336}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>patient sleeping in naps</t>
         </is>
       </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>['patient sleeping in naps p med for pain']</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}]</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Family', 'Eating', 'Excretion', 'Pain', 'Excretion', 'Pain']</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'naps'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'naps'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'husband'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'fair', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'chest/throat', 'duration': 'continuous'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'some', 'quality': 'bloody'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'general', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>['patient sleeping in naps p med for pain', 'patient sleeping in naps p med for pain', 'husband at bedside all day', 'appetite fair', 'no stool', 'coughing continuously,med pro re nata c some relief', 'sputum had some blood in it', 't to 100.9,tylenol given']</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>['e1=Pain|1:patient sleeping in naps p med for pain', 'e2=Sleep|1:patient sleeping in naps p med for pain', 'e3=Family|1:husband at bedside all day', 'e4=Eating|1:appetite fair', 'e5=Excretion|1:no stool', 'e6=Pain|1:coughing continuously,med pro re nata c some relief', 'e7=Excretion|1:sputum had some blood in it', 'e8=Pain|1:t to 100.9,tylenol given']</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e7', 'relation': 'after', 'event_id_2': 'e8'}]]</t>
         </is>
@@ -1512,52 +1632,62 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-16 04:12:00'), Timestamp('2162-06-16 04:30:00'))</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'text': 'nursing progress note 1900-0700\ns: "i feel pretty good right now"\n\no: please see flowsheet for complete objective data.\n\ncv: hr 90-110\'s, nsr/st, freq pvc\'s. had a few runs of asymptomatic vt ~6-8 beats long. diastolic blood pressure 80-110\'s, captopril and and coreg given last pm. cvp 7-10, pad\'s 19-20\'s. fellow pulled pa line back 1cm. co/ci/svr-5.4/2.54/963. milrinone remains @ 0.2mcg/kg/min.\n\nresp: productive cough, yellow/clr blood tinged sputum. sats 92-100 on 2lnc. ocassionally takes o2 off and maintains sats. lungs clr c dim bases.\n\ngi/gu: fair appetite, bs present, no bm. foley draining cyu. ivf d/c\'d and ~even for day, +1.1l for los.\n\naccess/id: rij pa line, l radial aline, 2 piv\'s. febrile to 101.0 @ [**2155**], gave tylenol 650mg with effect. tcurrent 99.8. to be started on ceftriaxone this am.\n\nneuro/social: a&amp;o x 3, pleasant and coopreative. became anxious and rec\'d ativan 0.5mg iv x 2 throughout the night. good effect. daughter stayed the night in the room.\n\np: cont to monitor hemodynamics and uo. follow up c labs. emotionally support patient and family. keep updated on plans.\n', 'event': ['Pain', 'Family', 'Sleep', 'Pain', 'Eating', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "febrile to 101.0 @ [**2155**], gave tylenol 650mg with effect.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Family",\n            "text_quote": "daughter stayed the night in the room.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "daughter"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "daughter stayed the night in the room.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "became anxious and rec\'d ativan 0.5mg iv x 2 throughout the night.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "fair appetite, bs present, no bm.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Excretion",\n            "text_quote": "foley draining cyu.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]], 'text_quotes': ['febrile to 101.0 @ [**2155**], gave tylenol 650mg with effect.', 'daughter stayed the night in the room.', 'daughter stayed the night in the room.', "became anxious and rec'd ativan 0.5mg iv x 2 throughout the night.", 'fair appetite, bs present, no bm.', 'foley draining cyu.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-16 04:12:00 and 2162-06-16 04:30:00):\n           nursing progress note 1900-0700\ns: "i feel pretty good right now"\n\no: please see flowsheet for complete objective data.\n\ncv: hr 90-110\'s, nsr/st, freq pvc\'s. had a few runs of asymptomatic vt ~6-8 beats long. diastolic blood pressure 80-110\'s, captopril and and coreg given last pm. cvp 7-10, pad\'s 19-20\'s. fellow pulled pa line back 1cm. co/ci/svr-5.4/2.54/963. milrinone remains @ 0.2mcg/kg/min.\n\nresp: productive cough, yellow/clr blood tinged sputum. sats 92-100 on 2lnc. ocassionally takes o2 off and maintains sats. lungs clr c dim bases.\n\ngi/gu: fair appetite, bs present, no bm. foley draining cyu. ivf d/c\'d and ~even for day, +1.1l for los.\n\naccess/id: rij pa line, l radial aline, 2 piv\'s. febrile to 101.0 @ [**2155**], gave tylenol 650mg with effect. tcurrent 99.8. to be started on ceftriaxone this am.\n\nneuro/social: a&amp;o x 3, pleasant and coopreative. became anxious and rec\'d ativan 0.5mg iv x 2 throughout the night. good effect. daughter stayed the night in the room.\n\np: cont to monitor hemodynamics and uo. follow up c labs. emotionally support patient and family. keep updated on plans.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 23.07324165198952}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>['daughter stayed the night in the room.']</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>['Pain', 'Family', 'Sleep', 'Pain', 'Eating', 'Excretion']</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>['febrile to 101.0 @ [**2155**], gave tylenol 650mg with effect.', 'daughter stayed the night in the room.', 'daughter stayed the night in the room.', "became anxious and rec'd ativan 0.5mg iv x 2 throughout the night.", 'fair appetite, bs present, no bm.', 'foley draining cyu.']</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>['e1=Pain|1:febrile to 101.0 @ [**2155**], gave tylenol 650mg with effect.', 'e2=Family|1:daughter stayed the night in the room.', 'e3=Sleep|1:daughter stayed the night in the room.', "e4=Pain|1:became anxious and rec'd ativan 0.5mg iv x 2 throughout the night.", 'e5=Eating|1:fair appetite, bs present, no bm.', 'e6=Excretion|1:foley draining cyu.']</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1595,56 +1725,66 @@
       <c r="E14" t="n">
         <v>1</v>
       </c>
-      <c r="F14" t="n">
-        <v>1</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-16 14:38:00'), Timestamp('2162-06-16 14:59:00'))</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>{'text': '39 yr old c viral cardiomyopathy,ef 10%,probable pna\n\nsr to st c pvcs and runs vt.milrinone dc 7am.ci 2.7,svr 922.mvsat 61,w 14.pad 18,cvp 12 .maps &gt; 70.inrease in captopril,coreg doses.cath site c/d.palp pedals\n\ncough suppressants round the clock ,still coughs frequently but less than yesterday .abg on rm air 7.44/29/67/20.c/r bloody ,spec sent .sat 98 0n 2lnp\n\nappetite fair.neg sm stool on commode .\n\ndiuresed c 20mg lasix for low urine output .\n\npatient med x 1 for back pain .sleeping in naps.family at bedside most of day\n\nt max 101.2 ,tylenol,on antibx\n\nhemodynamics tol milrinone dc.\n\nrecheck ci,abgs,k\ncoreg ,captopril as tol.\ncough suppressants,tylenol,pain med as needed .\nsupportive care\n', 'event': ['Excretion', 'Eating', 'Excretion', 'Pain', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Excretion",\n      "text_quote": "neg sm stool on commode",\n      "actor": "patient",\n      "object": "stool",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "small amount",\n          "quality": "negative"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "appetite fair",\n      "actor": "patient",\n      "object": "food",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "unknown",\n          "amount": "fair",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "diuresed c 20mg lasix for low urine output",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "low urine output",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "increased with medication",\n          "quality": "unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "patient med x 1 for back pain",\n      "actor": "patient",\n      "object": "back",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "unknown",\n          "location": "back",\n          "duration": "unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "sleeping in naps",\n      "actor": "patient",\n      "object": "naps",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "unknown",\n          "duration": "in naps"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Family",\n      "text_quote": "family at bedside most of day",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "simultaneous",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'small amount', 'quality': 'negative'}}}, {'Eating': {'Eating': {'food': 'unknown', 'amount': 'fair', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'increased with medication', 'quality': 'unknown'}}}, {'Pain': {'Pain': {'severity': 'unknown', 'location': 'back', 'duration': 'unknown'}}}, {'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'in naps'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'unknown'}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'simultaneous', 'event_id_2': 'e6'}]], 'text_quotes': ['neg sm stool on commode', 'appetite fair', 'diuresed c 20mg lasix for low urine output', 'patient med x 1 for back pain', 'sleeping in naps', 'family at bedside most of day'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'low urine output', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-16 14:38:00 and 2162-06-16 14:59:00):\n           39 yr old c viral cardiomyopathy,ef 10%,probable pna\n\nsr to st c pvcs and runs vt.milrinone dc 7am.ci 2.7,svr 922.mvsat 61,w 14.pad 18,cvp 12 .maps &gt; 70.inrease in captopril,coreg doses.cath site c/d.palp pedals\n\ncough suppressants round the clock ,still coughs frequently but less than yesterday .abg on rm air 7.44/29/67/20.c/r bloody ,spec sent .sat 98 0n 2lnp\n\nappetite fair.neg sm stool on commode .\n\ndiuresed c 20mg lasix for low urine output .\n\npatient med x 1 for back pain .sleeping in naps.family at bedside most of day\n\nt max 101.2 ,tylenol,on antibx\n\nhemodynamics tol milrinone dc.\n\nrecheck ci,abgs,k\ncoreg ,captopril as tol.\ncough suppressants,tylenol,pain med as needed .\nsupportive care\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 22.281794406939298}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>sleeping in naps</t>
         </is>
       </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>['sleeping in naps']</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'in naps'}}}]</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>['Excretion', 'Eating', 'Excretion', 'Pain', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'small amount', 'quality': 'negative'}}}, {'Eating': {'Eating': {'food': 'unknown', 'amount': 'fair', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'increased with medication', 'quality': 'unknown'}}}, {'Pain': {'Pain': {'severity': 'unknown', 'location': 'back', 'duration': 'unknown'}}}, {'Sleep': {'Sleep': {'quality': 'unknown', 'duration': 'in naps'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'unknown'}}}]</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>['neg sm stool on commode', 'appetite fair', 'diuresed c 20mg lasix for low urine output', 'patient med x 1 for back pain', 'sleeping in naps', 'family at bedside most of day']</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:neg sm stool on commode', 'e2=Eating|1:appetite fair', 'e3=Excretion|1:diuresed c 20mg lasix for low urine output', 'e4=Pain|1:patient med x 1 for back pain', 'e5=Sleep|1:sleeping in naps', 'e6=Family|1:family at bedside most of day']</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'simultaneous', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -1682,56 +1822,66 @@
       <c r="E15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-17 16:30:00'), Timestamp('2162-06-17 17:09:00'))</t>
+        </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>{'text': 's:"i didn\'t sleep last night".\n\no:please see careview for vitals.\n\ncv:nsr 80\'s freq pvc\'s, occ.couplets, many runs of vt5-10 beat runs.\nbp via radial a-line 102/64-122/79, maps 76-94. patient restarted on milrinone .375mcg/kg/min.rij swan unable to wedge c.o 5.8/ci 2.72/ svr 1048/pap 55/22/ pap mean /cvp 15/ mixed venous sat 66%/ lactate .8. patient had loading dose digoxin .375mg at 1100a.m. next dose due at 2300 this will complete .5 mg loading dose and this will be her daily dose also, tolerated well. patient was restarted on captopril12.5mg and tolerated well. patient continues on amiodarone 400mg by mouth bid. serum osmolarity calculated to be 287 patient received 250cc normal saline bolus with good effect urinoutput increased from 5cc/hr to 40-50cc/hr. ef 20% on milrinone\n\nresp: sats 99% on 2l nc abg 7.46/32/117/0/23 ls clear patient cvontinues to have non productive cough. patient being tx for pna ceftriaxone 1gm daily. and azithromycin.\n\nid: patient spiking temps overnight ? line infection high temp today 99.8. patient blood cultures + rods. plan is to remove pa line in a.m. both peripheral iv\'s removed due to routine change. patient received one gram of vancomycin last night and this afternoon.\n\ngi:nausea today patient has received ativan 1mg with good effect for nausea. no by mouth intyake today only sips of water and by mouth pills. no bm very active bs.\n\nneuro:a+ox3\n\ngu: urin output increased since starting milrinone. -4.7cc for the day\n+500cc for past 24hrs. bun10 creat 0.8.\n\na:39 year old female c cardiomyopathy in cardiogenic shock c poor forward flow.\n\n\np:continue to monitor hemodynamics, continue to assess pts need for milrinone. follow mv sats.emotional support\n', 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "cardiomyopathy",\n            "attribute_value": "present"\n        },\n        {\n            "attribute_name": "cardiogenic shock",\n            "attribute_value": "present"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "i didn\'t sleep last night",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "last night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "none"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "patient spiking temps overnight ? line infection high temp today 99.8",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "high",\n                    "location": "body",\n                    "duration": "overnight"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "urin output increased since starting milrinone. -4.7cc for the day +500cc for past 24hrs.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "since starting milrinone",\n            "caused_by": "milrinone",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "increased",\n                    "quality": "normal"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "no by mouth intake today only sips of water and by mouth pills.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "today",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "water",\n                    "amount": "sips",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'none'}}}, {'Pain': {'Pain': {'severity': 'high', 'location': 'body', 'duration': 'overnight'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'increased', 'quality': 'normal'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]], 'text_quotes': ["i didn't sleep last night", 'patient spiking temps overnight ? line infection high temp today 99.8', 'urin output increased since starting milrinone. -4.7cc for the day +500cc for past 24hrs.', 'no by mouth intake today only sips of water and by mouth pills.', ''], 'event_time': ['last night', 'overnight', 'since starting milrinone', 'today', 'Unknown'], 'negation': [True, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'milrinone', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-17 16:30:00 and 2162-06-17 17:09:00):\n           s:"i didn\'t sleep last night".\n\no:please see careview for vitals.\n\ncv:nsr 80\'s freq pvc\'s, occ.couplets, many runs of vt5-10 beat runs.\nbp via radial a-line 102/64-122/79, maps 76-94. patient restarted on milrinone .375mcg/kg/min.rij swan unable to wedge c.o 5.8/ci 2.72/ svr 1048/pap 55/22/ pap mean /cvp 15/ mixed venous sat 66%/ lactate .8. patient had loading dose digoxin .375mg at 1100a.m. next dose due at 2300 this will complete .5 mg loading dose and this will be her daily dose also, tolerated well. patient was restarted on captopril12.5mg and tolerated well. patient continues on amiodarone 400mg by mouth bid. serum osmolarity calculated to be 287 patient received 250cc normal saline bolus with good effect urinoutput increased from 5cc/hr to 40-50cc/hr. ef 20% on milrinone\n\nresp: sats 99% on 2l nc abg 7.46/32/117/0/23 ls clear patient cvontinues to have non productive cough. patient being tx for pna ceftriaxone 1gm daily. and azithromycin.\n\nid: patient spiking temps overnight ? line infection high temp today 99.8. patient blood cultures + rods. plan is to remove pa line in a.m. both peripheral iv\'s removed due to routine change. patient received one gram of vancomycin last night and this afternoon.\n\ngi:nausea today patient has received ativan 1mg with good effect for nausea. no by mouth intyake today only sips of water and by mouth pills. no bm very active bs.\n\nneuro:a+ox3\n\ngu: urin output increased since starting milrinone. -4.7cc for the day\n+500cc for past 24hrs. bun10 creat 0.8.\n\na:39 year old female c cardiomyopathy in cardiogenic shock c poor forward flow.\n\n\np:continue to monitor hemodynamics, continue to assess pts need for milrinone. follow mv sats.emotional support\n\n        ', 'case_attributes': [[{'attribute_name': 'cardiomyopathy', 'attribute_value': 'present'}, {'attribute_name': 'cardiogenic shock', 'attribute_value': 'present'}]], 'actor': ['patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 21.737205537967384}</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>i didn't sleep last night</t>
         </is>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>["i didn't sleep last night"]</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'none'}}}]</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'none'}}}, {'Pain': {'Pain': {'severity': 'high', 'location': 'body', 'duration': 'overnight'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'increased', 'quality': 'normal'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>["i didn't sleep last night", 'patient spiking temps overnight ? line infection high temp today 99.8', 'urin output increased since starting milrinone. -4.7cc for the day +500cc for past 24hrs.', 'no by mouth intake today only sips of water and by mouth pills.', '']</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>["e1=Sleep|1:i didn't sleep last night", 'e2=Pain|1:patient spiking temps overnight ? line infection high temp today 99.8', 'e3=Excretion|0:urin output increased since starting milrinone. -4.7cc for the day +500cc for past 24hrs.', 'e4=Eating|0:no by mouth intake today only sips of water and by mouth pills.', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1766,56 +1916,66 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="n">
-        <v>1</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>(Timestamp('2162-06-20 06:52:00'), Timestamp('2162-06-20 07:20:00'))</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>{'text': "ccu nursing progress note\ns:i'm feeling anxious and i can't sleep. patient received ativan for anxiety, patient able to sleep but frequently waking up.\no:patient denies discomfort x for freqent congested cough. occass productive of clr to white secretions. ls coarse bs r base otherwise clr and dim at l base. patient [**name (ni) 10816**] off to sleep, with -15sec of apnea associated with desat to 87%. patient placed on 4l nc to sleep.\n\ncv:mhr 70-80s sr with occass pvcs. distal pulses palp.\n\ngi:large soft, +bs. semi liq bm, heme neg\n\ngu:good u/o throughout the noc.\n\nid:afebrile on abx,\n\nsoc:[**name (ni) **] mother stay over noc.\n\na/p:continue to monitor cardiopulmonay status. eval sleep apnea vs [**last name (un) 393**] [**doctor last name 394**] d/t cm. con't to enc use of ins spir. increase activity as tol.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient received ativan for anxiety, patient able to sleep but frequently waking up.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "frequent waking"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "patient denies discomfort x for freqent congested cough.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "none",\n                    "location": "chest",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "occass productive of clr to white secretions.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "sputum",\n                    "frequency": "occasional",\n                    "quality": "clear to white"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Sleep",\n            "text_quote": "patient off to sleep, with -15sec of apnea associated with desat to 87%.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "-15sec of apnea"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "[**name (ni) **] mother stay over noc.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "mother"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'frequent waking'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'chest', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'occasional', 'quality': 'clear to white'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': '-15sec of apnea'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'mother'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['patient received ativan for anxiety, patient able to sleep but frequently waking up.', 'patient denies discomfort x for freqent congested cough.', 'occass productive of clr to white secretions.', 'patient off to sleep, with -15sec of apnea associated with desat to 87%.', '[**name (ni) **] mother stay over noc.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2162-06-20 06:52:00 and 2162-06-20 07:20:00):\n           ccu nursing progress note\ns:i\'m feeling anxious and i can\'t sleep. patient received ativan for anxiety, patient able to sleep but frequently waking up.\no:patient denies discomfort x for freqent congested cough. occass productive of clr to white secretions. ls coarse bs r base otherwise clr and dim at l base. patient [**name (ni) 10816**] off to sleep, with -15sec of apnea associated with desat to 87%. patient placed on 4l nc to sleep.\n\ncv:mhr 70-80s sr with occass pvcs. distal pulses palp.\n\ngi:large soft, +bs. semi liq bm, heme neg\n\ngu:good u/o throughout the noc.\n\nid:afebrile on abx,\n\nsoc:[**name (ni) **] mother stay over noc.\n\na/p:continue to monitor cardiopulmonay status. eval sleep apnea vs [**last name (un) 393**] [**doctor last name 394**] d/t cm. con\'t to enc use of ins spir. increase activity as tol.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 19.703065659152344}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>i can't sleep|patient able to sleep|off to sleep</t>
         </is>
       </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>['patient received ativan for anxiety, patient able to sleep but frequently waking up.', 'patient off to sleep, with -15sec of apnea associated with desat to 87%.']</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'frequent waking'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': '-15sec of apnea'}}}]</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'frequent waking'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'chest', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'occasional', 'quality': 'clear to white'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': '-15sec of apnea'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'mother'}}}]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>['patient received ativan for anxiety, patient able to sleep but frequently waking up.', 'patient denies discomfort x for freqent congested cough.', 'occass productive of clr to white secretions.', 'patient off to sleep, with -15sec of apnea associated with desat to 87%.', '[**name (ni) **] mother stay over noc.']</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient received ativan for anxiety, patient able to sleep but frequently waking up.', 'e2=Pain|1:patient denies discomfort x for freqent congested cough.', 'e3=Excretion|1:occass productive of clr to white secretions.', 'e4=Sleep|0:patient off to sleep, with -15sec of apnea associated with desat to 87%.', 'e5=Family|1:[**name (ni) **] mother stay over noc.']</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -1853,56 +2013,66 @@
       <c r="E17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="n">
-        <v>1</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-14 03:31:00'), Timestamp('2164-12-14 03:41:00'))</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>{'text': "condition update\nd: see carevue flowsheet for specifics\n patient afebrile all night. bp tolerated wean from 5.5mcg/kg/min of nipride down to almost off (currently .5). hr at beginning of night 90's and throughout the night trended down to 60's-transiently went into 50's but remained in sinus with no ectopy. labetalol dose and enalapril dose had been increased. in am patient given 1xdose of iv labetalol in attempts to shut nipride off (effect pending at this time). patient was +2l by midnight last night and up 2kg. urine output ~30-60cc/hr with maintenance fluids infusing at 85cc/hr.\n neurologically patient has been drowsy and sleeping most of shift but wakes up easily. has small left facial droop when smiles but has no weakness noted and is a&amp;ox3. complains of h/a with any repositioning and medicated with morphine 2mg ivp during bedbath with good effect. vent drain @5 above the tragus, open and draining clear csf.\n while sleeping patient snoring loudly and oxygen saturation dropping into 80's. o2 increased with some effect on nasal cannula and face tent. patient reported history of sleep apnea and uses oral airway piece at hs at home. no change made in o2 supply, oxygen saturation maintained 90-94%.\n wife called in evening for update-notified of plan for echo tomorrow.\nplan:\n keep diastolic blood pressure 100-160 and wean nipride as tolerated\n f/u with sleep apnea issue with team in am-have wife bring in oral airway piece\n neuro checks\n vent drain @5 above the tragus\n notify h.o. with any changes\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Family', 'Sleep', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "sleep apnea"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "neurologically patient has been drowsy and sleeping most of shift but wakes up easily.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "drowsy"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "complains of h/a with any repositioning and medicated with morphine 2mg ivp during bedbath with good effect.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "repositioning",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "headache (h/a)",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "urine output ~30-60cc/hr with maintenance fluids infusing at 85cc/hr.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "~30-60cc/hr",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "wife called in evening for update-notified of plan for echo tomorrow.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "call",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "while sleeping patient snoring loudly and oxygen saturation dropping into 80\'s.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "snoring loudly"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "after",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'drowsy'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'headache (h/a)', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '~30-60cc/hr', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'call', 'relation': 'wife'}}}, {'Sleep': {'Sleep': {'quality': 'snoring loudly'}}}, {'Eating': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]], 'text_quotes': ['neurologically patient has been drowsy and sleeping most of shift but wakes up easily.', 'complains of h/a with any repositioning and medicated with morphine 2mg ivp during bedbath with good effect.', 'urine output ~30-60cc/hr with maintenance fluids infusing at 85cc/hr.', 'wife called in evening for update-notified of plan for echo tomorrow.', "while sleeping patient snoring loudly and oxygen saturation dropping into 80's.", ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'evening', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, True], 'caused_by': ['Unknown', 'repositioning', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2164-12-14 03:31:00 and 2164-12-14 03:41:00):\n           condition update\nd: see carevue flowsheet for specifics\n patient afebrile all night. bp tolerated wean from 5.5mcg/kg/min of nipride down to almost off (currently .5). hr at beginning of night 90\'s and throughout the night trended down to 60\'s-transiently went into 50\'s but remained in sinus with no ectopy. labetalol dose and enalapril dose had been increased. in am patient given 1xdose of iv labetalol in attempts to shut nipride off (effect pending at this time). patient was +2l by midnight last night and up 2kg. urine output ~30-60cc/hr with maintenance fluids infusing at 85cc/hr.\n neurologically patient has been drowsy and sleeping most of shift but wakes up easily. has small left facial droop when smiles but has no weakness noted and is a&amp;ox3. complains of h/a with any repositioning and medicated with morphine 2mg ivp during bedbath with good effect. vent drain @5 above the tragus, open and draining clear csf.\n while sleeping patient snoring loudly and oxygen saturation dropping into 80\'s. o2 increased with some effect on nasal cannula and face tent. patient reported history of sleep apnea and uses oral airway piece at hs at home. no change made in o2 supply, oxygen saturation maintained 90-94%.\n wife called in evening for update-notified of plan for echo tomorrow.\nplan:\n keep diastolic blood pressure 100-160 and wean nipride as tolerated\n f/u with sleep apnea issue with team in am-have wife bring in oral airway piece\n neuro checks\n vent drain @5 above the tragus\n notify h.o. with any changes\n\n        ', 'case_attributes': [[{'attribute_name': 'patient history', 'attribute_value': 'sleep apnea'}]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient', ''], 'event_detection_time': 25.73323371890001}</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>sleeping most of shift</t>
         </is>
       </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>[True, False]</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>['neurologically patient has been drowsy and sleeping most of shift but wakes up easily.', "while sleeping patient snoring loudly and oxygen saturation dropping into 80's."]</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'drowsy'}}}, {'Sleep': {'Sleep': {'quality': 'snoring loudly'}}}]</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Family', 'Sleep', 'Eating']</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'drowsy'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'headache (h/a)', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '~30-60cc/hr', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'call', 'relation': 'wife'}}}, {'Sleep': {'Sleep': {'quality': 'snoring loudly'}}}, {'Eating': {}}]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>['neurologically patient has been drowsy and sleeping most of shift but wakes up easily.', 'complains of h/a with any repositioning and medicated with morphine 2mg ivp during bedbath with good effect.', 'urine output ~30-60cc/hr with maintenance fluids infusing at 85cc/hr.', 'wife called in evening for update-notified of plan for echo tomorrow.', "while sleeping patient snoring loudly and oxygen saturation dropping into 80's.", '']</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:neurologically patient has been drowsy and sleeping most of shift but wakes up easily.', 'e2=Pain|1:complains of h/a with any repositioning and medicated with morphine 2mg ivp during bedbath with good effect.', 'e3=Excretion|1:urine output ~30-60cc/hr with maintenance fluids infusing at 85cc/hr.', 'e4=Family|1:wife called in evening for update-notified of plan for echo tomorrow.', "e5=Sleep|1:while sleeping patient snoring loudly and oxygen saturation dropping into 80's.", 'e6=Eating|1:']</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -1933,56 +2103,66 @@
       <c r="E18" t="n">
         <v>1</v>
       </c>
-      <c r="F18" t="n">
-        <v>1</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-14 14:39:00'), Timestamp('2164-12-14 14:55:00'))</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>{'text': "nursing progress note\n  please see carevue for details of care.  sleepy but easily roused, alert and oriented x3 w/a. mae, = and strong.  perl. sl l facial droop persists. c/o vaque h/a and incisional pain, med w/mso4 2mg iv x1 w/stated effect.  vent drain draining clear fluids, remains at 5mm/h2o above tragus.  increased to 10 mm/h2o asbove tragus late am by neuro team, cont to drain clear fluid.  ct in dept this am tol well.\n  hr 70's this am to 90's, diastolic blood pressure 160's this am w/brief runs up into the 1760's and 180's but returns to 150's without rx. nipride up to 1.5 mcg this am, was able to wean down to 1mcg this pm after increasing labetolol and adding verapamil. fluid balance slightly positive this shift, u/o avg. 30ml/hr.  echo done at bedside.\n  remains on o2 via nc and face tent, sats 94-100%.  cont to snore when sleeping.  coughs w/encouragement to clear congestion, raising sm-mod thick yellow secretions. wife states patient wears oral airway piece r/t sleep apnea which she will bring in during next visit (sat).\n   plan: cont to wean nipride as tol, f/u w/sleep apnea when wife brings in oral device, nuero check q1hr and pro re nata, vent drain now 10 above tragus, notify team w/any changes.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Family', 'Sleep', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleepy but easily roused, alert and oriented x3 w/a. mae, = and strong.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "light"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "c/o vaque h/a and incisional pain, med w/mso4 2mg iv x1 w/stated effect.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "moderate",\n                    "location": "head and incision site"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "vent drain draining clear fluids, remains at 5mm/h2o above tragus.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "clear fluids",\n                    "frequency": "continuous"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "wife states patient wears oral airway piece r/t sleep apnea which she will bring in during next visit (sat).",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "communication",\n                    "relation": "wife"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "cont to snore when sleeping.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Excretion",\n            "text_quote": "coughs w/encouragement to clear congestion, raising sm-mod thick yellow secretions.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "thick yellow secretions",\n                    "frequency": "intermittent"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "after",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "simultaneous",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'light'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'head and incision site'}}}, {'Excretion': {'Excretion': {'type': 'clear fluids', 'frequency': 'continuous'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'wife'}}}, {'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'thick yellow secretions', 'frequency': 'intermittent'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'simultaneous', 'event_id_2': 'e6'}]], 'text_quotes': ['sleepy but easily roused, alert and oriented x3 w/a. mae, = and strong.', 'c/o vaque h/a and incisional pain, med w/mso4 2mg iv x1 w/stated effect.', 'vent drain draining clear fluids, remains at 5mm/h2o above tragus.', 'wife states patient wears oral airway piece r/t sleep apnea which she will bring in during next visit (sat).', 'cont to snore when sleeping.', 'coughs w/encouragement to clear congestion, raising sm-mod thick yellow secretions.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2164-12-14 14:39:00 and 2164-12-14 14:55:00):\n           nursing progress note\n  please see carevue for details of care.  sleepy but easily roused, alert and oriented x3 w/a. mae, = and strong.  perl. sl l facial droop persists. c/o vaque h/a and incisional pain, med w/mso4 2mg iv x1 w/stated effect.  vent drain draining clear fluids, remains at 5mm/h2o above tragus.  increased to 10 mm/h2o asbove tragus late am by neuro team, cont to drain clear fluid.  ct in dept this am tol well.\n  hr 70\'s this am to 90\'s, diastolic blood pressure 160\'s this am w/brief runs up into the 1760\'s and 180\'s but returns to 150\'s without rx. nipride up to 1.5 mcg this am, was able to wean down to 1mcg this pm after increasing labetolol and adding verapamil. fluid balance slightly positive this shift, u/o avg. 30ml/hr.  echo done at bedside.\n  remains on o2 via nc and face tent, sats 94-100%.  cont to snore when sleeping.  coughs w/encouragement to clear congestion, raising sm-mod thick yellow secretions. wife states patient wears oral airway piece r/t sleep apnea which she will bring in during next visit (sat).\n   plan: cont to wean nipride as tol, f/u w/sleep apnea when wife brings in oral device, nuero check q1hr and pro re nata, vent drain now 10 above tragus, notify team w/any changes.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient', 'patient'], 'event_detection_time': 26.19948649010621}</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>sleepy but easily roused|cont to snore when sleeping|</t>
         </is>
       </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>['sleepy but easily roused, alert and oriented x3 w/a. mae, = and strong.', 'cont to snore when sleeping.']</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'light'}}}, {'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Family', 'Sleep', 'Excretion']</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'light'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'head and incision site'}}}, {'Excretion': {'Excretion': {'type': 'clear fluids', 'frequency': 'continuous'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'wife'}}}, {'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'thick yellow secretions', 'frequency': 'intermittent'}}}]</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>['sleepy but easily roused, alert and oriented x3 w/a. mae, = and strong.', 'c/o vaque h/a and incisional pain, med w/mso4 2mg iv x1 w/stated effect.', 'vent drain draining clear fluids, remains at 5mm/h2o above tragus.', 'wife states patient wears oral airway piece r/t sleep apnea which she will bring in during next visit (sat).', 'cont to snore when sleeping.', 'coughs w/encouragement to clear congestion, raising sm-mod thick yellow secretions.']</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleepy but easily roused, alert and oriented x3 w/a. mae, = and strong.', 'e2=Pain|1:c/o vaque h/a and incisional pain, med w/mso4 2mg iv x1 w/stated effect.', 'e3=Excretion|1:vent drain draining clear fluids, remains at 5mm/h2o above tragus.', 'e4=Family|1:wife states patient wears oral airway piece r/t sleep apnea which she will bring in during next visit (sat).', 'e5=Sleep|1:cont to snore when sleeping.', 'e6=Excretion|1:coughs w/encouragement to clear congestion, raising sm-mod thick yellow secretions.']</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'simultaneous', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -2013,56 +2193,66 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
-        <v>1</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-15 15:11:00'), Timestamp('2164-12-15 15:23:00'))</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
+          <t>{'text': "nursing progress note\n  please see carevue for details of care. remains sleepy this am but easily roused.  alert and oriented x3 w/a.  mae, = and strong.  perl. sl l facial droop persists.  c/o vaque h/a, esp w/cough or movement, med x 1 w/tylenol w/stated effect. vent drain cont to drain clear fluid, atg 10 above tragus this am, increased to 20 above tragus by neuro team on rounds w decrease noted in drainage this pm.\n  hr remain 70's up to 90's w/activity. diastolic blood pressure controlled 130's-140's w/by mouth meds.  occas brief rise to 170 w/cough noted but settles back to 130's without intervention. nipride off and d/c'd.  ivf kvo this am, by mouth fluids tol well and few bites soft solids toil well also. fluid balance even to sl. neg today.\n  o2 4l nc, sats 95-100%.  bs clear, occas cough to raise sm amt thick white secretions. oral airway piece at bedside for sleep apnea. oob to chair for nearly 3 hours tol well. sleeping in naps after return to bed, states he is not hungry but tol liquids well w/encouragement.\n  plan: cont to monitor vs to [**last name (un) 2284**] diastolic blood pressure &lt;160, mouthpiece at bedside for sleep apnea, cont neuro checks, monitor vent drain now 20 above tragus, notify team w/any changes.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "remains sleepy this am but easily roused.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "c/o vaque h/a, esp w/cough or movement, med x 1 w/tylenol w/stated effect.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "vague",\n                    "location": "head",\n                    "duration": "with cough or movement"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "vent drain cont to drain clear fluid, atg 10 above tragus this am, increased to 20 above tragus by neuro team on rounds w decrease noted in drainage this pm.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "clear fluid",\n                    "frequency": "continuous",\n                    "quality": "clear"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "by mouth fluids tol well and few bites soft solids toil well also.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "soft solids",\n                    "amount": "few bites",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "sleeping in naps after return to bed, states he is not hungry but tol liquids well w/encouragement.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": " Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'vague', 'location': 'head', 'duration': 'with cough or movement'}}}, {'Excretion': {'Excretion': {'type': 'clear fluid', 'frequency': 'continuous', 'quality': 'clear'}}}, {'Eating': {'Eating': {'food': 'soft solids', 'amount': 'few bites', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': ' Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['remains sleepy this am but easily roused.', 'c/o vaque h/a, esp w/cough or movement, med x 1 w/tylenol w/stated effect.', 'vent drain cont to drain clear fluid, atg 10 above tragus this am, increased to 20 above tragus by neuro team on rounds w decrease noted in drainage this pm.', 'by mouth fluids tol well and few bites soft solids toil well also.', 'sleeping in naps after return to bed, states he is not hungry but tol liquids well w/encouragement.'], 'event_time': ['am', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2164-12-15 15:11:00 and 2164-12-15 15:23:00):\n           nursing progress note\n  please see carevue for details of care. remains sleepy this am but easily roused.  alert and oriented x3 w/a.  mae, = and strong.  perl. sl l facial droop persists.  c/o vaque h/a, esp w/cough or movement, med x 1 w/tylenol w/stated effect. vent drain cont to drain clear fluid, atg 10 above tragus this am, increased to 20 above tragus by neuro team on rounds w decrease noted in drainage this pm.\n  hr remain 70\'s up to 90\'s w/activity. diastolic blood pressure controlled 130\'s-140\'s w/by mouth meds.  occas brief rise to 170 w/cough noted but settles back to 130\'s without intervention. nipride off and d/c\'d.  ivf kvo this am, by mouth fluids tol well and few bites soft solids toil well also. fluid balance even to sl. neg today.\n  o2 4l nc, sats 95-100%.  bs clear, occas cough to raise sm amt thick white secretions. oral airway piece at bedside for sleep apnea. oob to chair for nearly 3 hours tol well. sleeping in naps after return to bed, states he is not hungry but tol liquids well w/encouragement.\n  plan: cont to monitor vs to [**last name (un) 2284**] diastolic blood pressure &lt;160, mouthpiece at bedside for sleep apnea, cont neuro checks, monitor vent drain now 20 above tragus, notify team w/any changes.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 23.48802861594595}</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>remains sleepy this am|sleeping in naps</t>
         </is>
       </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>['remains sleepy this am but easily roused.', 'sleeping in naps after return to bed, states he is not hungry but tol liquids well w/encouragement.']</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Sleep': {'Sleep': {'quality': ' Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Sleep']</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'vague', 'location': 'head', 'duration': 'with cough or movement'}}}, {'Excretion': {'Excretion': {'type': 'clear fluid', 'frequency': 'continuous', 'quality': 'clear'}}}, {'Eating': {'Eating': {'food': 'soft solids', 'amount': 'few bites', 'method': 'oral'}}}, {'Sleep': {'Sleep': {'quality': ' Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>['remains sleepy this am but easily roused.', 'c/o vaque h/a, esp w/cough or movement, med x 1 w/tylenol w/stated effect.', 'vent drain cont to drain clear fluid, atg 10 above tragus this am, increased to 20 above tragus by neuro team on rounds w decrease noted in drainage this pm.', 'by mouth fluids tol well and few bites soft solids toil well also.', 'sleeping in naps after return to bed, states he is not hungry but tol liquids well w/encouragement.']</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:remains sleepy this am but easily roused.', 'e2=Pain|1:c/o vaque h/a, esp w/cough or movement, med x 1 w/tylenol w/stated effect.', 'e3=Excretion|1:vent drain cont to drain clear fluid, atg 10 above tragus this am, increased to 20 above tragus by neuro team on rounds w decrease noted in drainage this pm.', 'e4=Eating|1:by mouth fluids tol well and few bites soft solids toil well also.', 'e5=Sleep|1:sleeping in naps after return to bed, states he is not hungry but tol liquids well w/encouragement.']</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -2093,56 +2283,66 @@
       <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>(Timestamp('2164-12-16 15:06:00'), Timestamp('2164-12-16 15:22:00'))</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>{'text': "nursing progress note\n  please see carevue for details of care. more awake and conversive this am, sleeps in shorts naps and remains awake for longer periods.  alert and oriented, maew, = &amp; strong.  perl @ 3mm.  sl facial droop and drift in l arm persists.  med x1 @ 9am for c/o h/a r/t cough and mobility w/stated effect. vent drain cont to drain clear fluid in small amt this am.  vent drain clamped by neuro team this am, icp q2hr 14-15.\n  hr remains 70's, diastolic blood pressure 120's-130's.  remains on by mouth meds for bp control.  ivf remains kvo, by mouth fluids and small amts solids to  well.\n  remains on 4lnc, sats 96-99%.  bs remain clear, raisingt scant clear secretions.  oob in chair tol well.  awaits bed on neuro stepdown for transfer.\n  plan: monitor neuro status, resp status and vs.  vent drain clamped, notify team with any changes in neuro status.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleeps in shorts naps and remains awake for longer periods",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "shorts naps",\n                    "duration": "longer periods"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "med x1 @ 9am for c/o h/a r/t cough and mobility w/stated effect",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "9am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "headache (h/a)",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "vent drain cont to drain clear fluid in small amt this am",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "clear fluid",\n                    "frequency": "small amt",\n                    "quality": "clear"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "by mouth fluids and small amts solids to well",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "fluids and solids",\n                    "amount": "small amts",\n                    "method": "by mouth"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'shorts naps', 'duration': 'longer periods'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'headache (h/a)', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'clear fluid', 'frequency': 'small amt', 'quality': 'clear'}}}, {'Eating': {'Eating': {'food': 'fluids and solids', 'amount': 'small amts', 'method': 'by mouth'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['sleeps in shorts naps and remains awake for longer periods', 'med x1 @ 9am for c/o h/a r/t cough and mobility w/stated effect', 'vent drain cont to drain clear fluid in small amt this am', 'by mouth fluids and small amts solids to well'], 'event_time': ['Unknown', '9am', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2164-12-16 15:06:00 and 2164-12-16 15:22:00):\n           nursing progress note\n  please see carevue for details of care. more awake and conversive this am, sleeps in shorts naps and remains awake for longer periods.  alert and oriented, maew, = &amp; strong.  perl @ 3mm.  sl facial droop and drift in l arm persists.  med x1 @ 9am for c/o h/a r/t cough and mobility w/stated effect. vent drain cont to drain clear fluid in small amt this am.  vent drain clamped by neuro team this am, icp q2hr 14-15.\n  hr remains 70\'s, diastolic blood pressure 120\'s-130\'s.  remains on by mouth meds for bp control.  ivf remains kvo, by mouth fluids and small amts solids to  well.\n  remains on 4lnc, sats 96-99%.  bs remain clear, raisingt scant clear secretions.  oob in chair tol well.  awaits bed on neuro stepdown for transfer.\n  plan: monitor neuro status, resp status and vs.  vent drain clamped, notify team with any changes in neuro status.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 18.755206719972193}</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>sleeps in shorts naps</t>
         </is>
       </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>['sleeps in shorts naps and remains awake for longer periods']</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'shorts naps', 'duration': 'longer periods'}}}]</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating']</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'shorts naps', 'duration': 'longer periods'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'headache (h/a)', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'clear fluid', 'frequency': 'small amt', 'quality': 'clear'}}}, {'Eating': {'Eating': {'food': 'fluids and solids', 'amount': 'small amts', 'method': 'by mouth'}}}]</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>['sleeps in shorts naps and remains awake for longer periods', 'med x1 @ 9am for c/o h/a r/t cough and mobility w/stated effect', 'vent drain cont to drain clear fluid in small amt this am', 'by mouth fluids and small amts solids to well']</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleeps in shorts naps and remains awake for longer periods', 'e2=Pain|1:med x1 @ 9am for c/o h/a r/t cough and mobility w/stated effect', 'e3=Excretion|1:vent drain cont to drain clear fluid in small amt this am', 'e4=Eating|0:by mouth fluids and small amts solids to well']</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -2181,56 +2381,66 @@
       <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
-        <v>1</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-20 22:56:00'), Timestamp('2102-09-20 23:27:00'))</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nsg note: alt in cv/cardiomyopathy\nsee admission note in admission section\ns: "i\'m just so exhausted."\no: for complete vs see ccu flow sheet.\ncv: patient arrived in ccu at 5pm. he received swan ganz catheter by 7:30 and first c/o on no new medications was 3.4/1.07 with svr 1294. his pap was 60s/ [**numeric identifier 9020**] with ra [**10-17**]. ra goes in and out of rv. his wedge trace shows large v-waves. at 9pm he was bolued with 50mic/kilo of milrinone over 10min, and was started on drip  at 0.375 mic/kilo/min. at 9 he was also bolused with 6200u heparin and started on heparin drip at 1400u/hr. at 10 pm he was started on laix drip at 5 mg/hr. with the start of milrinone he had an increase in ventricular ectopy and it was decided to start him on an amiodarone drip. at 10:30 he received a 150mg iv bolus of amiodarone over 30 min and at 11p he was started on drip at 1mg min until 5am when drip will decrease to .5mg/min. his hr has been in the 70s v-paced with underlying a-fib. ectopy had slowed down even before amiodaron was begun. he does have the difibulator in his room. his bp has been stable in 1-teens of 40s.\nhis c/o after one hour of milrinone increased to 3.8/ with svr 1242.\nresp: patient has difficulty breathing lying flat. he has been sating 95-97% on ra. he has sleep apnea and when asleep his sat will drop to the high 90s and then comes up to the mid 90s again.\ngi: patient was npo today for swan placement. he had only liquids and sherbet tonight.\ngu: patient will try to go without foley, but will reconsider if it is too difficult. he has yet to void.\nms: patient has flat affect. he has felt very poorly and has slept little over the past 5 weeks. he only sleeps 5-10min at a time. he received ambien tonight.\nfamily: patient is married and has two very involved and supportive daughters. [**name (ni) **] were in tonight. one daughter is spending the night.\na: swaned and started on milrinone\np: continue to monitor hemodynamics. check ptt at 5am. decrease amiodarone at 5am. support patient and family.\n', 'event': ['Sleep', 'Eating', 'Excretion', 'Family', 'Pain', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "admission note",\n            "attribute_value": "see admission section"\n        },\n        {\n            "attribute_name": "patient history",\n            "attribute_value": "cv/cardiomyopathy, sleep apnea"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "he only sleeps 5-10min at a time.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "short"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "he had only liquids and sherbet tonight.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "liquids, sherbet",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "he has yet to void.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "none",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "[**name (ni) **] were in tonight. one daughter is spending the night.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "daughter"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "he has felt very poorly and has slept little over the past 5 weeks.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "5 weeks"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Sleep",\n            "text_quote": "he received ambien tonight.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Eating': {'Eating': {'food': 'liquids, sherbet', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': '5 weeks'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]], 'text_quotes': ['he only sleeps 5-10min at a time.', 'he had only liquids and sherbet tonight.', 'he has yet to void.', '[**name (ni) **] were in tonight. one daughter is spending the night.', 'he has felt very poorly and has slept little over the past 5 weeks.', 'he received ambien tonight.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-20 22:56:00 and 2102-09-20 23:27:00):\n           ccu nsg note: alt in cv/cardiomyopathy\nsee admission note in admission section\ns: "i\'m just so exhausted."\no: for complete vs see ccu flow sheet.\ncv: patient arrived in ccu at 5pm. he received swan ganz catheter by 7:30 and first c/o on no new medications was 3.4/1.07 with svr 1294. his pap was 60s/ [**numeric identifier 9020**] with ra [**10-17**]. ra goes in and out of rv. his wedge trace shows large v-waves. at 9pm he was bolued with 50mic/kilo of milrinone over 10min, and was started on drip  at 0.375 mic/kilo/min. at 9 he was also bolused with 6200u heparin and started on heparin drip at 1400u/hr. at 10 pm he was started on laix drip at 5 mg/hr. with the start of milrinone he had an increase in ventricular ectopy and it was decided to start him on an amiodarone drip. at 10:30 he received a 150mg iv bolus of amiodarone over 30 min and at 11p he was started on drip at 1mg min until 5am when drip will decrease to .5mg/min. his hr has been in the 70s v-paced with underlying a-fib. ectopy had slowed down even before amiodaron was begun. he does have the difibulator in his room. his bp has been stable in 1-teens of 40s.\nhis c/o after one hour of milrinone increased to 3.8/ with svr 1242.\nresp: patient has difficulty breathing lying flat. he has been sating 95-97% on ra. he has sleep apnea and when asleep his sat will drop to the high 90s and then comes up to the mid 90s again.\ngi: patient was npo today for swan placement. he had only liquids and sherbet tonight.\ngu: patient will try to go without foley, but will reconsider if it is too difficult. he has yet to void.\nms: patient has flat affect. he has felt very poorly and has slept little over the past 5 weeks. he only sleeps 5-10min at a time. he received ambien tonight.\nfamily: patient is married and has two very involved and supportive daughters. [**name (ni) **] were in tonight. one daughter is spending the night.\na: swaned and started on milrinone\np: continue to monitor hemodynamics. check ptt at 5am. decrease amiodarone at 5am. support patient and family.\n\n        ', 'case_attributes': [[{'attribute_name': 'admission note', 'attribute_value': 'see admission section'}, {'attribute_name': 'patient history', 'attribute_value': 'cv/cardiomyopathy, sleep apnea'}]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient', 'patient'], 'event_detection_time': 24.497454184107482}</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>when asleep his sat will drop to the high 90s|only sleeps 5-10min at a time</t>
         </is>
       </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>[True, False]</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>['he only sleeps 5-10min at a time.', 'he received ambien tonight.']</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>['Sleep', 'Eating', 'Excretion', 'Family', 'Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'short'}}}, {'Eating': {'Eating': {'food': 'liquids, sherbet', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': '5 weeks'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>['he only sleeps 5-10min at a time.', 'he had only liquids and sherbet tonight.', 'he has yet to void.', '[**name (ni) **] were in tonight. one daughter is spending the night.', 'he has felt very poorly and has slept little over the past 5 weeks.', 'he received ambien tonight.']</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:he only sleeps 5-10min at a time.', 'e2=Eating|1:he had only liquids and sherbet tonight.', 'e3=Excretion|1:he has yet to void.', 'e4=Family|1:[**name (ni) **] were in tonight. one daughter is spending the night.', 'e5=Pain|1:he has felt very poorly and has slept little over the past 5 weeks.', 'e6=Sleep|1:he received ambien tonight.']</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2265,56 +2475,66 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-21 06:50:00'), Timestamp('2102-09-21 07:09:00'))</t>
+        </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing progress note\ns-"i wish i could get oob"\no-neuro alert and oriented x3, pleasant and cooperative. slept fairly well after ambien 7.5mg. daughter with patient in room all night.\ncv-vss slight hemodynamic improvement with milrinone .375mg/kg co 4.2/svr 857. pad unchanged 24-34 with pwp 28-32 \'v\' waves still present-see strips in chart. occ couplets, rare triplets and freq isolated pvc\'s with v/av paced rhythm on amioderone drops at 1mg/min x 6hours decreased to .5mg/min at 5am. k 3.5 replaced with 80meq kcl iv with repeat k 3.9 at 6am. heparin at 1400u/hr ptt 150 at 6am.\nresp- ls decreased at bases otherwise clear of rales. o2 2l np with good oxygen saturation 95-98%. short periods of apnea with deep sleep &lt;25sec apnea. no c/o sob.\nid afebrile\ngu-refused foley/placed condom cath on voided 600cc despite bring on lasix drops. received 80mg ivb x2 with minimal effect. lasix drops at 5mg/hr increased to 10mg/hr at 6am bun/cr 122/2.9\ngi-has been npo for tests c/o thirst most of night.\nactivity- would like to get oob to cahir feels he can breathe better.\n', 'event': ['Sleep', 'Family', 'Excretion', 'Pain', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "slept fairly well after ambien 7.5mg",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "fairly well"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Family",\n            "text_quote": "daughter with patient in room all night",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "daughter"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "voided 600cc despite bring on lasix drops",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "1x",\n                    "quality": "600cc"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "no c/o sob",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "none",\n                    "location": " Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "has been npo for tests c/o thirst most of night",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "none",\n                    "amount": "none",\n                    "method": "none"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Pain",\n            "text_quote": "would like to get oob to cahir feels he can breathe better",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": " Unknown",\n                    "location": "breathing",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "before",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1x', 'quality': '600cc'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': ' Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'none', 'amount': 'none', 'method': 'none'}}}, {'Pain': {'Pain': {'severity': ' Unknown', 'location': 'breathing', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]], 'text_quotes': ['slept fairly well after ambien 7.5mg', 'daughter with patient in room all night', 'voided 600cc despite bring on lasix drops', 'no c/o sob', 'has been npo for tests c/o thirst most of night', 'would like to get oob to cahir feels he can breathe better'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-21 06:50:00 and 2102-09-21 07:09:00):\n           ccu nursing progress note\ns-"i wish i could get oob"\no-neuro alert and oriented x3, pleasant and cooperative. slept fairly well after ambien 7.5mg. daughter with patient in room all night.\ncv-vss slight hemodynamic improvement with milrinone .375mg/kg co 4.2/svr 857. pad unchanged 24-34 with pwp 28-32 \'v\' waves still present-see strips in chart. occ couplets, rare triplets and freq isolated pvc\'s with v/av paced rhythm on amioderone drops at 1mg/min x 6hours decreased to .5mg/min at 5am. k 3.5 replaced with 80meq kcl iv with repeat k 3.9 at 6am. heparin at 1400u/hr ptt 150 at 6am.\nresp- ls decreased at bases otherwise clear of rales. o2 2l np with good oxygen saturation 95-98%. short periods of apnea with deep sleep &lt;25sec apnea. no c/o sob.\nid afebrile\ngu-refused foley/placed condom cath on voided 600cc despite bring on lasix drops. received 80mg ivb x2 with minimal effect. lasix drops at 5mg/hr increased to 10mg/hr at 6am bun/cr 122/2.9\ngi-has been npo for tests c/o thirst most of night.\nactivity- would like to get oob to cahir feels he can breathe better.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 25.43217784911394}</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>apnea with deep sleep</t>
         </is>
       </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>['slept fairly well after ambien 7.5mg']</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}]</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>['Sleep', 'Family', 'Excretion', 'Pain', 'Eating', 'Pain']</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1x', 'quality': '600cc'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': ' Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'none', 'amount': 'none', 'method': 'none'}}}, {'Pain': {'Pain': {'severity': ' Unknown', 'location': 'breathing', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>['slept fairly well after ambien 7.5mg', 'daughter with patient in room all night', 'voided 600cc despite bring on lasix drops', 'no c/o sob', 'has been npo for tests c/o thirst most of night', 'would like to get oob to cahir feels he can breathe better']</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept fairly well after ambien 7.5mg', 'e2=Family|1:daughter with patient in room all night', 'e3=Excretion|1:voided 600cc despite bring on lasix drops', 'e4=Pain|1:no c/o sob', 'e5=Eating|1:has been npo for tests c/o thirst most of night', 'e6=Pain|1:would like to get oob to cahir feels he can breathe better']</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -2351,56 +2571,66 @@
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
-        <v>1</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-22 06:45:00'), Timestamp('2102-09-22 07:27:00'))</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing progress note\ns-"i feel alittle better tonight."\no-neuro alert and oriented x3, pleasant and cooperative. slept very well after ambien 7.5mg by mouth.\ncv-vss hemodynamcially improved with cvp 12-15 pad 24-30 and last set of numbers at 9pm 5.7/2.94/758. remains on milrinone at .5mcg/kg. heparin at 1100u/hr ptt 70.6. hr 70-78 v/av paced with periods of fusion beats and failure to sense- see strips in chart. amioderone at .5mcg/kg ? change over to by mouth today.\nresp-ls decreased bs in the bases. oxygen saturation at 95% with o2 2l np. developed left nose bleed/packed with 2x2 and stopped bleeding.\nid afebrile\ngu-foley +hematuria with gross bloody drainage all night. received lasix 80mg ivb with good repsonse 1000cc. replaced with 80meq kcl iv.\ngi-appetite poor, taking sips of soda, otherwise no fdod. oob commode for mod large green liquid bm ob-. reglan on hold. hct 31.9\nactivity- plan to get patient oob chair today.\na/p-improved hemodynamcis on milrinone\nchange over to by mouth amioderone. continue to diurese\n\n', 'event': ['Sleep', 'Excretion', 'Eating', 'Excretion', 'Pain', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "slept very well after ambien 7.5mg by mouth.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "well"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "gu-foley +hematuria with gross bloody drainage all night.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "all night",\n                    "quality": "gross bloody"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "gi-appetite poor, taking sips of soda, otherwise no food.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "soda",\n                    "amount": "sips"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "oob commode for mod large green liquid bm ob-.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "mod",\n                    "quality": "large green liquid"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "i feel a little better tonight.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "little"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Excretion",\n            "text_quote": "developed left nose bleed/packed with 2x2 and stopped bleeding.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "nose bleed"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "after",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'all night', 'quality': 'gross bloody'}}}, {'Eating': {'Eating': {'food': 'soda', 'amount': 'sips'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'mod', 'quality': 'large green liquid'}}}, {'Pain': {'Pain': {'severity': 'little'}}}, {'Excretion': {'Excretion': {'type': 'nose bleed'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['slept very well after ambien 7.5mg by mouth.', 'gu-foley +hematuria with gross bloody drainage all night.', 'gi-appetite poor, taking sips of soda, otherwise no food.', 'oob commode for mod large green liquid bm ob-.', 'i feel a little better tonight.', 'developed left nose bleed/packed with 2x2 and stopped bleeding.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-22 06:45:00 and 2102-09-22 07:27:00):\n           ccu nursing progress note\ns-"i feel alittle better tonight."\no-neuro alert and oriented x3, pleasant and cooperative. slept very well after ambien 7.5mg by mouth.\ncv-vss hemodynamcially improved with cvp 12-15 pad 24-30 and last set of numbers at 9pm 5.7/2.94/758. remains on milrinone at .5mcg/kg. heparin at 1100u/hr ptt 70.6. hr 70-78 v/av paced with periods of fusion beats and failure to sense- see strips in chart. amioderone at .5mcg/kg ? change over to by mouth today.\nresp-ls decreased bs in the bases. oxygen saturation at 95% with o2 2l np. developed left nose bleed/packed with 2x2 and stopped bleeding.\nid afebrile\ngu-foley +hematuria with gross bloody drainage all night. received lasix 80mg ivb with good repsonse 1000cc. replaced with 80meq kcl iv.\ngi-appetite poor, taking sips of soda, otherwise no fdod. oob commode for mod large green liquid bm ob-. reglan on hold. hct 31.9\nactivity- plan to get patient oob chair today.\na/p-improved hemodynamcis on milrinone\nchange over to by mouth amioderone. continue to diurese\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 23.30274781002663}</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>slept very well</t>
         </is>
       </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>['slept very well after ambien 7.5mg by mouth.']</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Eating', 'Excretion', 'Pain', 'Excretion']</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'all night', 'quality': 'gross bloody'}}}, {'Eating': {'Eating': {'food': 'soda', 'amount': 'sips'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'mod', 'quality': 'large green liquid'}}}, {'Pain': {'Pain': {'severity': 'little'}}}, {'Excretion': {'Excretion': {'type': 'nose bleed'}}}]</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>['slept very well after ambien 7.5mg by mouth.', 'gu-foley +hematuria with gross bloody drainage all night.', 'gi-appetite poor, taking sips of soda, otherwise no food.', 'oob commode for mod large green liquid bm ob-.', 'i feel a little better tonight.', 'developed left nose bleed/packed with 2x2 and stopped bleeding.']</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept very well after ambien 7.5mg by mouth.', 'e2=Excretion|1:gu-foley +hematuria with gross bloody drainage all night.', 'e3=Eating|0:gi-appetite poor, taking sips of soda, otherwise no food.', 'e4=Excretion|1:oob commode for mod large green liquid bm ob-.', 'e5=Pain|0:i feel a little better tonight.', 'e6=Excretion|1:developed left nose bleed/packed with 2x2 and stopped bleeding.']</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2438,56 +2668,66 @@
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
-        <v>1</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-22 18:08:00'), Timestamp('2102-09-22 18:43:00'))</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nsg note: alt in cv status/caridomyopathy\ns: "i never have been able to sleep this low".\no: for complete vs see ccu flow sheet.\nid: patient afebrile.\ncv: patient remains on milrinone at .5mic/kilo with last c/o being 5.1/2.63 and svr 878. his heart is now being av paced and is likely in nsr. he occasionally v paces off and intrinsic p-wave. he remains on amiodarone at .5mg/hr and will stay on it per dr [**last name (stitle) 8872**] for another 2-3 days. he has had minmal ectopy until ~6pm when he had a run of 7 beats. strip in chart. his pap pressure remain elevated at 50-60s/25-32 and ra [**9-16**]. swan is not wedging. he remains on heparin at 1100u/hr with theraputic ptt.\nresp: patient sating 97-99% on 3l np. his lungs are clear. his breathing feel comfortable today.\ngu: bun/creat today are 113/2.7. as it hasn\'t increased he has been further diureseed with 500m iv diuril at 10:30a followed by 200mg iv lasix at 11am. his urine output has been increasing over the afternoon although he still has hematuria. at ~4pm he leaked a large amt of urine around the foley and foley was pulled and new one inserted. he is presently 1 measured liter neg for the day, and much more negative with loss around catheter.\ngi: patient continues to have poor apetite and cannot eat solid food. we are trying to get him to consentrate efforts on drinking boost and he was able to drink over half a can this afternoon. he had slightly g+ liquid stool.\nheme: crit is stable at 31.\ncomfort/ms/activity: patient does not yet feel better. he is still exhausted. however for the first time in weeks he has been sleeping in long stretches and is able to have his head lower than usual. he was oob twice and sat in the chair for over an hour.\na: improved c/o/ improved urine output/resting comfortably\np: if urine output drops off call ho for more diuretic. measure co tid. keep careful i &amp; o. encourage drinking boost. gas.\n\n', 'event': ['Sleep', 'Eating', 'Excretion', 'Pain', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "he has been sleeping in long stretches and is able to have his head lower than usual.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "long stretches"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Eating",\n      "text_quote": "he was able to drink over half a can of boost this afternoon.",\n      "actor": "patient",\n      "object": "boost",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "boost",\n          "amount": "over half a can",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "his urine output has been increasing over the afternoon although he still has hematuria.",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "afternoon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "increasing",\n          "quality": "hematuria"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "patient does not yet feel better. he is still exhausted.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "exhausted",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "",\n      "object": "",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'long stretches'}}}, {'Eating': {'Eating': {'food': 'boost', 'amount': 'over half a can', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'increasing', 'quality': 'hematuria'}}}, {'Pain': {'Pain': {'severity': 'exhausted', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['he has been sleeping in long stretches and is able to have his head lower than usual.', 'he was able to drink over half a can of boost this afternoon.', 'his urine output has been increasing over the afternoon although he still has hematuria.', 'patient does not yet feel better. he is still exhausted.', ''], 'event_time': ['Unknown', 'afternoon', 'afternoon', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-22 18:08:00 and 2102-09-22 18:43:00):\n           ccu nsg note: alt in cv status/caridomyopathy\ns: "i never have been able to sleep this low".\no: for complete vs see ccu flow sheet.\nid: patient afebrile.\ncv: patient remains on milrinone at .5mic/kilo with last c/o being 5.1/2.63 and svr 878. his heart is now being av paced and is likely in nsr. he occasionally v paces off and intrinsic p-wave. he remains on amiodarone at .5mg/hr and will stay on it per dr [**last name (stitle) 8872**] for another 2-3 days. he has had minmal ectopy until ~6pm when he had a run of 7 beats. strip in chart. his pap pressure remain elevated at 50-60s/25-32 and ra [**9-16**]. swan is not wedging. he remains on heparin at 1100u/hr with theraputic ptt.\nresp: patient sating 97-99% on 3l np. his lungs are clear. his breathing feel comfortable today.\ngu: bun/creat today are 113/2.7. as it hasn\'t increased he has been further diureseed with 500m iv diuril at 10:30a followed by 200mg iv lasix at 11am. his urine output has been increasing over the afternoon although he still has hematuria. at ~4pm he leaked a large amt of urine around the foley and foley was pulled and new one inserted. he is presently 1 measured liter neg for the day, and much more negative with loss around catheter.\ngi: patient continues to have poor apetite and cannot eat solid food. we are trying to get him to consentrate efforts on drinking boost and he was able to drink over half a can this afternoon. he had slightly g+ liquid stool.\nheme: crit is stable at 31.\ncomfort/ms/activity: patient does not yet feel better. he is still exhausted. however for the first time in weeks he has been sleeping in long stretches and is able to have his head lower than usual. he was oob twice and sat in the chair for over an hour.\na: improved c/o/ improved urine output/resting comfortably\np: if urine output drops off call ho for more diuretic. measure co tid. keep careful i &amp; o. encourage drinking boost. gas.\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 19.149736830964684}</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>sleep this low|sleeping in long stretches</t>
         </is>
       </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>['he has been sleeping in long stretches and is able to have his head lower than usual.']</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'long stretches'}}}]</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>['Sleep', 'Eating', 'Excretion', 'Pain', 'Family']</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'long stretches'}}}, {'Eating': {'Eating': {'food': 'boost', 'amount': 'over half a can', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'increasing', 'quality': 'hematuria'}}}, {'Pain': {'Pain': {'severity': 'exhausted', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>['he has been sleeping in long stretches and is able to have his head lower than usual.', 'he was able to drink over half a can of boost this afternoon.', 'his urine output has been increasing over the afternoon although he still has hematuria.', 'patient does not yet feel better. he is still exhausted.', '']</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:he has been sleeping in long stretches and is able to have his head lower than usual.', 'e2=Eating|0:he was able to drink over half a can of boost this afternoon.', 'e3=Excretion|1:his urine output has been increasing over the afternoon although he still has hematuria.', 'e4=Pain|1:patient does not yet feel better. he is still exhausted.', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -2529,56 +2769,66 @@
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" t="n">
-        <v>1</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-23 06:56:00'), Timestamp('2102-09-23 07:09:00'))</t>
+        </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>{'text': "ccu nursing progress note\ns: i can't really sleep...maybe i slept too much today\no: pls see carevue flowsheet for complete vs/data/events\nneuro: a+o x3, cooperative. mae. sleeping in short naps. awakes with c/o dry mouth. any discomfort relieved with position change. rec'd ambien x1 with mod effect.\ncv: appeared to be av pacing and vapcing thru out night. rate in the 70s. occ pvc. 1 short 4 bt run noted. bp 110-120/40-50 via nbp.\npap: 60-70/25-27. cvp 5-10. w 24. remains on milrinone at .5mcg/kg/min, amiodarone at .5mg/min and heparin at 1100u/hr.\nco 5.1, ci 2.6, svr 925. mv sat 62.\nrec'd 40kcl for k 3.8.\nresp: crackles up 1/3 at bases bilat. no sob. sat 95-98% on 3lnc. rr 12-18. did notice 1 episode of sleep apnea(unclear duration but at least 20 sec) with corresponding drop in sat to 88%. was not part tachypneic after episode and sats returned to mid 90s in 1min.\ngu: 1.5 l neg at mn. rec'd diuril and lasix at mn/1am with fair response. 600neg at 6am from mn.\ncont with hematuria. no clots. no problems with leaking around foley.\ngi: taking ice chips, watermelon. min soft stool.\nid: afeb. no abx.\nsocial: dtr stayed over noc, left this am.\na: chf responding to med therapy. hematuria.\np: follow rhythm, hemodynamics, co. follow uop.\n", 'event': ['Sleep', 'Pain', 'Sleep', 'Eating', 'Excretion', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "i can\'t really sleep...maybe i slept too much today",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "any discomfort relieved with position change",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "mild",\n          "location": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Sleep",\n      "text_quote": "sleeping in short naps. awakes with c/o dry mouth",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "taking ice chips, watermelon. min soft stool",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "ice chips, watermelon"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Excretion",\n      "text_quote": "1.5 l neg at mn. rec\'d diuril and lasix at mn/1am with fair response. 600neg at 6am from mn.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Family",\n      "text_quote": "dtr stayed over noc, left this am",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit"\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Pain",\n      "text_quote": "1 episode of sleep apnea(unclear duration but at least 20 sec) with corresponding drop in sat to 88%",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "moderate"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Eating': {'Eating': {'food': 'ice chips, watermelon'}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Family': {'Family': {'interaction': 'visit'}}}, {'Pain': {'Pain': {'severity': 'moderate'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ["i can't really sleep...maybe i slept too much today", 'any discomfort relieved with position change', 'sleeping in short naps. awakes with c/o dry mouth', 'taking ice chips, watermelon. min soft stool', "1.5 l neg at mn. rec'd diuril and lasix at mn/1am with fair response. 600neg at 6am from mn.", 'dtr stayed over noc, left this am', '1 episode of sleep apnea(unclear duration but at least 20 sec) with corresponding drop in sat to 88%'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-23 06:56:00 and 2102-09-23 07:09:00):\n           ccu nursing progress note\ns: i can\'t really sleep...maybe i slept too much today\no: pls see carevue flowsheet for complete vs/data/events\nneuro: a+o x3, cooperative. mae. sleeping in short naps. awakes with c/o dry mouth. any discomfort relieved with position change. rec\'d ambien x1 with mod effect.\ncv: appeared to be av pacing and vapcing thru out night. rate in the 70s. occ pvc. 1 short 4 bt run noted. bp 110-120/40-50 via nbp.\npap: 60-70/25-27. cvp 5-10. w 24. remains on milrinone at .5mcg/kg/min, amiodarone at .5mg/min and heparin at 1100u/hr.\nco 5.1, ci 2.6, svr 925. mv sat 62.\nrec\'d 40kcl for k 3.8.\nresp: crackles up 1/3 at bases bilat. no sob. sat 95-98% on 3lnc. rr 12-18. did notice 1 episode of sleep apnea(unclear duration but at least 20 sec) with corresponding drop in sat to 88%. was not part tachypneic after episode and sats returned to mid 90s in 1min.\ngu: 1.5 l neg at mn. rec\'d diuril and lasix at mn/1am with fair response. 600neg at 6am from mn.\ncont with hematuria. no clots. no problems with leaking around foley.\ngi: taking ice chips, watermelon. min soft stool.\nid: afeb. no abx.\nsocial: dtr stayed over noc, left this am.\na: chf responding to med therapy. hematuria.\np: follow rhythm, hemodynamics, co. follow uop.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'family member', 'patient'], 'event_detection_time': 25.120142136933282}</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>can't really sleep|slept too much today|sleeping in short nap</t>
         </is>
       </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>["i can't really sleep...maybe i slept too much today", 'sleeping in short naps. awakes with c/o dry mouth']</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Sleep', 'Eating', 'Excretion', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Eating': {'Eating': {'food': 'ice chips, watermelon'}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Family': {'Family': {'interaction': 'visit'}}}, {'Pain': {'Pain': {'severity': 'moderate'}}}]</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>["i can't really sleep...maybe i slept too much today", 'any discomfort relieved with position change', 'sleeping in short naps. awakes with c/o dry mouth', 'taking ice chips, watermelon. min soft stool', "1.5 l neg at mn. rec'd diuril and lasix at mn/1am with fair response. 600neg at 6am from mn.", 'dtr stayed over noc, left this am', '1 episode of sleep apnea(unclear duration but at least 20 sec) with corresponding drop in sat to 88%']</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>["e1=Sleep|1:i can't really sleep...maybe i slept too much today", 'e2=Pain|1:any discomfort relieved with position change', 'e3=Sleep|1:sleeping in short naps. awakes with c/o dry mouth', 'e4=Eating|1:taking ice chips, watermelon. min soft stool', "e5=Excretion|1:1.5 l neg at mn. rec'd diuril and lasix at mn/1am with fair response. 600neg at 6am from mn.", 'e6=Family|1:dtr stayed over noc, left this am', 'e7=Pain|1:1 episode of sleep apnea(unclear duration but at least 20 sec) with corresponding drop in sat to 88%']</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -2617,56 +2867,66 @@
       <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
-        <v>1</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-23 18:04:00'), Timestamp('2102-09-23 18:25:00'))</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing progress note\ns.  "i\'m very sleepy and weak today."\n\no.  see carevue flowsheet for complete vs, objective data\n\ncv:  hr 70\'s av paced with occassional pvc\'s, 1 run non-sustained vt in am, k+ 3.3 received 60meq iv kcl - repeat 3.9+; amiodarone iv d/c\'d, amio 400mg by mouth tid started; bp 110-124/30-40\'s milrinone remains at 0.5 mcgs/kg w/pa 55-66/21-25 cvp 6-12; c.o/c.i/svr = 5.2-5.4/2.68-2.78/831-904\nheparin remains at 1100u/hr; oob - chair x 1.5 hrs, tolerated well except c/o fatigue\n\nresp: rr 12-24, lungs rales 1/4 up, sats 96-98% on 2.5 liters o2\n\ngi: tolerating diet in small amts; boost drinks x 2, receiving reglan\nno stool\n\ngu: foley draining bloody urine, diuresing well throughout day - 900cc negative today, u/o slowing down this evening ? need for more diuretics\n\nms: alert and oriented x 3, sleeping on/off throughout day, states he didn\'t sleep well last noc\n\nsocial:  family in to visit this evening\n\na: good co w/good diuresis on milrinone drops\n\np: monitor hemodynamics, continue replace k+, diuresis as ordered, encourage by mouth intake as tolerated, continue supportive care.\n\n', 'event': ['Sleep', 'Eating', 'Excretion', 'Family', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleeping on/off throughout day, states he didn\'t sleep well last noc",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "on and off"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "tolerating diet in small amts; boost drinks x 2, receiving reglan",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "diet in small amts; boost drinks",\n                    "amount": "small amts; 2",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "foley draining bloody urine, diuresing well throughout day - 900cc negative today, u/o slowing down this evening ? need for more diuretics",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "well throughout day",\n                    "quality": "bloody"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "family in to visit this evening",\n            "actor": "patient",\n            "object": "family member",\n            "negation": false,\n            "time": "evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "c/o fatigue",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "unknown",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}, {'Eating': {'Eating': {'food': 'diet in small amts; boost drinks', 'amount': 'small amts; 2', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'well throughout day', 'quality': 'bloody'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ["sleeping on/off throughout day, states he didn't sleep well last noc", 'tolerating diet in small amts; boost drinks x 2, receiving reglan', 'foley draining bloody urine, diuresing well throughout day - 900cc negative today, u/o slowing down this evening ? need for more diuretics', 'family in to visit this evening', 'c/o fatigue'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'evening', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-23 18:04:00 and 2102-09-23 18:25:00):\n           ccu nursing progress note\ns.  "i\'m very sleepy and weak today."\n\no.  see carevue flowsheet for complete vs, objective data\n\ncv:  hr 70\'s av paced with occassional pvc\'s, 1 run non-sustained vt in am, k+ 3.3 received 60meq iv kcl - repeat 3.9+; amiodarone iv d/c\'d, amio 400mg by mouth tid started; bp 110-124/30-40\'s milrinone remains at 0.5 mcgs/kg w/pa 55-66/21-25 cvp 6-12; c.o/c.i/svr = 5.2-5.4/2.68-2.78/831-904\nheparin remains at 1100u/hr; oob - chair x 1.5 hrs, tolerated well except c/o fatigue\n\nresp: rr 12-24, lungs rales 1/4 up, sats 96-98% on 2.5 liters o2\n\ngi: tolerating diet in small amts; boost drinks x 2, receiving reglan\nno stool\n\ngu: foley draining bloody urine, diuresing well throughout day - 900cc negative today, u/o slowing down this evening ? need for more diuretics\n\nms: alert and oriented x 3, sleeping on/off throughout day, states he didn\'t sleep well last noc\n\nsocial:  family in to visit this evening\n\na: good co w/good diuresis on milrinone drops\n\np: monitor hemodynamics, continue replace k+, diuresis as ordered, encourage by mouth intake as tolerated, continue supportive care.\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 22.51648907805793}</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>sleeping on/off|did'nt sleep well</t>
         </is>
       </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>["sleeping on/off throughout day, states he didn't sleep well last noc"]</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}]</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>['Sleep', 'Eating', 'Excretion', 'Family', 'Pain']</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'on and off'}}}, {'Eating': {'Eating': {'food': 'diet in small amts; boost drinks', 'amount': 'small amts; 2', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'well throughout day', 'quality': 'bloody'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>["sleeping on/off throughout day, states he didn't sleep well last noc", 'tolerating diet in small amts; boost drinks x 2, receiving reglan', 'foley draining bloody urine, diuresing well throughout day - 900cc negative today, u/o slowing down this evening ? need for more diuretics', 'family in to visit this evening', 'c/o fatigue']</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>["e1=Sleep|1:sleeping on/off throughout day, states he didn't sleep well last noc", 'e2=Eating|1:tolerating diet in small amts; boost drinks x 2, receiving reglan', 'e3=Excretion|1:foley draining bloody urine, diuresing well throughout day - 900cc negative today, u/o slowing down this evening ? need for more diuretics', 'e4=Family|1:family in to visit this evening', 'e5=Pain|1:c/o fatigue']</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -2702,56 +2962,66 @@
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
-        <v>1</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-24 05:30:00'), Timestamp('2102-09-24 05:46:00'))</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing progress note\ns-"i just feel tired all the time"\no-neuro alert and oriented x3, pleasant and cooperative. alittle down talking about how weak he feels. although trying to do arm exercises to improve strength. slept well after ambien 7.5mg by mouth/tylenol 650mg by mouth\ncv-improved hemodynamics after diuril/lasix. cvp/pad 14, 78/32 before and cvp/pap 4, 59/20 after 2 liters. co/ci/svr at 11pm 4.8/2.47/950. milrinone at .5mg/min hr 70 v/av paced with rare pvc\'s. bp 109/121/40\'s amoderone 400mg by mouth tid. heparin at 1100u/hr ptt 62.7.\nresp- ls clear with bbr oxygen saturation 99% on 3lnp.\nid afebrile\ngu-foley draining pink-red clear urine without clots. received diuril 500mg/lasix 200mg ivb with excellant diuresis. replaced with 40kcl iv with diuresis.\ngu-appetite improving, +bs abd soft no stools last bm [**9-21**] loose.\nsocial-daughter in room with patient all night.\na/p-slow improvment in hemodynamics, possible start by mouth meds and wan off milrinone while swan in place.\n', 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept well after ambien 7.5mg by mouth/tylenol 650mg by mouth",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "well"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "alittle down talking about how weak he feels",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "weak"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "foley draining pink-red clear urine without clots",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "quality": "pink-red clear"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "appetite improving, +bs abd soft no stools last bm [**9-21**] loose",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "daughter in room with patient all night",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "daughter"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "simultaneous",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "simultaneous",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'well'}}}, {'Pain': {'Pain': {'severity': 'weak'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'quality': 'pink-red clear'}}}, {'Eating': {'Eating': {'food': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]], 'text_quotes': ['slept well after ambien 7.5mg by mouth/tylenol 650mg by mouth', 'alittle down talking about how weak he feels', 'foley draining pink-red clear urine without clots', 'appetite improving, +bs abd soft no stools last bm [**9-21**] loose', 'daughter in room with patient all night'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-24 05:30:00 and 2102-09-24 05:46:00):\n           ccu nursing progress note\ns-"i just feel tired all the time"\no-neuro alert and oriented x3, pleasant and cooperative. alittle down talking about how weak he feels. although trying to do arm exercises to improve strength. slept well after ambien 7.5mg by mouth/tylenol 650mg by mouth\ncv-improved hemodynamics after diuril/lasix. cvp/pad 14, 78/32 before and cvp/pap 4, 59/20 after 2 liters. co/ci/svr at 11pm 4.8/2.47/950. milrinone at .5mg/min hr 70 v/av paced with rare pvc\'s. bp 109/121/40\'s amoderone 400mg by mouth tid. heparin at 1100u/hr ptt 62.7.\nresp- ls clear with bbr oxygen saturation 99% on 3lnp.\nid afebrile\ngu-foley draining pink-red clear urine without clots. received diuril 500mg/lasix 200mg ivb with excellant diuresis. replaced with 40kcl iv with diuresis.\ngu-appetite improving, +bs abd soft no stools last bm [**9-21**] loose.\nsocial-daughter in room with patient all night.\na/p-slow improvment in hemodynamics, possible start by mouth meds and wan off milrinone while swan in place.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 20.678969545988366}</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>slept well after ambien</t>
         </is>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>['slept well after ambien 7.5mg by mouth/tylenol 650mg by mouth']</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}]</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well'}}}, {'Pain': {'Pain': {'severity': 'weak'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'quality': 'pink-red clear'}}}, {'Eating': {'Eating': {'food': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}]</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>['slept well after ambien 7.5mg by mouth/tylenol 650mg by mouth', 'alittle down talking about how weak he feels', 'foley draining pink-red clear urine without clots', 'appetite improving, +bs abd soft no stools last bm [**9-21**] loose', 'daughter in room with patient all night']</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept well after ambien 7.5mg by mouth/tylenol 650mg by mouth', 'e2=Pain|1:alittle down talking about how weak he feels', 'e3=Excretion|1:foley draining pink-red clear urine without clots', 'e4=Eating|1:appetite improving, +bs abd soft no stools last bm [**9-21**] loose', 'e5=Family|1:daughter in room with patient all night']</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'simultaneous', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -2788,56 +3058,66 @@
       <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
-        <v>1</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-24 18:59:00'), Timestamp('2102-09-24 19:17:00'))</t>
+        </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nsg note: cardiomyopathy\ns: i\'m exhausted, still i do think i\'m better."\no: for complete vs see ccu flow sheet.\ncv: patient remains on .5mic/kilo/min of dobutamine. in preparation for possible weaning tomorrow captopril 6.25 was given at 9am. co at 11 was 4.1/2.11 with svr increased to 1112. at 5p 12.5 captopril was given and latest co was improved at 5.5/ 2.8/ svr 815. captopril will increase to 25 at midnight.pap have ranged 40-60s/18-30 with ra [**7-18**]. heparin remains at 1100u/hr with theraputic ptt. he is being replaced with 60meq kcl for k+ of 3.3.\nresp: patient is sating 98% on 3l np. off 02 sat will drop to ~93%. he continues to have bbr.\ngu: he was diuresed with diuril 500iv and lasix 200iv at ~noon. he has had an excellent diuretic response and is now 2300cc neg for the day. his creatinine has continued to decrease to 2.1 today.\ngi: patient ate well at breakfast, but less the rest of the day. he is trying to consentrate on drinking boost and had two full cans today. he had very lg loose brown g+ stool today.\nheme: crit stable at 31.\nms/activity: patient remains tired, sleeping most of the day. he did get oob to chair for ~2hours and tolerated it well. family in to visit.\na: co/svr improved with increased captopril.\np: continue to increase captopril as tolerated. replace k+ as needed..monitor creatinine. assist patient with increase in activity.\n', 'event': ['Sleep', 'Family', 'Eating', 'Excretion', 'Pain', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient remains tired, sleeping most of the day.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of the day"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Family",\n      "text_quote": "family in to visit.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "patient ate well at breakfast, but less the rest of the day.",\n      "actor": "patient",\n      "object": "food",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "breakfast",\n          "amount": "well",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "he was diuresed with diuril 500iv and lasix 200iv at ~noon.",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "~noon",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "excellent diuretic response",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Pain",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Excretion",\n      "text_quote": "he had very lg loose brown g+ stool today.",\n      "actor": "patient",\n      "object": "stool",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "once",\n          "quality": "loose brown g+"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "unknown",\n      "event_id_2": "e5"\n    },\n    {\n      "event_id_1": "e5",\n      "relation": "unknown",\n      "event_id_2": "e6"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'breakfast', 'amount': 'well', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'excellent diuretic response', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'once', 'quality': 'loose brown g+'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]], 'text_quotes': ['patient remains tired, sleeping most of the day.', 'family in to visit.', 'patient ate well at breakfast, but less the rest of the day.', 'he was diuresed with diuril 500iv and lasix 200iv at ~noon.', 'None', 'he had very lg loose brown g+ stool today.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', '~noon', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-24 18:59:00 and 2102-09-24 19:17:00):\n           ccu nsg note: cardiomyopathy\ns: i\'m exhausted, still i do think i\'m better."\no: for complete vs see ccu flow sheet.\ncv: patient remains on .5mic/kilo/min of dobutamine. in preparation for possible weaning tomorrow captopril 6.25 was given at 9am. co at 11 was 4.1/2.11 with svr increased to 1112. at 5p 12.5 captopril was given and latest co was improved at 5.5/ 2.8/ svr 815. captopril will increase to 25 at midnight.pap have ranged 40-60s/18-30 with ra [**7-18**]. heparin remains at 1100u/hr with theraputic ptt. he is being replaced with 60meq kcl for k+ of 3.3.\nresp: patient is sating 98% on 3l np. off 02 sat will drop to ~93%. he continues to have bbr.\ngu: he was diuresed with diuril 500iv and lasix 200iv at ~noon. he has had an excellent diuretic response and is now 2300cc neg for the day. his creatinine has continued to decrease to 2.1 today.\ngi: patient ate well at breakfast, but less the rest of the day. he is trying to consentrate on drinking boost and had two full cans today. he had very lg loose brown g+ stool today.\nheme: crit stable at 31.\nms/activity: patient remains tired, sleeping most of the day. he did get oob to chair for ~2hours and tolerated it well. family in to visit.\na: co/svr improved with increased captopril.\np: continue to increase captopril as tolerated. replace k+ as needed..monitor creatinine. assist patient with increase in activity.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'family member', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 25.970447401050478}</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>sleeping most of the day</t>
         </is>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>['patient remains tired, sleeping most of the day.']</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}]</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>['Sleep', 'Family', 'Eating', 'Excretion', 'Pain', 'Excretion']</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the day'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'breakfast', 'amount': 'well', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'excellent diuretic response', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'once', 'quality': 'loose brown g+'}}}]</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>['patient remains tired, sleeping most of the day.', 'family in to visit.', 'patient ate well at breakfast, but less the rest of the day.', 'he was diuresed with diuril 500iv and lasix 200iv at ~noon.', 'None', 'he had very lg loose brown g+ stool today.']</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient remains tired, sleeping most of the day.', 'e2=Family|1:family in to visit.', 'e3=Eating|1:patient ate well at breakfast, but less the rest of the day.', 'e4=Excretion|1:he was diuresed with diuril 500iv and lasix 200iv at ~noon.', 'e5=Pain|0:None', 'e6=Excretion|1:he had very lg loose brown g+ stool today.']</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -2876,56 +3156,66 @@
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="n">
-        <v>1</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-25 07:45:00'), Timestamp('2102-09-25 08:07:00'))</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing progress note\ns-"my back really aches"\no-neuro alert and oriented x3, very pleasant and cooperative. asking questions about going home. slept fairly well after ambien 7.5mg by mouth.\nc/o neck pain from swan and left sided back pain. received tylenol 650mg by mouth x2 with relief.\ncv-hr 100% av paced rate 70, hemodynamics improving. milrinone decreased to .375mg mcg/kg/min and tolerating captopril 25mg by mouth tid. co/ci/svr 90 minutes after dose 8.7/4.48/500. possibly d/c milrinone this am and continue to gradual increase in captopril as tol. cvp 4-10 pad 16-24 last pwp 21. bp 103-119/34-42 heparin 1100u/hr.\nresp-o2 3l np patient states he only uses the o2 at night. plan on removing o2 during the day. oxygen saturation 100%.ls bbr\nid afebrile\ngu-foley pink hematuria. continued aggressive diuresis. k4.1 after 80meq kcl iv.\ngi-taking liquids well/possibly might have to restrict fluid, took over 2 liters yesterday! might explain na 134. hct 30.5\nendo bs 140\na/p-improved hemodynamics on captopril weaning off milrinone.\ncontinue iv diuretics and ?start coumadin after swan removed\npatient needs aggresive potassium replacement with each lasix/diuril dose\n', 'event': ['Pain', 'Sleep', 'Pain', 'Eating', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "\\"my back really aches\\"",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "slept fairly well after ambien 7.5mg by mouth.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "fairly well",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "c/o neck pain from swan and left sided back pain.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "neck and left sided back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "taking liquids well/possibly might have to restrict fluid, took over 2 liters yesterday!",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "liquids",\n                    "amount": "over 2 liters",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "gu-foley pink hematuria.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "Unknown",\n                    "quality": "pink hematuria"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "after",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'fairly well', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'neck and left sided back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'liquids', 'amount': 'over 2 liters', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'pink hematuria'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]], 'text_quotes': ['"my back really aches"', 'slept fairly well after ambien 7.5mg by mouth.', 'c/o neck pain from swan and left sided back pain.', 'taking liquids well/possibly might have to restrict fluid, took over 2 liters yesterday!', 'gu-foley pink hematuria.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-25 07:45:00 and 2102-09-25 08:07:00):\n           ccu nursing progress note\ns-"my back really aches"\no-neuro alert and oriented x3, very pleasant and cooperative. asking questions about going home. slept fairly well after ambien 7.5mg by mouth.\nc/o neck pain from swan and left sided back pain. received tylenol 650mg by mouth x2 with relief.\ncv-hr 100% av paced rate 70, hemodynamics improving. milrinone decreased to .375mg mcg/kg/min and tolerating captopril 25mg by mouth tid. co/ci/svr 90 minutes after dose 8.7/4.48/500. possibly d/c milrinone this am and continue to gradual increase in captopril as tol. cvp 4-10 pad 16-24 last pwp 21. bp 103-119/34-42 heparin 1100u/hr.\nresp-o2 3l np patient states he only uses the o2 at night. plan on removing o2 during the day. oxygen saturation 100%.ls bbr\nid afebrile\ngu-foley pink hematuria. continued aggressive diuresis. k4.1 after 80meq kcl iv.\ngi-taking liquids well/possibly might have to restrict fluid, took over 2 liters yesterday! might explain na 134. hct 30.5\nendo bs 140\na/p-improved hemodynamics on captopril weaning off milrinone.\ncontinue iv diuretics and ?start coumadin after swan removed\npatient needs aggresive potassium replacement with each lasix/diuril dose\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 20.01100793806836}</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>slept fairly well</t>
         </is>
       </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>['slept fairly well after ambien 7.5mg by mouth.']</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'fairly well', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Pain', 'Eating', 'Excretion']</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'fairly well', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'neck and left sided back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'liquids', 'amount': 'over 2 liters', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'pink hematuria'}}}]</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>['"my back really aches"', 'slept fairly well after ambien 7.5mg by mouth.', 'c/o neck pain from swan and left sided back pain.', 'taking liquids well/possibly might have to restrict fluid, took over 2 liters yesterday!', 'gu-foley pink hematuria.']</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>['e1=Pain|1:"my back really aches"', 'e2=Sleep|1:slept fairly well after ambien 7.5mg by mouth.', 'e3=Pain|1:c/o neck pain from swan and left sided back pain.', 'e4=Eating|1:taking liquids well/possibly might have to restrict fluid, took over 2 liters yesterday!', 'e5=Excretion|1:gu-foley pink hematuria.']</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -2980,56 +3270,66 @@
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
-        <v>1</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-26 05:51:00'), Timestamp('2102-09-26 06:05:00'))</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nsg progress note 7p-7a/ chf; cardiomyopathy\n\ns- " i cannot sleep ..."\n\no- see flowsheet for objective data..\n\ncv- bp- 103/33- 110/50; hr- 70 avp.\nno vea- remains on heparin, amiodorone,coreg, captopril.\nco/ci/svr after milrinone d/c- 4.6/2.3/922- similar , slightly decreased from previous [**location (un) 93**].\n\nresp- s/o some sob with o2 off- oxygen saturation 99%- added 2 l np for comfort.\nclear lung sounds- diuresed with lasix/diuril 11p for decreased u.o.\n\ngu- decreased u.o- 40-50/hour with i/o (+) 700cc late eves- see above- given lasix/diuril with good response- currently (-) 1 liter.\nuo- &gt;100cc/hour.\n\ngi- taking meds by mouth with h2o.\n2 loose g(-) stools on eves.\nholding reglan.\n\nms- ambien for sleep- very much awake on/off all of night.,\ndaughter in room sleeping overnt- in/out of room.\nasking appropriate questions re: plan of care.\ngiven 1 mg mso4 for some discomfort/insomnia- brief sleep.\ndenies flank pain currently.\nin need of much support.\n\nid- afebrile.\n\na/[**name (ni) **] patient status post milrinone course currently with good hemodynamics and stable co/ci.\ndiuresing well to diuretics.\n\ncontinue to follow hemodynamics; diurese as needed- check am [**name (ni) **] keep ptt wnl- heparin at 600u.\ncontinue to monitor stools- ? send for culture.\nincrease activity as tolerated.\nd/c pa line today once hemodynamics obtained.\nkeep patient and family aware of plan of care.\nsedation/sleep meds as needed.\n? continue to max captopril as hemodynamics allow.\n\n', 'event': ['Sleep', 'Pain', 'Excretion', 'Family', 'Eating', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "i cannot sleep ...",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "given 1 mg mso4 for some discomfort/insomnia- brief sleep.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "mild",\n          "location": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "decreased u.o- 40-50/hour with i/o (+) 700cc late eves- see above- given lasix/diuril with good response- currently (-) 1 liter.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "decreased"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "daughter in room sleeping overnt- in/out of room.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "daughter"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "taking meds by mouth with h2o.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "meds",\n          "amount": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Excretion",\n      "text_quote": "2 loose g(-) stools on eves.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'decreased'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Eating': {'Eating': {'food': 'meds', 'amount': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['i cannot sleep ...', 'given 1 mg mso4 for some discomfort/insomnia- brief sleep.', 'decreased u.o- 40-50/hour with i/o (+) 700cc late eves- see above- given lasix/diuril with good response- currently (-) 1 liter.', 'daughter in room sleeping overnt- in/out of room.', 'taking meds by mouth with h2o.', '2 loose g(-) stools on eves.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [True, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-26 05:51:00 and 2102-09-26 06:05:00):\n           ccu nsg progress note 7p-7a/ chf; cardiomyopathy\n\ns- " i cannot sleep ..."\n\no- see flowsheet for objective data..\n\ncv- bp- 103/33- 110/50; hr- 70 avp.\nno vea- remains on heparin, amiodorone,coreg, captopril.\nco/ci/svr after milrinone d/c- 4.6/2.3/922- similar , slightly decreased from previous [**location (un) 93**].\n\nresp- s/o some sob with o2 off- oxygen saturation 99%- added 2 l np for comfort.\nclear lung sounds- diuresed with lasix/diuril 11p for decreased u.o.\n\ngu- decreased u.o- 40-50/hour with i/o (+) 700cc late eves- see above- given lasix/diuril with good response- currently (-) 1 liter.\nuo- &gt;100cc/hour.\n\ngi- taking meds by mouth with h2o.\n2 loose g(-) stools on eves.\nholding reglan.\n\nms- ambien for sleep- very much awake on/off all of night.,\ndaughter in room sleeping overnt- in/out of room.\nasking appropriate questions re: plan of care.\ngiven 1 mg mso4 for some discomfort/insomnia- brief sleep.\ndenies flank pain currently.\nin need of much support.\n\nid- afebrile.\n\na/[**name (ni) **] patient status post milrinone course currently with good hemodynamics and stable co/ci.\ndiuresing well to diuretics.\n\ncontinue to follow hemodynamics; diurese as needed- check am [**name (ni) **] keep ptt wnl- heparin at 600u.\ncontinue to monitor stools- ? send for culture.\nincrease activity as tolerated.\nd/c pa line today once hemodynamics obtained.\nkeep patient and family aware of plan of care.\nsedation/sleep meds as needed.\n? continue to max captopril as hemodynamics allow.\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient', 'patient'], 'event_detection_time': 22.515038119861856}</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>i cannot sleep|ambien for sleep|brief sleep</t>
         </is>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>['i cannot sleep ...']</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Family', 'Eating', 'Excretion']</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'decreased'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Eating': {'Eating': {'food': 'meds', 'amount': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool'}}}]</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>['i cannot sleep ...', 'given 1 mg mso4 for some discomfort/insomnia- brief sleep.', 'decreased u.o- 40-50/hour with i/o (+) 700cc late eves- see above- given lasix/diuril with good response- currently (-) 1 liter.', 'daughter in room sleeping overnt- in/out of room.', 'taking meds by mouth with h2o.', '2 loose g(-) stools on eves.']</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:i cannot sleep ...', 'e2=Pain|1:given 1 mg mso4 for some discomfort/insomnia- brief sleep.', 'e3=Excretion|1:decreased u.o- 40-50/hour with i/o (+) 700cc late eves- see above- given lasix/diuril with good response- currently (-) 1 liter.', 'e4=Family|1:daughter in room sleeping overnt- in/out of room.', 'e5=Eating|1:taking meds by mouth with h2o.', 'e6=Excretion|1:2 loose g(-) stools on eves.']</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3066,56 +3366,66 @@
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
-        <v>1</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>(Timestamp('2102-09-27 06:28:00'), Timestamp('2102-09-27 06:46:00'))</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing progress note\ns-"i feel tired"\no-neuro noted patient to be not as alert and oriented x2 at 1am and by 3am confused to place and time. according to his daughter he received [**name (ni) **] 10mg by mouth instead of 7.5mg by mouth last eve, and feels in the past 10mg has always made him confused. also patient slept intermitantly poor. (in the past has slept very well with 7.5mg) by 6am patient alert and oriented x3.\ncv-vss hemodynamics improved off milrinone on captorpil 100mg tid co/ci/svr at 1am  5.6/2.89/ 700. pap 46-59/21-27 cvp 5-8. hr remains av paced rate 70\'s. heparin at 1100u/hr on coumadin. diastolic blood pressure 98-110/40\nresp-rr 18-24 o2 3l np at night only oxygen saturation 95% ls bbr.\nid afebrile wbc 10\ngu-foley draining pink urine small amounts. of note na 129 and patient has been drinking alot of water/sodas family gets for him. possible start fluid/water restriction. bun/cr 93/1.9\ngi-appetite fair-poor. alb 3.5 suggest nutrition consult. last bm [**9-27**] loose bm. reglan more likely culprit for diarrhea?\nactivity-suggest oob for all meals and start patient consult for strenghting exercsies.\na/p-improved hemodynamcis on captorpil/dig, suggest removal of swan\nand foley. encourage increase activity as tol.\n\n', 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient slept intermitantly poor.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "intermittent"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "i feel tired",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "tired",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "foley draining pink urine small amounts.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "small amounts",\n          "quality": "pink"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "appetite fair-poor.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "fair-poor",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "according to his daughter he received [**name (ni) **] 10mg by mouth instead of 7.5mg by mouth last eve, and feels in the past 10mg has always made him confused.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "last eve",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "communication",\n          "relation": "daughter"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}, {'Pain': {'Pain': {'severity': 'tired', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'small amounts', 'quality': 'pink'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'fair-poor', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'daughter'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['patient slept intermitantly poor.', 'i feel tired', 'foley draining pink urine small amounts.', 'appetite fair-poor.', 'according to his daughter he received [**name (ni) **] 10mg by mouth instead of 7.5mg by mouth last eve, and feels in the past 10mg has always made him confused.'], 'event_time': ['night', 'Unknown', 'Unknown', 'Unknown', 'last eve'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2102-09-27 06:28:00 and 2102-09-27 06:46:00):\n           ccu nursing progress note\ns-"i feel tired"\no-neuro noted patient to be not as alert and oriented x2 at 1am and by 3am confused to place and time. according to his daughter he received [**name (ni) **] 10mg by mouth instead of 7.5mg by mouth last eve, and feels in the past 10mg has always made him confused. also patient slept intermitantly poor. (in the past has slept very well with 7.5mg) by 6am patient alert and oriented x3.\ncv-vss hemodynamics improved off milrinone on captorpil 100mg tid co/ci/svr at 1am  5.6/2.89/ 700. pap 46-59/21-27 cvp 5-8. hr remains av paced rate 70\'s. heparin at 1100u/hr on coumadin. diastolic blood pressure 98-110/40\nresp-rr 18-24 o2 3l np at night only oxygen saturation 95% ls bbr.\nid afebrile wbc 10\ngu-foley draining pink urine small amounts. of note na 129 and patient has been drinking alot of water/sodas family gets for him. possible start fluid/water restriction. bun/cr 93/1.9\ngi-appetite fair-poor. alb 3.5 suggest nutrition consult. last bm [**9-27**] loose bm. reglan more likely culprit for diarrhea?\nactivity-suggest oob for all meals and start patient consult for strenghting exercsies.\na/p-improved hemodynamcis on captorpil/dig, suggest removal of swan\nand foley. encourage increase activity as tol.\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 19.949075868120417}</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>patient slept intermitantly poor</t>
         </is>
       </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>['patient slept intermitantly poor.']</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}, {'Pain': {'Pain': {'severity': 'tired', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'small amounts', 'quality': 'pink'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'fair-poor', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'daughter'}}}]</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>['patient slept intermitantly poor.', 'i feel tired', 'foley draining pink urine small amounts.', 'appetite fair-poor.', 'according to his daughter he received [**name (ni) **] 10mg by mouth instead of 7.5mg by mouth last eve, and feels in the past 10mg has always made him confused.']</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient slept intermitantly poor.', 'e2=Pain|1:i feel tired', 'e3=Excretion|1:foley draining pink urine small amounts.', 'e4=Eating|1:appetite fair-poor.', 'e5=Family|1:according to his daughter he received [**name (ni) **] 10mg by mouth instead of 7.5mg by mouth last eve, and feels in the past 10mg has always made him confused.']</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3151,56 +3461,66 @@
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" t="n">
-        <v>1</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-03 06:37:00'), Timestamp('2179-07-03 06:46:00'))</t>
+        </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>{'text': 'nursing progress note 7p-7a\ns"  this iv hurts a litlle"\n\no;  neuro:  patient. a&amp;o x3.  pleasant and cooperative with care.  given valium as ordered.  slept in long naps overnight.  denies c/p pain.\n\ncv:  hr 52-55 sb with one run of vt 5 beats.  asymptomatic.  no c/o pain.  right and left groins c&amp;d, palp pulses. feet cool.  cont on amio and lido gtts.\n\nresp:  lungs clear, on room air.  oxygen saturation 95%.  denies c/o sob.\n\ngi:  appetite good, + bowel sounds.  no bm overnight.\n\ngu:  voiding clear yellow urine in good amts.  see flowsheet for i/o totals.\n\nskin intact, small abrasion noted under left breast ? defib pads.\n\na; admit for aicd firing, status post unsuccessful ablation.\n\np:  cont to monitor response to amio and lido, follow labs, monitor i/o, oob if tol.  update patient. and family on plan of care per ccu team.\n', 'event': ['Pain', 'Sleep', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "admit reason",\n            "attribute_value": "aicd firing, status post unsuccessful ablation"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": ""  \n        \n        \n         \n\n        \n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "slept in long naps overnight.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "long naps",\n                    "duration": "overnight"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "voiding clear yellow urine in good amts.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "good amts",\n                    "quality": "clear yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "appetite good",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "update patient. and family on plan of care per ccu team.",\n            "actor": "ccu team",\n            "object": "patient and family",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update on plan of care",\n                    "relation": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {}}, {'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'overnight'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good amts', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'update on plan of care', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['', 'slept in long naps overnight.', 'voiding clear yellow urine in good amts.', 'appetite good', 'update patient. and family on plan of care per ccu team.'], 'event_time': ['Unknown', 'overnight', 'Unknown', 'Unknown', 'Unknown'], 'negation': ['Unknown', False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-03 06:37:00 and 2179-07-03 06:46:00):\n           nursing progress note 7p-7a\ns"  this iv hurts a litlle"\n\no;  neuro:  patient. a&amp;o x3.  pleasant and cooperative with care.  given valium as ordered.  slept in long naps overnight.  denies c/p pain.\n\ncv:  hr 52-55 sb with one run of vt 5 beats.  asymptomatic.  no c/o pain.  right and left groins c&amp;d, palp pulses. feet cool.  cont on amio and lido gtts.\n\nresp:  lungs clear, on room air.  oxygen saturation 95%.  denies c/o sob.\n\ngi:  appetite good, + bowel sounds.  no bm overnight.\n\ngu:  voiding clear yellow urine in good amts.  see flowsheet for i/o totals.\n\nskin intact, small abrasion noted under left breast ? defib pads.\n\na; admit for aicd firing, status post unsuccessful ablation.\n\np:  cont to monitor response to amio and lido, follow labs, monitor i/o, oob if tol.  update patient. and family on plan of care per ccu team.\n\n        ', 'case_attributes': [[{'attribute_name': 'admit reason', 'attribute_value': 'aicd firing, status post unsuccessful ablation'}]], 'actor': ['Unknown', 'patient', 'patient', 'patient', 'ccu team'], 'event_detection_time': 18.090596768073738}</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>slept in long naps</t>
         </is>
       </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>['slept in long naps overnight.']</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'overnight'}}}]</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>[{'Pain': {}}, {'Sleep': {'Sleep': {'quality': 'long naps', 'duration': 'overnight'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good amts', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'update on plan of care', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>['', 'slept in long naps overnight.', 'voiding clear yellow urine in good amts.', 'appetite good', 'update patient. and family on plan of care per ccu team.']</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>['e1=Pain|1:', 'e2=Sleep|1:slept in long naps overnight.', 'e3=Excretion|1:voiding clear yellow urine in good amts.', 'e4=Eating|1:appetite good', 'e5=Family|1:update patient. and family on plan of care per ccu team.']</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3230,56 +3550,66 @@
       <c r="E33" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="n">
-        <v>1</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-04 04:30:00'), Timestamp('2179-07-04 04:40:00'))</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>{'text': 'nursing note :\n  a/ox3, denies pain, pleasant and cooperative w/care. slept in naps overnight, relief of anxiety reported w/valium. afebrile. sb-sr, high 50s-low 60s, no ectopy noted. no issue with aicd. diastolic blood pressure 90s-120s. lido drops @1mg/hr continues. all other cardiac meds by mouth.  +palpable and strong pedal pulses bilat. groin sites intact w/tegaderm. extremities cool. +bs, abdomen soft, tolerating sips water w/meds overnight. lung sounds clear, placed on 02 early am d/t sats dropping while sleeping. dropping to high 80s-low 90s transiently, coming right back up when patient. moving or stirring in sleep. ? sleep apnea. sats improving as 02 titrated up to 4l nc. voiding adequate amounts amber urine in urinal. moving self about in bed independently, skin intact. old iv sites to l. hand and r. forearm reddened and slightly edematous.\n\na/p: stable, no arrhythmias on lidocaine drops and by mouth cardiac agents. sats dropping when deeply asleep -? sleep apnea.\ncontinue to monitor closely, ? d/c lido drops this am if remains stable.\n', 'event': ['Sleep', 'Pain', 'Eating', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept in naps overnight",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "napping",\n          "duration": "overnight"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "denies pain",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "none",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "tolerating sips water w/meds overnight",\n      "actor": "patient",\n      "object": "water",\n      "negation": false,\n      "time": "overnight",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "water",\n          "amount": "sips",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "voiding adequate amounts amber urine in urinal",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "adequate amounts",\n          "quality": "amber"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "sats dropping when deeply asleep -? sleep apnea",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "deeply asleep",\n          "duration": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "simultaneous",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'napping', 'duration': 'overnight'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adequate amounts', 'quality': 'amber'}}}, {'Sleep': {'Sleep': {'quality': 'deeply asleep', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['slept in naps overnight', 'denies pain', 'tolerating sips water w/meds overnight', 'voiding adequate amounts amber urine in urinal', 'sats dropping when deeply asleep -? sleep apnea'], 'event_time': ['overnight', 'Unknown', 'overnight', 'Unknown', 'Unknown'], 'negation': [False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-04 04:30:00 and 2179-07-04 04:40:00):\n           nursing note :\n  a/ox3, denies pain, pleasant and cooperative w/care. slept in naps overnight, relief of anxiety reported w/valium. afebrile. sb-sr, high 50s-low 60s, no ectopy noted. no issue with aicd. diastolic blood pressure 90s-120s. lido drops @1mg/hr continues. all other cardiac meds by mouth.  +palpable and strong pedal pulses bilat. groin sites intact w/tegaderm. extremities cool. +bs, abdomen soft, tolerating sips water w/meds overnight. lung sounds clear, placed on 02 early am d/t sats dropping while sleeping. dropping to high 80s-low 90s transiently, coming right back up when patient. moving or stirring in sleep. ? sleep apnea. sats improving as 02 titrated up to 4l nc. voiding adequate amounts amber urine in urinal. moving self about in bed independently, skin intact. old iv sites to l. hand and r. forearm reddened and slightly edematous.\n\na/p: stable, no arrhythmias on lidocaine drops and by mouth cardiac agents. sats dropping when deeply asleep -? sleep apnea.\ncontinue to monitor closely, ? d/c lido drops this am if remains stable.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.19165187701583}</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>slept in naps overnight| sats dropping while sleeping|sats dropping when deeply asleep|:sleep apnea</t>
         </is>
       </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>['slept in naps overnight', 'sats dropping when deeply asleep -? sleep apnea']</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'napping', 'duration': 'overnight'}}}, {'Sleep': {'Sleep': {'quality': 'deeply asleep', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Eating', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'napping', 'duration': 'overnight'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adequate amounts', 'quality': 'amber'}}}, {'Sleep': {'Sleep': {'quality': 'deeply asleep', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>['slept in naps overnight', 'denies pain', 'tolerating sips water w/meds overnight', 'voiding adequate amounts amber urine in urinal', 'sats dropping when deeply asleep -? sleep apnea']</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept in naps overnight', 'e2=Pain|1:denies pain', 'e3=Eating|1:tolerating sips water w/meds overnight', 'e4=Excretion|1:voiding adequate amounts amber urine in urinal', 'e5=Sleep|1:sats dropping when deeply asleep -? sleep apnea']</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3314,56 +3644,66 @@
       <c r="E34" t="n">
         <v>1</v>
       </c>
-      <c r="F34" t="n">
-        <v>1</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-05 05:37:00'), Timestamp('2179-07-05 06:22:00'))</t>
+        </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>{'text': 'nursing progress note\ns: "it has been almost 2 hours without an incident"\n\no:  neuro: patient. [** **] and oreinted x3, pleasant and cooperative with care.  patient. anxious following aicd firing. given ativan ivp 1 mg x2.  sleeping in long naps.  c/o left arm discomfort at old iv site/  site red, sl edematous. dr. [**last name (stitle) **] in to see patient.  warm pack applied, elevated and tylenol given for discomfort with good relief.\n\ncv:  hr 58-62 sb-sr.  at 2345 run of vt rate &gt;200, aicd fired, shocked into sr.  drs. [**last name (stitle) **] and [**name5 (ptitle) **] notified.  lido bolus 100 mg given and lido drops restarted at 1 mg/min.  k+ 4.6, mg 2. 0145 run of vt, rate &gt; 200, aicd fired, shocked into sr, repeat lido bolus 100 mg and lido drops increased to 2 mg/min.  bp stable with arrythmia.  right groin c&amp;d, ecchymotic, no hematoma.  weak palp pulses.  left groin c&amp;d, ecchymotic.  palp pulses.\n\nresp:  on 4l nc, lungs clear.  oxygen saturation 96%. denies sob.\n\ngu;  voiding clear yellow urine in good amts.\n\ngi:  appetite good, + bowel sounds no bm overnight.\n\na:  aicd firing x2.  lido drops restarted. no further vt.\n\np:  monitor rythym, follow lytes, replete as needed. update patient. and family on plan of care per ccu team.\n', 'event': ['Sleep', 'Pain', 'Family', 'Excretion', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleeping in long naps",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "long naps"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "c/o left arm discomfort at old iv site/",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "discomfort",\n                    "location": "left arm"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "update patient. and family on plan of care per ccu team.",\n            "actor": "Unknown",\n            "object": "family",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "update",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "voiding clear yellow urine in good amts.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "good amts.",\n                    "quality": "clear yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "appetite good, + bowel sounds no bm overnight.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "unknown",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'long naps'}}}, {'Pain': {'Pain': {'severity': 'discomfort', 'location': 'left arm'}}}, {'Family': {'Family': {'interaction': 'update', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good amts.', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['sleeping in long naps', 'c/o left arm discomfort at old iv site/', 'update patient. and family on plan of care per ccu team.', 'voiding clear yellow urine in good amts.', 'appetite good, + bowel sounds no bm overnight.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-05 05:37:00 and 2179-07-05 06:22:00):\n           nursing progress note\ns: "it has been almost 2 hours without an incident"\n\no:  neuro: patient. [** **] and oreinted x3, pleasant and cooperative with care.  patient. anxious following aicd firing. given ativan ivp 1 mg x2.  sleeping in long naps.  c/o left arm discomfort at old iv site/  site red, sl edematous. dr. [**last name (stitle) **] in to see patient.  warm pack applied, elevated and tylenol given for discomfort with good relief.\n\ncv:  hr 58-62 sb-sr.  at 2345 run of vt rate &gt;200, aicd fired, shocked into sr.  drs. [**last name (stitle) **] and [**name5 (ptitle) **] notified.  lido bolus 100 mg given and lido drops restarted at 1 mg/min.  k+ 4.6, mg 2. 0145 run of vt, rate &gt; 200, aicd fired, shocked into sr, repeat lido bolus 100 mg and lido drops increased to 2 mg/min.  bp stable with arrythmia.  right groin c&amp;d, ecchymotic, no hematoma.  weak palp pulses.  left groin c&amp;d, ecchymotic.  palp pulses.\n\nresp:  on 4l nc, lungs clear.  oxygen saturation 96%. denies sob.\n\ngu;  voiding clear yellow urine in good amts.\n\ngi:  appetite good, + bowel sounds no bm overnight.\n\na:  aicd firing x2.  lido drops restarted. no further vt.\n\np:  monitor rythym, follow lytes, replete as needed. update patient. and family on plan of care per ccu team.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'Unknown', 'patient', 'patient'], 'event_detection_time': 20.96616177400574}</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>sleeping in long naps</t>
         </is>
       </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>['sleeping in long naps']</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'long naps'}}}]</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Family', 'Excretion', 'Eating']</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'long naps'}}}, {'Pain': {'Pain': {'severity': 'discomfort', 'location': 'left arm'}}}, {'Family': {'Family': {'interaction': 'update', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good amts.', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>['sleeping in long naps', 'c/o left arm discomfort at old iv site/', 'update patient. and family on plan of care per ccu team.', 'voiding clear yellow urine in good amts.', 'appetite good, + bowel sounds no bm overnight.']</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleeping in long naps', 'e2=Pain|1:c/o left arm discomfort at old iv site/', 'e3=Family|1:update patient. and family on plan of care per ccu team.', 'e4=Excretion|1:voiding clear yellow urine in good amts.', 'e5=Eating|1:appetite good, + bowel sounds no bm overnight.']</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -3409,56 +3749,66 @@
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
-        <v>1</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-07 18:34:00'), Timestamp('2179-07-07 18:44:00'))</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>{'text': "npn 7 am-- 7 pm\n\npatient is a 65 year old male, who works at [**name prefix (prefixes) **] [**last name (prefixes) **] pain as a food researcher, has a history of v -tach thought to be related to scar tissue, has known 2vd,\nand history of amiodarone induced thryrtoxicosis, history of ablation, and two recent admissions for icd firing, and two days ago had v tach storm with multiple icd firing and at that time was intubated and sedated\nre bolused with amio and lidocaine and maintained on those drips.\nper ep fellow we are to continue iv  amiodarone, lidocaine level was sent to outside lab and we are waiting for results. patient continues on lidocaine drip, amiodarone drip, esmolol drip, and we are to maintain them per ep fellow.\n\npatient had cardiac cath today to evaluate vessels, no change from previous cath, and surgery feels they can not help with bypass. therefore the new plan is for an endocardial mapping/ablation tomorrow in ep lab\nand possible surgery if ablation is not successful.\n\npatient went to cath this morning, approach was via right fem, area is eccymotic from last cath, but no bleeding or hematoma this time. pulses are weak palp on right (confirmed by doppler), and palp on left. cath showed a lvedp of 20 and patient was given lasix 20 mg at 1pm and responded well to that. patient was sleeping in am, awake most off afternoon and now sleepingagain this pm. patient required frequent suctioning today sputum spec sent that was thick tanish, otherwise secreations are loose thin white. cxr also showed mild chf, patient is edematous esp right arm and team has been updated on that dr [**first name (stitle) 10327**] and dr [**last name (stitle) **].\n\n[**name (ni) **] patient awake writing notes, appear oriented, moves all extremities.\n\ncv- remains in sr with 1 degress av block, bp controled with iv meds\nand has been stable. art line waveform was dampend but improved over morning and now slightly positional but good/fair waveform.  denies chest discomfort, no v tach today. we are checking lytes this pm and\nresults pending.\n\n[**name (ni) **] patient awake, sedation down but back up this afternoon to allow patient to rest. patient is not to wean today or tomorrow, keep him intubated for procedure tomorrow. abg at 1800--7.41 43 93\non 40 percent cmv,  5 peep. patient breathing over the vent at times.\n\n[**name (ni) 80**] patient distended, ngt to lis per fellow, colace x two days and\npatient has not had a bm and denies need to go.\n\ngu- foley draining lt yellow urine but now more concentrated and\npatient may require more lasix later.\n\na: patient with v tach storm, icd firing, now awaiting ep study and repeat ablation, intubated and lightly sedated. stable on drips x 48 hours.\n\np: patient npo, follow labs, lytes, continue drips, wife was here all day and spoke with md's. allow patient to rest, no weaning. [**name (ni) **] patient and family updated on poc as discussed in ccu rounds\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n", 'event': ['Sleep', 'Excretion', 'Pain', 'Family', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "age",\n      "attribute_value": "65"\n    },\n    {\n      "attribute_name": "occupation",\n      "attribute_value": "food researcher"\n    },\n    {\n      "attribute_name": "medical history",\n      "attribute_value": "v-tach, scar tissue, 2vd, amiodarone induced thyrotoxicosis, ablation, icd firing"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient was sleeping in am, awake most off afternoon and now sleeping again this pm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "am/pm",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "on and off"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "gu- foley draining lt yellow urine but now more concentrated",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "yellow, concentrated"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "denies chest discomfort",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "chest",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Family",\n      "text_quote": "wife was here all day and spoke with md\'s",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "wife"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Eating",\n      "text_quote": "patient npo",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "Unknown",\n          "amount": "Unknown",\n          "method": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'on and off'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'yellow, concentrated'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['patient was sleeping in am, awake most off afternoon and now sleeping again this pm', 'gu- foley draining lt yellow urine but now more concentrated', 'denies chest discomfort', "wife was here all day and spoke with md's", 'patient npo'], 'event_time': ['am/pm', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-07 18:34:00 and 2179-07-07 18:44:00):\n           npn 7 am-- 7 pm\n\npatient is a 65 year old male, who works at [**name prefix (prefixes) **] [**last name (prefixes) **] pain as a food researcher, has a history of v -tach thought to be related to scar tissue, has known 2vd,\nand history of amiodarone induced thryrtoxicosis, history of ablation, and two recent admissions for icd firing, and two days ago had v tach storm with multiple icd firing and at that time was intubated and sedated\nre bolused with amio and lidocaine and maintained on those drips.\nper ep fellow we are to continue iv  amiodarone, lidocaine level was sent to outside lab and we are waiting for results. patient continues on lidocaine drip, amiodarone drip, esmolol drip, and we are to maintain them per ep fellow.\n\npatient had cardiac cath today to evaluate vessels, no change from previous cath, and surgery feels they can not help with bypass. therefore the new plan is for an endocardial mapping/ablation tomorrow in ep lab\nand possible surgery if ablation is not successful.\n\npatient went to cath this morning, approach was via right fem, area is eccymotic from last cath, but no bleeding or hematoma this time. pulses are weak palp on right (confirmed by doppler), and palp on left. cath showed a lvedp of 20 and patient was given lasix 20 mg at 1pm and responded well to that. patient was sleeping in am, awake most off afternoon and now sleepingagain this pm. patient required frequent suctioning today sputum spec sent that was thick tanish, otherwise secreations are loose thin white. cxr also showed mild chf, patient is edematous esp right arm and team has been updated on that dr [**first name (stitle) 10327**] and dr [**last name (stitle) **].\n\n[**name (ni) **] patient awake writing notes, appear oriented, moves all extremities.\n\ncv- remains in sr with 1 degress av block, bp controled with iv meds\nand has been stable. art line waveform was dampend but improved over morning and now slightly positional but good/fair waveform.  denies chest discomfort, no v tach today. we are checking lytes this pm and\nresults pending.\n\n[**name (ni) **] patient awake, sedation down but back up this afternoon to allow patient to rest. patient is not to wean today or tomorrow, keep him intubated for procedure tomorrow. abg at 1800--7.41 43 93\non 40 percent cmv,  5 peep. patient breathing over the vent at times.\n\n[**name (ni) 80**] patient distended, ngt to lis per fellow, colace x two days and\npatient has not had a bm and denies need to go.\n\ngu- foley draining lt yellow urine but now more concentrated and\npatient may require more lasix later.\n\na: patient with v tach storm, icd firing, now awaiting ep study and repeat ablation, intubated and lightly sedated. stable on drips x 48 hours.\n\np: patient npo, follow labs, lytes, continue drips, wife was here all day and spoke with md\'s. allow patient to rest, no weaning. [**name (ni) **] patient and family updated on poc as discussed in ccu rounds\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '65'}, {'attribute_name': 'occupation', 'attribute_value': 'food researcher'}, {'attribute_name': 'medical history', 'attribute_value': 'v-tach, scar tissue, 2vd, amiodarone induced thyrotoxicosis, ablation, icd firing'}]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient'], 'event_detection_time': 22.329935840098187}</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>patient was sleeping in am, awake most off afternoon and now sleepingagain this pm</t>
         </is>
       </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>['patient was sleeping in am, awake most off afternoon and now sleeping again this pm']</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'on and off'}}}]</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Pain', 'Family', 'Eating']</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'on and off'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'yellow, concentrated'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>['patient was sleeping in am, awake most off afternoon and now sleeping again this pm', 'gu- foley draining lt yellow urine but now more concentrated', 'denies chest discomfort', "wife was here all day and spoke with md's", 'patient npo']</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>['e1=Sleep|0:patient was sleeping in am, awake most off afternoon and now sleeping again this pm', 'e2=Excretion|1:gu- foley draining lt yellow urine but now more concentrated', 'e3=Pain|1:denies chest discomfort', "e4=Family|1:wife was here all day and spoke with md's", 'e5=Eating|1:patient npo']</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3495,56 +3845,66 @@
       <c r="E36" t="n">
         <v>1</v>
       </c>
-      <c r="F36" t="n">
-        <v>1</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-11 05:02:00'), Timestamp('2179-07-11 05:15:00'))</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t>{'text': 'ccu npn 1900-0700\ns;"i\'m doing ok, i am just coughing a lot."\no: please see carevue for vs and objective data\nneuro: patient. a/a/0x3, pleasant and cooperative, appreciative of care. mae, assisting with turning as able. perl, 3mm, brisk. slept after 5mg by mouth ambien, bedrest maintained.\ncvs; hemodynamically stable with hr 60-80\'s nsr, 1st degree av block with pr interval 0.28. tolerated increased by mouth lopressor to 75mg tid. rare pvc, couplet, no vt on by mouth amiodarone and mexiletene. bp ranges 113-140\'s/50-60. iv heparin at 1250units/hour with ptt 80.7. bilateral groin sites d/i with ecchymosis. distal pulses palp.\nresp; sats 96-99% with fio2 weaned to 4l n/c. lungs coarse with diminished base, fine dependent rales in left base only. conts with cough, able to raise white, thick sputum with yankauer suction. hob&gt;30 degrees, mouth care given.\ngi:gu: taking meds crushed with ice cream, coughing with sips of water, despite hob&gt;45 degrees.abdomen soft/distended with hypoactive bowel sounds, 2 large soft/loose brown stool via bedpan, guaic neg. foley to drainage with clear, amber urine, u/o 25-40cc/hour, total i/o\nneg. 1228cc at mn.\nid: afebrile on iv cefazolin q 8 hours. rij tlc in place.\na: hemodynamically stable without further vt on by mouth regime, stable status post extubation.\np: cont to monitor hemodynamics, rhythm, resp. status. cont meds as ordered. follow up with am labs. cont iv heparin, follow serial ptts. cont to assess patient\'s tolerance to pills, liquids. comfort and emotional support tp patient. and family\n\n', 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept after 5mg by mouth ambien, bedrest maintained.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "coughing a lot.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "2 large soft/loose brown stool via bedpan, guaic neg.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "2x",\n          "quality": "soft/loose brown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "taking meds crushed with ice cream, coughing with sips of water",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "ice cream, water",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "comfort and emotional support tp patient. and family",\n      "actor": "others",\n      "object": "patient, family",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "emotional support",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "simultaneous",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "after",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': '2x', 'quality': 'soft/loose brown'}}}, {'Eating': {'Eating': {'food': 'ice cream, water', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'emotional support', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]], 'text_quotes': ['slept after 5mg by mouth ambien, bedrest maintained.', 'coughing a lot.', '2 large soft/loose brown stool via bedpan, guaic neg.', 'taking meds crushed with ice cream, coughing with sips of water', 'comfort and emotional support tp patient. and family'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-11 05:02:00 and 2179-07-11 05:15:00):\n           ccu npn 1900-0700\ns;"i\'m doing ok, i am just coughing a lot."\no: please see carevue for vs and objective data\nneuro: patient. a/a/0x3, pleasant and cooperative, appreciative of care. mae, assisting with turning as able. perl, 3mm, brisk. slept after 5mg by mouth ambien, bedrest maintained.\ncvs; hemodynamically stable with hr 60-80\'s nsr, 1st degree av block with pr interval 0.28. tolerated increased by mouth lopressor to 75mg tid. rare pvc, couplet, no vt on by mouth amiodarone and mexiletene. bp ranges 113-140\'s/50-60. iv heparin at 1250units/hour with ptt 80.7. bilateral groin sites d/i with ecchymosis. distal pulses palp.\nresp; sats 96-99% with fio2 weaned to 4l n/c. lungs coarse with diminished base, fine dependent rales in left base only. conts with cough, able to raise white, thick sputum with yankauer suction. hob&gt;30 degrees, mouth care given.\ngi:gu: taking meds crushed with ice cream, coughing with sips of water, despite hob&gt;45 degrees.abdomen soft/distended with hypoactive bowel sounds, 2 large soft/loose brown stool via bedpan, guaic neg. foley to drainage with clear, amber urine, u/o 25-40cc/hour, total i/o\nneg. 1228cc at mn.\nid: afebrile on iv cefazolin q 8 hours. rij tlc in place.\na: hemodynamically stable without further vt on by mouth regime, stable status post extubation.\np: cont to monitor hemodynamics, rhythm, resp. status. cont meds as ordered. follow up with am labs. cont iv heparin, follow serial ptts. cont to assess patient\'s tolerance to pills, liquids. comfort and emotional support tp patient. and family\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'others'], 'event_detection_time': 21.830361489905044}</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>slept after 5mg</t>
         </is>
       </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>['slept after 5mg by mouth ambien, bedrest maintained.']</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="N36" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': '2x', 'quality': 'soft/loose brown'}}}, {'Eating': {'Eating': {'food': 'ice cream, water', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'emotional support', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>['slept after 5mg by mouth ambien, bedrest maintained.', 'coughing a lot.', '2 large soft/loose brown stool via bedpan, guaic neg.', 'taking meds crushed with ice cream, coughing with sips of water', 'comfort and emotional support tp patient. and family']</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept after 5mg by mouth ambien, bedrest maintained.', 'e2=Pain|1:coughing a lot.', 'e3=Excretion|1:2 large soft/loose brown stool via bedpan, guaic neg.', 'e4=Eating|1:taking meds crushed with ice cream, coughing with sips of water', 'e5=Family|1:comfort and emotional support tp patient. and family']</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -3581,56 +3941,66 @@
       <c r="E37" t="n">
         <v>1</v>
       </c>
-      <c r="F37" t="n">
-        <v>1</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>(Timestamp('2179-07-12 03:56:00'), Timestamp('2179-07-12 04:20:00'))</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>{'text': 'ccu npn 1900-0700\ns:"i had a better day."\no: please see carevue for vs and objective data\nneuro: patient. a/a/ox3, pleasant and cooperative, appreciative of care. mae, assisting with care/turning as able. perl. slept at intervals after 5mg by mouth ambien.\ncvs: hemodynamically stable with hr 59-60\'s nsr, 1st degree av block with pr interval 0.24. occ. pvc, rare couplet.  k+ repletion x2 as per flow. remains on by mouth amiodarone, mexiletine, lopressor as ordered. bp ranges 104-140/40-60. iv heparin at 1250units/hr with serial ptts 68.7 -73.4. bilateral groins d/i with ecchymosis. distal pulses palp.\nresp; sats 95-98% on 3l n/c. lungs clear with diminished bases. expectorating thick, yellow secreations on his own. +mssa in sputum. given 40mg iv lasix at 2145 for goal i/o neg. 1l, good response with goal met.\ngi:gu: taking by mouth\'s, meds crushed with ice cream. patient. states swallowing is better but still not baseline. abdomen soft/distended with active bowel sounds, one episode of liquid brown stool, guaic neg. sample sent previous shift. voiding qs via condom cath, placed with diuresis.\ntotal i/o neg. 915cc at mn.\nid: afebrile on iv cefazolin wbc 8.3\na: hemodynamically stable without further episodes of vt, stable status post extubation [**7-10**].\np: cont to monitor hemodynamics, rhythm on by mouth regime. monitor resp. status. follow up with am labs and cultures/stool samples pnd. swallow study, patient needed. cont to increase activity. comfort and emotional support to patient. and family\n\n', 'event': ['Sleep', 'Excretion', 'Eating', 'Pain', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "slept at intervals after 5mg by mouth ambien.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "at intervals",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Excretion",\n      "text_quote": "one episode of liquid brown stool, guaic neg.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "stool",\n          "frequency": "one episode",\n          "quality": "liquid brown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "taking by mouth\'s, meds crushed with ice cream.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "ice cream",\n          "amount": "Unknown",\n          "method": "by mouth"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Pain",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "comfort and emotional support to patient. and family",\n      "actor": "others",\n      "object": "patient and family",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "comfort and emotional support",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "unknown",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'at intervals', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'one episode', 'quality': 'liquid brown'}}}, {'Eating': {'Eating': {'food': 'ice cream', 'amount': 'Unknown', 'method': 'by mouth'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'comfort and emotional support', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['slept at intervals after 5mg by mouth ambien.', 'one episode of liquid brown stool, guaic neg.', "taking by mouth's, meds crushed with ice cream.", 'None', 'comfort and emotional support to patient. and family'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2179-07-12 03:56:00 and 2179-07-12 04:20:00):\n           ccu npn 1900-0700\ns:"i had a better day."\no: please see carevue for vs and objective data\nneuro: patient. a/a/ox3, pleasant and cooperative, appreciative of care. mae, assisting with care/turning as able. perl. slept at intervals after 5mg by mouth ambien.\ncvs: hemodynamically stable with hr 59-60\'s nsr, 1st degree av block with pr interval 0.24. occ. pvc, rare couplet.  k+ repletion x2 as per flow. remains on by mouth amiodarone, mexiletine, lopressor as ordered. bp ranges 104-140/40-60. iv heparin at 1250units/hr with serial ptts 68.7 -73.4. bilateral groins d/i with ecchymosis. distal pulses palp.\nresp; sats 95-98% on 3l n/c. lungs clear with diminished bases. expectorating thick, yellow secreations on his own. +mssa in sputum. given 40mg iv lasix at 2145 for goal i/o neg. 1l, good response with goal met.\ngi:gu: taking by mouth\'s, meds crushed with ice cream. patient. states swallowing is better but still not baseline. abdomen soft/distended with active bowel sounds, one episode of liquid brown stool, guaic neg. sample sent previous shift. voiding qs via condom cath, placed with diuresis.\ntotal i/o neg. 915cc at mn.\nid: afebrile on iv cefazolin wbc 8.3\na: hemodynamically stable without further episodes of vt, stable status post extubation [**7-10**].\np: cont to monitor hemodynamics, rhythm on by mouth regime. monitor resp. status. follow up with am labs and cultures/stool samples pnd. swallow study, patient needed. cont to increase activity. comfort and emotional support to patient. and family\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'others'], 'event_detection_time': 21.42028554296121}</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>slept at intervals</t>
         </is>
       </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>['slept at intervals after 5mg by mouth ambien.']</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'at intervals', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Eating', 'Pain', 'Family']</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'at intervals', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'one episode', 'quality': 'liquid brown'}}}, {'Eating': {'Eating': {'food': 'ice cream', 'amount': 'Unknown', 'method': 'by mouth'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'comfort and emotional support', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>['slept at intervals after 5mg by mouth ambien.', 'one episode of liquid brown stool, guaic neg.', "taking by mouth's, meds crushed with ice cream.", 'None', 'comfort and emotional support to patient. and family']</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept at intervals after 5mg by mouth ambien.', 'e2=Excretion|1:one episode of liquid brown stool, guaic neg.', "e3=Eating|1:taking by mouth's, meds crushed with ice cream.", 'e4=Pain|0:None', 'e5=Family|1:comfort and emotional support to patient. and family']</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -3672,56 +4042,66 @@
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="n">
-        <v>1</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-02-28 05:01:00'), Timestamp('2186-02-28 05:15:00'))</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
+          <t>{'text': "ccu npn 1900-0700\no:  62yo male with previous history cabg in '[**71**], now admitted with 5days of worsening cp.  cath showing native disease in addition to restenosed lad and om.  iabp placed in cath and tx to ccu for overnight managment.  plan to or first case.\n\nneuro:  a/ox3.  pleasant. mae. wife and daughter in room.  easy going/good spirits.\ncv:  hr 65sr.  given 25mg lopressorpo x1. hr dropping to 51sb. rare pvc.  k+ 3.3- given total 60meq by mouth.  am lytes pnd at 0500.\niabp 1:1.  map initially 130- coming down to 81 with increase in tng drops and with patient. more calm after family leaving.  tng currently at .64mcq/k/min.  heparin drops 1000u/hr.  ptt 59.\nchest pain free.\npulses [**12-20**]+.  right fem. site d/i.\n#2ck pnd.  (#1 200).\n\nhct 41.\nresp:  ls clear.  ra sat 94-96%.  96-97% on 2lnc.  patient. states that he has sleep apnea but is unable to wear cpap mask at home d/t uncomfortable.  no apea noted overnight.  denies sob.\n\ngu:  voiding via condom cath total 800cc x12hr.  sent for u/a; c/s.  bicarb drops x6hr post cath.  also .45ns at 50cc/hr x500cc.\ngi:  no c/o.  abd obese. (+) bs.  npo after mn.\n\nendo:  on oral hypogylcemics at home.  fs 180 in eve:  2ureg. insulin\ncomfort:  c/o back pain relieved with 2 percocets x1 .  slept well.\nid:  afeb.  vanco 1gm x1 on call to or.\n\na/p:  stable night status post iabp for cabg today.  contin tng/hep pre-op per orders.  am labs pnd.  family plans to see patient. before going to or.\n\n", 'event': ['Pain', 'Sleep', 'Excretion', 'Family', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "previous history",\n            "attribute_value": "cabg in \'[**71**]"\n        },\n        {\n            "attribute_name": "admission reason",\n            "attribute_value": "5days of worsening cp"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o back pain relieved with 2 percocets x1",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "slept well",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "voiding via condom cath total 800cc x12hr",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "12hr",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "wife and daughter in room.  family plans to see patient before going to or.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "wife and daughter"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "npo after mn",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '12hr', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife and daughter'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['c/o back pain relieved with 2 percocets x1', 'slept well', 'voiding via condom cath total 800cc x12hr', 'wife and daughter in room.  family plans to see patient before going to or.', 'npo after mn'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-02-28 05:01:00 and 2186-02-28 05:15:00):\n           ccu npn 1900-0700\no:  62yo male with previous history cabg in \'[**71**], now admitted with 5days of worsening cp.  cath showing native disease in addition to restenosed lad and om.  iabp placed in cath and tx to ccu for overnight managment.  plan to or first case.\n\nneuro:  a/ox3.  pleasant. mae. wife and daughter in room.  easy going/good spirits.\ncv:  hr 65sr.  given 25mg lopressorpo x1. hr dropping to 51sb. rare pvc.  k+ 3.3- given total 60meq by mouth.  am lytes pnd at 0500.\niabp 1:1.  map initially 130- coming down to 81 with increase in tng drops and with patient. more calm after family leaving.  tng currently at .64mcq/k/min.  heparin drops 1000u/hr.  ptt 59.\nchest pain free.\npulses [**12-20**]+.  right fem. site d/i.\n#2ck pnd.  (#1 200).\n\nhct 41.\nresp:  ls clear.  ra sat 94-96%.  96-97% on 2lnc.  patient. states that he has sleep apnea but is unable to wear cpap mask at home d/t uncomfortable.  no apea noted overnight.  denies sob.\n\ngu:  voiding via condom cath total 800cc x12hr.  sent for u/a; c/s.  bicarb drops x6hr post cath.  also .45ns at 50cc/hr x500cc.\ngi:  no c/o.  abd obese. (+) bs.  npo after mn.\n\nendo:  on oral hypogylcemics at home.  fs 180 in eve:  2ureg. insulin\ncomfort:  c/o back pain relieved with 2 percocets x1 .  slept well.\nid:  afeb.  vanco 1gm x1 on call to or.\n\na/p:  stable night status post iabp for cabg today.  contin tng/hep pre-op per orders.  am labs pnd.  family plans to see patient. before going to or.\n\n\n        ', 'case_attributes': [[{'attribute_name': 'previous history', 'attribute_value': "cabg in '[**71**]"}, {'attribute_name': 'admission reason', 'attribute_value': '5days of worsening cp'}]], 'actor': ['patient', 'patient', 'patient', 'family member', 'patient'], 'event_detection_time': 21.218057706952095}</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>slept well</t>
         </is>
       </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>['slept well']</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Family', 'Eating']</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '12hr', 'quality': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife and daughter'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>['c/o back pain relieved with 2 percocets x1', 'slept well', 'voiding via condom cath total 800cc x12hr', 'wife and daughter in room.  family plans to see patient before going to or.', 'npo after mn']</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o back pain relieved with 2 percocets x1', 'e2=Sleep|1:slept well', 'e3=Excretion|1:voiding via condom cath total 800cc x12hr', 'e4=Family|0:wife and daughter in room.  family plans to see patient before going to or.', 'e5=Eating|1:npo after mn']</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3757,56 +4137,66 @@
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="n">
-        <v>1</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-03 04:11:00'), Timestamp('2186-03-03 04:23:00'))</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
+          <t>{'text': "patient update\n  patient is status post cabg x2 on [**2-28**].\n\n  neuro: patient on 10mcg propofol; but was alert and seems to be completely oriented at change of shift. following all commands and mae. sleeping much of night thus far after receiving pain med at change of shift.\n\n  resp: bs coarse, diminished in bases. sx for less sputum than on eves; but thick tan. fio2 down to 50% at 2400 with po2 up to 122 from 75. (peep up to 14). repeat abg with po2 139 on 50%. patient remains on cpap and looks comf.\n\n  cv: hr sr. ci down 2200; but back up at 24oo and has remained &gt; 2.00. no change in vasopressin or ntg dose during night. bp stable. svo2 60's.\n\n   gu: will weigh patient this am. yest weight still up 7.5kg. patient remains on lasix 20mg tid with good diuresis.\n\n   gi: ogt-lcws.\n\n   other: min ct drg.\n\n   lab: k and ion ca repleted. patient remains on insulin drops with fairly good control. hct this am 27.3-down from 28.7 yest afternoon (after receiving 1 pc.\n\n\n   a/p: stable, uneventful night with improved oxygenation. patient slept well. ?wean peep back down as [**month/year (2) **] today. ?see if patient will [**name (ni) **] vasopressin off today. check with team re: ct's/hemovac out today; further transfusion.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "status post cabg x2",\n      "attribute_value": "on [**2-28**]"\n    },\n    {\n      "attribute_name": "weight",\n      "attribute_value": "up 7.5kg"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "sleeping much of night thus far after receiving pain med at change of shift.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "pain med",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "following all commands and mae. sleeping much of night thus far after receiving pain med at change of shift.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "change of shift",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "sx for less sputum than on eves; but thick tan.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "sputum",\n          "frequency": "less than on eves"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "None",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Unknown",\n      "text_quote": "patient is status post cabg x2 on [**2-28**].",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {}\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "unknown",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good'}}}, {'Pain': {'Pain': {'severity': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'less than on eves'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['sleeping much of night thus far after receiving pain med at change of shift.', 'following all commands and mae. sleeping much of night thus far after receiving pain med at change of shift.', 'sx for less sputum than on eves; but thick tan.', 'None', 'None', 'patient is status post cabg x2 on [**2-28**].'], 'event_time': ['night', 'change of shift', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True, False], 'caused_by': ['pain med', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-03 04:11:00 and 2186-03-03 04:23:00):\n           patient update\n  patient is status post cabg x2 on [**2-28**].\n\n  neuro: patient on 10mcg propofol; but was alert and seems to be completely oriented at change of shift. following all commands and mae. sleeping much of night thus far after receiving pain med at change of shift.\n\n  resp: bs coarse, diminished in bases. sx for less sputum than on eves; but thick tan. fio2 down to 50% at 2400 with po2 up to 122 from 75. (peep up to 14). repeat abg with po2 139 on 50%. patient remains on cpap and looks comf.\n\n  cv: hr sr. ci down 2200; but back up at 24oo and has remained &gt; 2.00. no change in vasopressin or ntg dose during night. bp stable. svo2 60\'s.\n\n   gu: will weigh patient this am. yest weight still up 7.5kg. patient remains on lasix 20mg tid with good diuresis.\n\n   gi: ogt-lcws.\n\n   other: min ct drg.\n\n   lab: k and ion ca repleted. patient remains on insulin drops with fairly good control. hct this am 27.3-down from 28.7 yest afternoon (after receiving 1 pc.\n\n\n   a/p: stable, uneventful night with improved oxygenation. patient slept well. ?wean peep back down as [**month/year (2) **] today. ?see if patient will [**name (ni) **] vasopressin off today. check with team re: ct\'s/hemovac out today; further transfusion.\n\n        ', 'case_attributes': [[{'attribute_name': 'status post cabg x2', 'attribute_value': 'on [**2-28**]'}, {'attribute_name': 'weight', 'attribute_value': 'up 7.5kg'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.838603290030733}</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>sleeping much of night</t>
         </is>
       </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>['sleeping much of night thus far after receiving pain med at change of shift.']</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good'}}}]</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good'}}}, {'Pain': {'Pain': {'severity': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'sputum', 'frequency': 'less than on eves'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>['sleeping much of night thus far after receiving pain med at change of shift.', 'following all commands and mae. sleeping much of night thus far after receiving pain med at change of shift.', 'sx for less sputum than on eves; but thick tan.', 'None', 'None', 'patient is status post cabg x2 on [**2-28**].']</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleeping much of night thus far after receiving pain med at change of shift.', 'e2=Pain|1:following all commands and mae. sleeping much of night thus far after receiving pain med at change of shift.', 'e3=Excretion|1:sx for less sputum than on eves; but thick tan.', 'e4=Eating|0:None', 'e5=Family|0:None', 'e6=Unknown|1:patient is status post cabg x2 on [**2-28**].']</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3841,56 +4231,66 @@
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="n">
-        <v>1</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>(Timestamp('2186-03-05 16:26:00'), Timestamp('2186-03-05 16:47:00'))</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
+          <t>{'text': "update\ncv: started on [**hospital1 **] lopressor by mouth; hr (nsr) went from 100-&gt;80's. weaning down iv ntg; diastolic blood pressure 110-130's, up to 140's with stimulation. remaining ct's d/c'd this a.m. a&amp;v epicardial wires checked and working but not used.\n\nneuro/activity: pleasant, talkative. c/o minimal incisional pain-tylenol given with improvement. oob x 2, transferring well with [**11-20**]; ambulated length of [**doctor last name 144**] and back using w/c for support with min assist. now asleep in bed.\n\nresp: this a.m. patient requiring med conc fm @ 8l to keep spo2 above 93% &amp; able to get i.s. vt only up to 750ml. once ct's d/[**name (ni) **], patient felt much better and able to take deeper breaths, getting i.s. vt up to 1200ml. now requiring only 6l nc to keep spo2 95-97%. has sl crackles l base, otherwise clear. c&amp;r sm amts thick, yellow sputum.\n\ng.i./endo: starting to eat sm amts of solid meals. by mouth actos started but will not have effect for a few days. covering with ss humalog sc. had sm, loose brown stool in afternoon.\n\ng.u.: foley d.c'd @ 1200. has voided 125ml since. cont on tid lasix.\n\nskin: intact. drsgs c&amp;d.\n\nsocial: wife here visiting much of afternoon.\n\na/p: tolerating lopressor. cont to wean ntg to off. cont to enc pulm toilet &amp; wean o2 as [**name (ni) **]. amb in [**doctor last name 144**] tomorrow @ least [**hospital1 **]. monitor glucose closely. start nph insulin tonight([**hospital1 **]) [**first name8 (namepattern2) **] [**last name (un) **]  suggestion. ?transfer out tomorrow.\n\n\n", 'event': ['Pain', 'Sleep', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o minimal incisional pain-tylenol given with improvement.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "minimal",\n                    "location": "incisional",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "now asleep in bed.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "had sm, loose brown stool in afternoon.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "Unknown",\n                    "quality": "loose, brown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "starting to eat sm amts of solid meals.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "solid meals",\n                    "amount": "small amounts",\n                    "method": "by mouth"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "wife here visiting much of afternoon.",\n            "actor": "wife",\n            "object": "patient",\n            "negation": false,\n            "time": "afternoon",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "wife"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "after",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'minimal', 'location': 'incisional', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'loose, brown'}}}, {'Eating': {'Eating': {'food': 'solid meals', 'amount': 'small amounts', 'method': 'by mouth'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['c/o minimal incisional pain-tylenol given with improvement.', 'now asleep in bed.', 'had sm, loose brown stool in afternoon.', 'starting to eat sm amts of solid meals.', 'wife here visiting much of afternoon.'], 'event_time': ['Unknown', 'Unknown', 'afternoon', 'Unknown', 'afternoon'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2186-03-05 16:26:00 and 2186-03-05 16:47:00):\n           update\ncv: started on [**hospital1 **] lopressor by mouth; hr (nsr) went from 100-&gt;80\'s. weaning down iv ntg; diastolic blood pressure 110-130\'s, up to 140\'s with stimulation. remaining ct\'s d/c\'d this a.m. a&amp;v epicardial wires checked and working but not used.\n\nneuro/activity: pleasant, talkative. c/o minimal incisional pain-tylenol given with improvement. oob x 2, transferring well with [**11-20**]; ambulated length of [**doctor last name 144**] and back using w/c for support with min assist. now asleep in bed.\n\nresp: this a.m. patient requiring med conc fm @ 8l to keep spo2 above 93% &amp; able to get i.s. vt only up to 750ml. once ct\'s d/[**name (ni) **], patient felt much better and able to take deeper breaths, getting i.s. vt up to 1200ml. now requiring only 6l nc to keep spo2 95-97%. has sl crackles l base, otherwise clear. c&amp;r sm amts thick, yellow sputum.\n\ng.i./endo: starting to eat sm amts of solid meals. by mouth actos started but will not have effect for a few days. covering with ss humalog sc. had sm, loose brown stool in afternoon.\n\ng.u.: foley d.c\'d @ 1200. has voided 125ml since. cont on tid lasix.\n\nskin: intact. drsgs c&amp;d.\n\nsocial: wife here visiting much of afternoon.\n\na/p: tolerating lopressor. cont to wean ntg to off. cont to enc pulm toilet &amp; wean o2 as [**name (ni) **]. amb in [**doctor last name 144**] tomorrow @ least [**hospital1 **]. monitor glucose closely. start nph insulin tonight([**hospital1 **]) [**first name8 (namepattern2) **] [**last name (un) **]  suggestion. ?transfer out tomorrow.\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'wife'], 'event_detection_time': 19.3167218149174}</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>asleep in bed|</t>
         </is>
       </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>['now asleep in bed.']</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'minimal', 'location': 'incisional', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'loose, brown'}}}, {'Eating': {'Eating': {'food': 'solid meals', 'amount': 'small amounts', 'method': 'by mouth'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'wife'}}}]</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>['c/o minimal incisional pain-tylenol given with improvement.', 'now asleep in bed.', 'had sm, loose brown stool in afternoon.', 'starting to eat sm amts of solid meals.', 'wife here visiting much of afternoon.']</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o minimal incisional pain-tylenol given with improvement.', 'e2=Sleep|1:now asleep in bed.', 'e3=Excretion|1:had sm, loose brown stool in afternoon.', 'e4=Eating|1:starting to eat sm amts of solid meals.', 'e5=Family|1:wife here visiting much of afternoon.']</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -3929,56 +4329,66 @@
       <c r="E41" t="n">
         <v>1</v>
       </c>
-      <c r="F41" t="n">
-        <v>1</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-15 05:11:00'), Timestamp('2167-05-15 05:58:00'))</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>{'text': "ccu nursing progress note 7p-7a:\n\nneuro: alert and oriented x 3.  patient able to move all extremities spontaneously.  patient c/o insomnia therefore rec'd serax 10mg by mouth without effect.  c/o mild shoulder pain, rec'd percocet with effect.  patient awake most of night, becoming anxious regarding lack of sleep.  denies ha.\n\ncv: hr 94-[**street address(2) 1967**] with rare pvc's/pac's  bp 104-123/74-81. denies any cardiac symptoms.  dopperable pulses. groin sites are c/d/i. dobutamine conts at 2mcg/kg/min and hep drops 600u/hr with therapeutic ptt per hep ss.  per team no changes to be made regarding the dobutamine drops overnight. iabp 1:1 c.o./c.i./svr 8pm 5.0/2.50/1136.  12am 5.5/2.75/1149/ 5 am 1:2 4.2/2.10/1560.  iabp with good wave form, good systolic unloading [**7-8**]. pad's 28-32. cvp 14-17. temp pacing wire in place rate set at 70 ma 4. 1 unit of prbc's for hct 28 infusded repeat hct 32.1.  no signs of bleeding.  patient rec'd lasix 20mg at 9pm and 40mg at 3:00am.  await diuresis.  ck peak 3627/350 trending down 2605/107.  k+3.8 repleted with 20meq kcl iv at 3am, am labs do not reflect repletion. mg 2.2. post cath ivf infusing at 75cc/hr for 1500cc.\n\npulm: ls diminshed bibasilary. sats 98% on 2lnc .  rr 22-30.  patient using abdominal muscles to aid in breathing.  denies sob.\n\ngi: abd softly distened with hypoactive bs.  patient taking sips of clear liquids refused dinner.  patient c/o flatus and bloating patient rec'd simethicone and tums with relief.  patient denies n/v.\n\ngu: foley cath patent draining cyu to amber urine.  u/o 45cc/hr.  patient rec'd lasix 20mg/40mg overnight.  bun 20 cr 1.2.  rec'd mucomyst a/o post cath.\n\nid: t max 99.3 by mouth.  no abx.  patient treated with cool cloths and tylenol by mouth x 1.\n\nskin: intact.\n\nlines: r iabp and pacer introducer, l pa line and a-line. 2 piv's.\n\nsocial: [**name (ni) 29**] niece visited last evening from [**hospital1 1968**] ri.  patient's two sisters are flying in this am and will be staying close by.\n\ndispo: full code.\n\na: patient asymptomatic on iabp 1:2 trial for 30min. hemodynamically stable overnight.  fever resolved. therapeutic ptt per hep ss.\n\np: follow hemodynamics. cont ivf until 1500cc completed.  ? trial wean of iabp.  follow swan numbers.  follow diuresis with lasix dose.   provide support.\n", 'event': ['Pain', 'Sleep', 'Eating', 'Excretion', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o mild shoulder pain, rec\'d percocet with effect.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "shoulder",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "patient c/o insomnia therefore rec\'d serax 10mg by mouth without effect.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "most of night"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "patient taking sips of clear liquids refused dinner.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "clear liquids",\n                    "amount": "sips",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "foley cath patent draining cyu to amber urine.  u/o 45cc/hr.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "45cc/hr",\n                    "quality": "cyu to amber"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "[**name (ni) 29**] niece visited last evening from [**hospital1 1968**] ri.",\n            "actor": "niece",\n            "object": "patient",\n            "negation": false,\n            "time": "evening",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "niece"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "after",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'mild', 'location': 'shoulder', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'most of night'}}}, {'Eating': {'Eating': {'food': 'clear liquids', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '45cc/hr', 'quality': 'cyu to amber'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'niece'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]], 'text_quotes': ["c/o mild shoulder pain, rec'd percocet with effect.", "patient c/o insomnia therefore rec'd serax 10mg by mouth without effect.", 'patient taking sips of clear liquids refused dinner.', 'foley cath patent draining cyu to amber urine.  u/o 45cc/hr.', '[**name (ni) 29**] niece visited last evening from [**hospital1 1968**] ri.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'evening'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-15 05:11:00 and 2167-05-15 05:58:00):\n           ccu nursing progress note 7p-7a:\n\nneuro: alert and oriented x 3.  patient able to move all extremities spontaneously.  patient c/o insomnia therefore rec\'d serax 10mg by mouth without effect.  c/o mild shoulder pain, rec\'d percocet with effect.  patient awake most of night, becoming anxious regarding lack of sleep.  denies ha.\n\ncv: hr 94-[**street address(2) 1967**] with rare pvc\'s/pac\'s  bp 104-123/74-81. denies any cardiac symptoms.  dopperable pulses. groin sites are c/d/i. dobutamine conts at 2mcg/kg/min and hep drops 600u/hr with therapeutic ptt per hep ss.  per team no changes to be made regarding the dobutamine drops overnight. iabp 1:1 c.o./c.i./svr 8pm 5.0/2.50/1136.  12am 5.5/2.75/1149/ 5 am 1:2 4.2/2.10/1560.  iabp with good wave form, good systolic unloading [**7-8**]. pad\'s 28-32. cvp 14-17. temp pacing wire in place rate set at 70 ma 4. 1 unit of prbc\'s for hct 28 infusded repeat hct 32.1.  no signs of bleeding.  patient rec\'d lasix 20mg at 9pm and 40mg at 3:00am.  await diuresis.  ck peak 3627/350 trending down 2605/107.  k+3.8 repleted with 20meq kcl iv at 3am, am labs do not reflect repletion. mg 2.2. post cath ivf infusing at 75cc/hr for 1500cc.\n\npulm: ls diminshed bibasilary. sats 98% on 2lnc .  rr 22-30.  patient using abdominal muscles to aid in breathing.  denies sob.\n\ngi: abd softly distened with hypoactive bs.  patient taking sips of clear liquids refused dinner.  patient c/o flatus and bloating patient rec\'d simethicone and tums with relief.  patient denies n/v.\n\ngu: foley cath patent draining cyu to amber urine.  u/o 45cc/hr.  patient rec\'d lasix 20mg/40mg overnight.  bun 20 cr 1.2.  rec\'d mucomyst a/o post cath.\n\nid: t max 99.3 by mouth.  no abx.  patient treated with cool cloths and tylenol by mouth x 1.\n\nskin: intact.\n\nlines: r iabp and pacer introducer, l pa line and a-line. 2 piv\'s.\n\nsocial: [**name (ni) 29**] niece visited last evening from [**hospital1 1968**] ri.  patient\'s two sisters are flying in this am and will be staying close by.\n\ndispo: full code.\n\na: patient asymptomatic on iabp 1:2 trial for 30min. hemodynamically stable overnight.  fever resolved. therapeutic ptt per hep ss.\n\np: follow hemodynamics. cont ivf until 1500cc completed.  ? trial wean of iabp.  follow swan numbers.  follow diuresis with lasix dose.   provide support.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'niece'], 'event_detection_time': 23.03955958597362}</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>patient awake most of night</t>
         </is>
       </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>["patient c/o insomnia therefore rec'd serax 10mg by mouth without effect."]</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'most of night'}}}]</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Eating', 'Excretion', 'Family']</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'mild', 'location': 'shoulder', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'most of night'}}}, {'Eating': {'Eating': {'food': 'clear liquids', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '45cc/hr', 'quality': 'cyu to amber'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'niece'}}}]</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>["c/o mild shoulder pain, rec'd percocet with effect.", "patient c/o insomnia therefore rec'd serax 10mg by mouth without effect.", 'patient taking sips of clear liquids refused dinner.', 'foley cath patent draining cyu to amber urine.  u/o 45cc/hr.', '[**name (ni) 29**] niece visited last evening from [**hospital1 1968**] ri.']</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>["e1=Pain|1:c/o mild shoulder pain, rec'd percocet with effect.", "e2=Sleep|1:patient c/o insomnia therefore rec'd serax 10mg by mouth without effect.", 'e3=Eating|1:patient taking sips of clear liquids refused dinner.', 'e4=Excretion|1:foley cath patent draining cyu to amber urine.  u/o 45cc/hr.', 'e5=Family|1:[**name (ni) 29**] niece visited last evening from [**hospital1 1968**] ri.']</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'after', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -4013,56 +4423,66 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="n">
-        <v>1</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-16 17:00:00'), Timestamp('2167-05-16 17:20:00'))</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>{'text': "ccu npn 7a-7p\ncv: patient without cp, hr 105-122 st, bp 110-135/66-80. iv ntg added for afterload reduction,on .36ug/kg/min, iv dobut weaned off. given laix 80mg x2 today, responds well, neg 2600cc for the day. cont to have crackles [**1-22**] way up, despite aggressive diuresis. resumed captopril at 1400 after extubation and able to swallow pills. hep drops increased to 800u from 600u for ptt of 37.5, repeat ptt due at [**2164**]. k+ down to 3.2, given 40meq iv and 40 meq by mouth. check k+ this eve with ptt. grion sites without bleeding or hematoma, pulses dopplerable.\n\nresp: placed on ps 5/0peep this am, rr up to 33, hr 120st, bp 130's/80, maintained sats and had good abg, however appeared dyspneic, and stated was difficult to breath. increased back to 10 ps/5peep, increased sedation to 50ug fent/midaz 1mg and given 80mg iv lasix at 1100 and again gave weaning trial at 1300, extubated and has done well. rr 24-28, still looks labored but denies difficulty breathing. again gave 80mg iv lasix at 1600 to which he cont to diurese well. sats 97-100% on 50% face tent. post extubation abg good. coughing occationally, swallowing secetions.\n\nid: low grade t, 100-100.4po. cultures sent last eve. no ab at this time, wbc 8. sputum thick yellow prior to extubation.\n\nneuro: a&amp;o x3, calm, cooperative. sleeping most of day.\n\ngi: passed mod brown liq stool, ob(-).\n\nheme: hct 31.6\n\nsoc: brother and 2 sisters in to visit for short periods at a time.\n\na/p: extubated, cont to exhibit signs of chf, diuresing well to lasix. cont to follow closely. recheck ptt/k+ @ 8pm.\n\n\n", 'event': ['Excretion', 'Sleep', 'Family', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "passed mod brown liq stool, ob(-)",\n            "actor": "patient",\n            "object": "stool",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "Unknown",\n                    "quality": "mod brown liq"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "sleeping most of day",\n            "actor": "patient",\n            "object": "None",\n            "negation": false,\n            "time": "day",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "most of day"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "brother and 2 sisters in to visit for short periods at a time",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "brother and sisters"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "None",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "None",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "after",\n            "event_id_2": "e1"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'mod brown liq'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of day'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'brother and sisters'}}}, {'Eating': {'Eating': {}}}, {'Pain': {'Pain': {}}}], 'orders': [[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e1'}]], 'text_quotes': ['passed mod brown liq stool, ob(-)', 'sleeping most of day', 'brother and 2 sisters in to visit for short periods at a time', 'None', 'None'], 'event_time': ['Unknown', 'day', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-16 17:00:00 and 2167-05-16 17:20:00):\n           ccu npn 7a-7p\ncv: patient without cp, hr 105-122 st, bp 110-135/66-80. iv ntg added for afterload reduction,on .36ug/kg/min, iv dobut weaned off. given laix 80mg x2 today, responds well, neg 2600cc for the day. cont to have crackles [**1-22**] way up, despite aggressive diuresis. resumed captopril at 1400 after extubation and able to swallow pills. hep drops increased to 800u from 600u for ptt of 37.5, repeat ptt due at [**2164**]. k+ down to 3.2, given 40meq iv and 40 meq by mouth. check k+ this eve with ptt. grion sites without bleeding or hematoma, pulses dopplerable.\n\nresp: placed on ps 5/0peep this am, rr up to 33, hr 120st, bp 130\'s/80, maintained sats and had good abg, however appeared dyspneic, and stated was difficult to breath. increased back to 10 ps/5peep, increased sedation to 50ug fent/midaz 1mg and given 80mg iv lasix at 1100 and again gave weaning trial at 1300, extubated and has done well. rr 24-28, still looks labored but denies difficulty breathing. again gave 80mg iv lasix at 1600 to which he cont to diurese well. sats 97-100% on 50% face tent. post extubation abg good. coughing occationally, swallowing secetions.\n\nid: low grade t, 100-100.4po. cultures sent last eve. no ab at this time, wbc 8. sputum thick yellow prior to extubation.\n\nneuro: a&amp;o x3, calm, cooperative. sleeping most of day.\n\ngi: passed mod brown liq stool, ob(-).\n\nheme: hct 31.6\n\nsoc: brother and 2 sisters in to visit for short periods at a time.\n\na/p: extubated, cont to exhibit signs of chf, diuresing well to lasix. cont to follow closely. recheck ptt/k+ @ 8pm.\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'family member', 'patient', 'patient'], 'event_detection_time': 17.788749187020585}</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>sleeping most of day</t>
         </is>
       </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>['sleeping most of day']</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of day'}}}]</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>['Excretion', 'Sleep', 'Family', 'Eating', 'Pain']</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'mod brown liq'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of day'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'brother and sisters'}}}, {'Eating': {'Eating': {}}}, {'Pain': {'Pain': {}}}]</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>['passed mod brown liq stool, ob(-)', 'sleeping most of day', 'brother and 2 sisters in to visit for short periods at a time', 'None', 'None']</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:passed mod brown liq stool, ob(-)', 'e2=Sleep|1:sleeping most of day', 'e3=Family|1:brother and 2 sisters in to visit for short periods at a time', 'e4=Eating|0:None', 'e5=Pain|0:None']</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'after', 'event_id_2': 'e1'}]]</t>
         </is>
@@ -4096,56 +4516,66 @@
       <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="n">
-        <v>1</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-17 06:36:00'), Timestamp('2167-05-17 06:42:00'))</t>
+        </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
+          <t>{'text': "ccu npn\n60yo status post stent in lad/rca/iabp/intubation.\nafebrile. elevated hr100-110's with occ/frequent pvc.  k+ repleated. bp also ^ing 110-130's ^captopril dose tolerated well. no c/o cp. groins remain d/i. lungs with course aeration/ dependent rales 1/2 up by 4am. o2 at 60% face tent with sats 92-98%. has occ productive cough, using yankuer suction out sputum. he looks dyspneic yet he denies being sob. unable to sleep, rec'd trazadone/ambien with poor results. eager to get oob.\na: conts with chf, resp status tenuous\n   ^bp/hr\np: ? further diuresis\n   ? increase in captopril\n   increase activity if resp status improves\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [\n    {\n      "attribute_name": "age",\n      "attribute_value": "60"\n    },\n    {\n      "attribute_name": "medical_history",\n      "attribute_value": "status post stent in lad/rca/iabp/intubation"\n    }\n  ],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "unable to sleep, rec\'d trazadone/ambien with poor results",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "no c/o cp",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "none"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "productive cough, using yankuer suction out sputum",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "sputum"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {}\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "",\n      "actor": "patient",\n      "object": "patient",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {}\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "unknown",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "unknown",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'none'}}}, {'Excretion': {'Excretion': {'type': 'sputum'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ["unable to sleep, rec'd trazadone/ambien with poor results", 'no c/o cp', 'productive cough, using yankuer suction out sputum', '', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [True, True, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-17 06:36:00 and 2167-05-17 06:42:00):\n           ccu npn\n60yo status post stent in lad/rca/iabp/intubation.\nafebrile. elevated hr100-110\'s with occ/frequent pvc.  k+ repleated. bp also ^ing 110-130\'s ^captopril dose tolerated well. no c/o cp. groins remain d/i. lungs with course aeration/ dependent rales 1/2 up by 4am. o2 at 60% face tent with sats 92-98%. has occ productive cough, using yankuer suction out sputum. he looks dyspneic yet he denies being sob. unable to sleep, rec\'d trazadone/ambien with poor results. eager to get oob.\na: conts with chf, resp status tenuous\n   ^bp/hr\np: ? further diuresis\n   ? increase in captopril\n   increase activity if resp status improves\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '60'}, {'attribute_name': 'medical_history', 'attribute_value': 'status post stent in lad/rca/iabp/intubation'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 18.00969273620285}</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>unable to sleep|ambien with poor results</t>
         </is>
       </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>["unable to sleep, rec'd trazadone/ambien with poor results"]</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Pain': {'Pain': {'severity': 'none'}}}, {'Excretion': {'Excretion': {'type': 'sputum'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}]</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>["unable to sleep, rec'd trazadone/ambien with poor results", 'no c/o cp', 'productive cough, using yankuer suction out sputum', '', '']</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>["e1=Sleep|1:unable to sleep, rec'd trazadone/ambien with poor results", 'e2=Pain|1:no c/o cp', 'e3=Excretion|1:productive cough, using yankuer suction out sputum', 'e4=Eating|1:', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -4182,56 +4612,66 @@
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="n">
-        <v>1</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-18 05:26:00'), Timestamp('2167-05-18 05:33:00'))</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>{'text': "ccu npn\n60yo male status post acute mi&gt;cath lab&gt;iabp and stenting of lad/rca lesions.\nlow grade temp. no antibx/tylenol.\nhr lower tonight 90-100's sr/st with occ/freq pvc. k= repleted. bp 100-120's. conts on iv ntg/hep. r/l groins remain d/i\nlungs with crackles 1/2 up in r at base in l. oxygen saturation 96-98% on 4lnp. diuresed with lasix 80mg iv with fair uo. conts to look dyspneic but has improved from last night. he still is stating that resp is fine. abg with met alkalosis otherwise fine. explained to him about need for fluid restriction, now and when he goes home. seems to understand but will need reiforcement.\nrec'd ambien 10mg and cough syrup, slept well for about 1 hr then up. acting confused,stating that the floor was tilted, waking up thinking he was at home, trying to get oob.  now back to baseline, oob to chair at 5am. (has not slept well for past 2 nights)\na: diuresed with lasix 80mg iv\n   tol new meds\n   ? confusion r/t ambien vs sleep deprivation\np: cont with cardiac rehab\n   reinforce fluid restriction info\n\n", 'event': ['Excretion', 'Sleep', 'Pain', 'Family', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "60"\n        },\n        {\n            "attribute_name": "gender",\n            "attribute_value": "male"\n        },\n        {\n            "attribute_name": "medical history",\n            "attribute_value": "acute mi, cath lab, iabp and stenting of lad/rca lesions"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "diuresed with lasix 80mg iv with fair uo",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "fair",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "slept well for about 1 hr then up",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good",\n                    "duration": "short"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "no antibx/tylenol",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "explained to him about need for fluid restriction, now and when he goes home",\n            "actor": "patient",\n            "object": "family member",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "communication",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'good', 'duration': 'short'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['diuresed with lasix 80mg iv with fair uo', 'slept well for about 1 hr then up', 'no antibx/tylenol', 'explained to him about need for fluid restriction, now and when he goes home', 'None'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-18 05:26:00 and 2167-05-18 05:33:00):\n           ccu npn\n60yo male status post acute mi&gt;cath lab&gt;iabp and stenting of lad/rca lesions.\nlow grade temp. no antibx/tylenol.\nhr lower tonight 90-100\'s sr/st with occ/freq pvc. k= repleted. bp 100-120\'s. conts on iv ntg/hep. r/l groins remain d/i\nlungs with crackles 1/2 up in r at base in l. oxygen saturation 96-98% on 4lnp. diuresed with lasix 80mg iv with fair uo. conts to look dyspneic but has improved from last night. he still is stating that resp is fine. abg with met alkalosis otherwise fine. explained to him about need for fluid restriction, now and when he goes home. seems to understand but will need reiforcement.\nrec\'d ambien 10mg and cough syrup, slept well for about 1 hr then up. acting confused,stating that the floor was tilted, waking up thinking he was at home, trying to get oob.  now back to baseline, oob to chair at 5am. (has not slept well for past 2 nights)\na: diuresed with lasix 80mg iv\n   tol new meds\n   ? confusion r/t ambien vs sleep deprivation\np: cont with cardiac rehab\n   reinforce fluid restriction info\n\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '60'}, {'attribute_name': 'gender', 'attribute_value': 'male'}, {'attribute_name': 'medical history', 'attribute_value': 'acute mi, cath lab, iabp and stenting of lad/rca lesions'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.4050017290283}</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>slept well for about 1</t>
         </is>
       </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>['slept well for about 1 hr then up']</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'short'}}}]</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>['Excretion', 'Sleep', 'Pain', 'Family', 'Eating']</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'good', 'duration': 'short'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>['diuresed with lasix 80mg iv with fair uo', 'slept well for about 1 hr then up', 'no antibx/tylenol', 'explained to him about need for fluid restriction, now and when he goes home', 'None']</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:diuresed with lasix 80mg iv with fair uo', 'e2=Sleep|1:slept well for about 1 hr then up', 'e3=Pain|1:no antibx/tylenol', 'e4=Family|1:explained to him about need for fluid restriction, now and when he goes home', 'e5=Eating|0:None']</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -4268,56 +4708,66 @@
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
-        <v>1</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-18 18:33:00'), Timestamp('2167-05-18 18:45:00'))</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing progress note\ns-"i am having some cramping"\no-neuro alert and oriented x3, anxious but cooperative. asking appropiate questions about poc. c/o feeling tired but not being able to sleep at night or during the day.\ncv-vss iv ntg d/c\'d and changed over to natrecor at .01mcg/kg/min after a 1mcg/kg bolus. c/o some flushing but no change in bp. remians tachy hr 86-105 st k 3.8 received 40meq kcl by mouth x1. no c/o chest pain or sob. radial aline d/c\'d\nresp- ls rales 1/2 up bilaterally, few exp wheezes in am. o2 at 3l np with oxygen saturation 96%. sat dropped to 90% on ra. freq congested productive cough/thick tan sputum, received guaifenesin/codeine 5cc with some improvment.\nid afebrile wbc 9.5\ngu- foley draining 30-50cc/hr received lasix 80mg ivb at 1200 with fair diuresis~600cc.\ngi- appetite fair, c/o cramping/gas releived with bm/ soft ob-. received simethicone 40mg by mouth x1 with relief.\nactivity- oob chair for meals with assist. weak and needs 1 assist.\nsocial- family into visit.\na/p-follow electrolytes, monitor urine output goal keep negative and improve rales.\n', 'event': ['Pain', 'Sleep', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "s-\\"i am having some cramping\\"",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "c/o feeling tired but not being able to sleep at night or during the day.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "gu- foley draining 30-50cc/hr received lasix 80mg ivb at 1200 with fair diuresis~600cc.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "fair",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "gi- appetite fair, c/o cramping/gas releived with bm/ soft ob-. received simethicone 40mg by mouth x1 with relief.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "social- family into visit.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "unknown",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['s-"i am having some cramping"', 'c/o feeling tired but not being able to sleep at night or during the day.', 'gu- foley draining 30-50cc/hr received lasix 80mg ivb at 1200 with fair diuresis~600cc.', 'gi- appetite fair, c/o cramping/gas releived with bm/ soft ob-. received simethicone 40mg by mouth x1 with relief.', 'social- family into visit.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-18 18:33:00 and 2167-05-18 18:45:00):\n           ccu nursing progress note\ns-"i am having some cramping"\no-neuro alert and oriented x3, anxious but cooperative. asking appropiate questions about poc. c/o feeling tired but not being able to sleep at night or during the day.\ncv-vss iv ntg d/c\'d and changed over to natrecor at .01mcg/kg/min after a 1mcg/kg bolus. c/o some flushing but no change in bp. remians tachy hr 86-105 st k 3.8 received 40meq kcl by mouth x1. no c/o chest pain or sob. radial aline d/c\'d\nresp- ls rales 1/2 up bilaterally, few exp wheezes in am. o2 at 3l np with oxygen saturation 96%. sat dropped to 90% on ra. freq congested productive cough/thick tan sputum, received guaifenesin/codeine 5cc with some improvment.\nid afebrile wbc 9.5\ngu- foley draining 30-50cc/hr received lasix 80mg ivb at 1200 with fair diuresis~600cc.\ngi- appetite fair, c/o cramping/gas releived with bm/ soft ob-. received simethicone 40mg by mouth x1 with relief.\nactivity- oob chair for meals with assist. weak and needs 1 assist.\nsocial- family into visit.\na/p-follow electrolytes, monitor urine output goal keep negative and improve rales.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 22.4272393330466}</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>not being able to sleep</t>
         </is>
       </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>['c/o feeling tired but not being able to sleep at night or during the day.']</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'fair', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>['s-"i am having some cramping"', 'c/o feeling tired but not being able to sleep at night or during the day.', 'gu- foley draining 30-50cc/hr received lasix 80mg ivb at 1200 with fair diuresis~600cc.', 'gi- appetite fair, c/o cramping/gas releived with bm/ soft ob-. received simethicone 40mg by mouth x1 with relief.', 'social- family into visit.']</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>['e1=Pain|1:s-"i am having some cramping"', 'e2=Sleep|1:c/o feeling tired but not being able to sleep at night or during the day.', 'e3=Excretion|1:gu- foley draining 30-50cc/hr received lasix 80mg ivb at 1200 with fair diuresis~600cc.', 'e4=Eating|1:gi- appetite fair, c/o cramping/gas releived with bm/ soft ob-. received simethicone 40mg by mouth x1 with relief.', 'e5=Family|1:social- family into visit.']</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -4357,56 +4807,66 @@
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" t="n">
-        <v>1</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-19 04:19:00'), Timestamp('2167-05-19 05:01:00'))</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
+          <t>{'text': "ccu nursing progress note 7p-7a:\n\nam labs pending.\n\nneuro: alert and oriented x3.  concerned about insomnia.  patient rec'd ambiem at hs  and appeared to be sleeping for a few hours.\noob to bsc with two aaist following finding patient attempting to get oob independently.   reoriented easily.\n\ncv/pulm: hr 83-97 nsr with occasional pvc's.  k+ 4.0 mg 2.5.  bp 92-117/58-69.  patient denies cp/sob.  conts on cardaic regimen captopril 12.5mg and carvediol 3.125mg.  natrecor 0.01mcg/mg/min and heparin 1300u/hr.  await am ptt.  no signs of bleeding noted.  dopperable pulses.  r and l groin c/d/i.  extremities warm and cool. ls with crackles 1/3 up bilaterally.  conts with strong congested nonrpoductive cough.  patient rec'd guaifenesin with codeine.  oxygen requirment of 3l nc  sats 94-96%.  rr 16-28.  rec'd lasix 80mg iv 8pm with +diuresis.\n\ngi: audible bs.  abd softly distended.  denies n/v.  patient taking sips of water.  +flatus.  no stool this shift.\n\ngu: foley cath patent draining cyu. u/o 50cc/hr.  rec'd lasix 80mg iv 8pm with +diuresis.  -5613 los and -231 since mn.\n\nid: afebrile.\n\nskin: upper extremities ecchymotic with areas of redness from previous line sies.\n\nlines: 3 piv.\n\nsocial: no phone calls or visitors this shift.\n\na: 60 year old male status post stents to lad/rca/iabp/intubation.\nhemodynamically stable on current regimen.\n\np: follow hr/bp.  replete lytes pro re nata with diuresis.  cont pulm toileting.  follow renal status.  encourage by mouth's.  oob.  provide suport.\n\n\n\n", 'event': ['Sleep', 'Excretion', 'Pain', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "patient_history",\n            "attribute_value": "status post stents to lad/rca/iabp/intubation"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "appeared to be sleeping for a few hours",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "a few hours"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "+diuresis",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "lasix 80mg iv",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "+diuresis",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "denies cp/sob",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "taking sips of water",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "water",\n                    "amount": "sips",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "no phone calls or visitors this shift",\n            "actor": "patient",\n            "object": "family member",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'a few hours'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '+diuresis', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['appeared to be sleeping for a few hours', '+diuresis', 'denies cp/sob', 'taking sips of water', 'no phone calls or visitors this shift'], 'event_time': ['night', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, False, True], 'caused_by': ['Unknown', 'lasix 80mg iv', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-19 04:19:00 and 2167-05-19 05:01:00):\n           ccu nursing progress note 7p-7a:\n\nam labs pending.\n\nneuro: alert and oriented x3.  concerned about insomnia.  patient rec\'d ambiem at hs  and appeared to be sleeping for a few hours.\noob to bsc with two aaist following finding patient attempting to get oob independently.   reoriented easily.\n\ncv/pulm: hr 83-97 nsr with occasional pvc\'s.  k+ 4.0 mg 2.5.  bp 92-117/58-69.  patient denies cp/sob.  conts on cardaic regimen captopril 12.5mg and carvediol 3.125mg.  natrecor 0.01mcg/mg/min and heparin 1300u/hr.  await am ptt.  no signs of bleeding noted.  dopperable pulses.  r and l groin c/d/i.  extremities warm and cool. ls with crackles 1/3 up bilaterally.  conts with strong congested nonrpoductive cough.  patient rec\'d guaifenesin with codeine.  oxygen requirment of 3l nc  sats 94-96%.  rr 16-28.  rec\'d lasix 80mg iv 8pm with +diuresis.\n\ngi: audible bs.  abd softly distended.  denies n/v.  patient taking sips of water.  +flatus.  no stool this shift.\n\ngu: foley cath patent draining cyu. u/o 50cc/hr.  rec\'d lasix 80mg iv 8pm with +diuresis.  -5613 los and -231 since mn.\n\nid: afebrile.\n\nskin: upper extremities ecchymotic with areas of redness from previous line sies.\n\nlines: 3 piv.\n\nsocial: no phone calls or visitors this shift.\n\na: 60 year old male status post stents to lad/rca/iabp/intubation.\nhemodynamically stable on current regimen.\n\np: follow hr/bp.  replete lytes pro re nata with diuresis.  cont pulm toileting.  follow renal status.  encourage by mouth\'s.  oob.  provide suport.\n\n\n\n\n        ', 'case_attributes': [[{'attribute_name': 'patient_history', 'attribute_value': 'status post stents to lad/rca/iabp/intubation'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 20.144746409961954}</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>appeared to be sleeping</t>
         </is>
       </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>['appeared to be sleeping for a few hours']</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'a few hours'}}}]</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Pain', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'a few hours'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '+diuresis', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>['appeared to be sleeping for a few hours', '+diuresis', 'denies cp/sob', 'taking sips of water', 'no phone calls or visitors this shift']</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:appeared to be sleeping for a few hours', 'e2=Excretion|1:+diuresis', 'e3=Pain|1:denies cp/sob', 'e4=Eating|1:taking sips of water', 'e5=Family|1:no phone calls or visitors this shift']</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -4446,56 +4906,66 @@
       <c r="E47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="n">
-        <v>1</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-19 18:24:00'), Timestamp('2167-05-19 18:44:00'))</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing progress note\ns-"i feel rested today."\no-neuro alert and oriented x3, feeling much better today after finally sleeping last night. still easily anxious with increase in activity.\ncv-vss stable tolerating increase doses of captopril. remains on natrecor at .01mcg/kg/min and heparin at 1150u/hr ptt pnd at 1800.\nno c/o chest pain or sob. patient received chf booklet and started teaching. encouraged patient to start [**location (un) 94**] but watched tv all day. not very motivated today. cardiac echo prelim report &lt;20% lvef.\nresp-ls rales 1/3 up bilaterally, occ exp wheezes. occ congested npc. oxygen saturation 96% on rastarted is teachingand able to draw 750cc. also needs alot of encouragement doing this q1hr 10x.\nid afebrile\ngu-foley draining 40-50cc/hr\ngi-appetite improving, c/o abd gas/bloating releived with mylicon 80mg\nactivity- oob chair for all meals. patient consult, patient walked in hallway ~50feet, tolerated well without sob or chest pain.\nsocial-family in and very supportive.\na/p-stable with improved oxygenation.\nmonitor oxygen saturation on ra and ls for increase in rales\nfollow hourly urine output.\n', 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Sleep', 'Activity'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "feeling much better today after finally sleeping last night.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "last night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "good",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "still easily anxious with increase in activity.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "mild",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "gu-foley draining 40-50cc/hr",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": " Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "gi-appetite improving, c/o abd gas/bloating releived with mylicon 80mg",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": " Unknown",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Family",\n      "text_quote": "social-family in and very supportive.",\n      "actor": "family member",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": " Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Sleep",\n      "text_quote": "watched tv all day.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": " Unknown",\n          "duration": "all day"\n        }\n      }\n    },\n    {\n      "event_id": "e7",\n      "event_type": "Activity",\n      "text_quote": "activity- oob chair for all meals. patient consult, patient walked in hallway ~50feet, tolerated well without sob or chest pain.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Activity": {\n          "type": "walking",\n          "distance": "~50feet"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "simultaneous",\n      "event_id_2": "e4"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': ' Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': ' Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': ' Unknown'}}}, {'Sleep': {'Sleep': {'quality': ' Unknown', 'duration': 'all day'}}}, {'Activity': {'Activity': {'type': 'walking', 'distance': '~50feet'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['feeling much better today after finally sleeping last night.', 'still easily anxious with increase in activity.', 'gu-foley draining 40-50cc/hr', 'gi-appetite improving, c/o abd gas/bloating releived with mylicon 80mg', 'social-family in and very supportive.', 'watched tv all day.', 'activity- oob chair for all meals. patient consult, patient walked in hallway ~50feet, tolerated well without sob or chest pain.'], 'event_time': ['last night', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-19 18:24:00 and 2167-05-19 18:44:00):\n           ccu nursing progress note\ns-"i feel rested today."\no-neuro alert and oriented x3, feeling much better today after finally sleeping last night. still easily anxious with increase in activity.\ncv-vss stable tolerating increase doses of captopril. remains on natrecor at .01mcg/kg/min and heparin at 1150u/hr ptt pnd at 1800.\nno c/o chest pain or sob. patient received chf booklet and started teaching. encouraged patient to start [**location (un) 94**] but watched tv all day. not very motivated today. cardiac echo prelim report &lt;20% lvef.\nresp-ls rales 1/3 up bilaterally, occ exp wheezes. occ congested npc. oxygen saturation 96% on rastarted is teachingand able to draw 750cc. also needs alot of encouragement doing this q1hr 10x.\nid afebrile\ngu-foley draining 40-50cc/hr\ngi-appetite improving, c/o abd gas/bloating releived with mylicon 80mg\nactivity- oob chair for all meals. patient consult, patient walked in hallway ~50feet, tolerated well without sob or chest pain.\nsocial-family in and very supportive.\na/p-stable with improved oxygenation.\nmonitor oxygen saturation on ra and ls for increase in rales\nfollow hourly urine output.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member', 'patient', 'patient'], 'event_detection_time': 26.033518333919346}</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>i feel rested today|finally sleeping last night|</t>
         </is>
       </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>['feeling much better today after finally sleeping last night.', 'watched tv all day.']</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': ' Unknown', 'duration': 'all day'}}}]</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Sleep', 'Activity']</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'mild', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': ' Unknown', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': ' Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': ' Unknown'}}}, {'Sleep': {'Sleep': {'quality': ' Unknown', 'duration': 'all day'}}}, {'Activity': {'Activity': {'type': 'walking', 'distance': '~50feet'}}}]</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>['feeling much better today after finally sleeping last night.', 'still easily anxious with increase in activity.', 'gu-foley draining 40-50cc/hr', 'gi-appetite improving, c/o abd gas/bloating releived with mylicon 80mg', 'social-family in and very supportive.', 'watched tv all day.', 'activity- oob chair for all meals. patient consult, patient walked in hallway ~50feet, tolerated well without sob or chest pain.']</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:feeling much better today after finally sleeping last night.', 'e2=Pain|1:still easily anxious with increase in activity.', 'e3=Excretion|1:gu-foley draining 40-50cc/hr', 'e4=Eating|1:gi-appetite improving, c/o abd gas/bloating releived with mylicon 80mg', 'e5=Family|1:social-family in and very supportive.', 'e6=Sleep|1:watched tv all day.', 'e7=Activity|1:activity- oob chair for all meals. patient consult, patient walked in hallway ~50feet, tolerated well without sob or chest pain.']</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -4530,56 +5000,66 @@
       <c r="E48" t="n">
         <v>1</v>
       </c>
-      <c r="F48" t="n">
-        <v>1</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>(Timestamp('2167-05-21 05:19:00'), Timestamp('2167-05-21 05:32:00'))</t>
+        </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>{'text': "ccu npn 1900-0700\no:  afeb.  hr 80's -90's sr with occas to freq. pvc's.  hr up to 110-120's with exertion , ie oob to commode.  one 18 bt run vt ~ 0300 while patient. sleeping.  vss.  lytes sent at that time, still pnd.  ho aware.\nheparin adjusted at 0200 up to 800u/hr for ptt 48.\nu/o 50-100cc/hr via foley.\noob to commode x1, small loose stool. guiac neg.\n\nasking for sleeping aid again.  given 10mg ambien with good results.\nplan to give 37.5mg captopril at 0600 as ordered.\nbp 90's-111/50-60.\na/p:  plan to c/o to private room(latex allergy) today.  oob and may ambulate with assist.  ptt at 0800.  ? d/c foley.  on by mouth lasix.  follow u/o, exam off natracor.\n", 'event': ['Sleep', 'Excretion', 'Sleep', 'Pain', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "latex allergy"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "one 18 bt run vt ~ 0300 while patient. sleeping.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "~ 0300",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "interrupted"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "oob to commode x1, small loose stool. guiac neg.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "x1",\n                    "quality": "loose"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "asking for sleeping aid again.  given 10mg ambien with good results.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "hr up to 110-120\'s with exertion , ie oob to commode.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "exertion",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "on by mouth lasix.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "lasix",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'interrupted'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x1', 'quality': 'loose'}}}, {'Sleep': {'Sleep': {'quality': 'good'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'lasix', 'amount': 'Unknown', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]], 'text_quotes': ['one 18 bt run vt ~ 0300 while patient. sleeping.', 'oob to commode x1, small loose stool. guiac neg.', 'asking for sleeping aid again.  given 10mg ambien with good results.', "hr up to 110-120's with exertion , ie oob to commode.", 'on by mouth lasix.'], 'event_time': ['~ 0300', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'exertion', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2167-05-21 05:19:00 and 2167-05-21 05:32:00):\n           ccu npn 1900-0700\no:  afeb.  hr 80\'s -90\'s sr with occas to freq. pvc\'s.  hr up to 110-120\'s with exertion , ie oob to commode.  one 18 bt run vt ~ 0300 while patient. sleeping.  vss.  lytes sent at that time, still pnd.  ho aware.\nheparin adjusted at 0200 up to 800u/hr for ptt 48.\nu/o 50-100cc/hr via foley.\noob to commode x1, small loose stool. guiac neg.\n\nasking for sleeping aid again.  given 10mg ambien with good results.\nplan to give 37.5mg captopril at 0600 as ordered.\nbp 90\'s-111/50-60.\na/p:  plan to c/o to private room(latex allergy) today.  oob and may ambulate with assist.  ptt at 0800.  ? d/c foley.  on by mouth lasix.  follow u/o, exam off natracor.\n\n        ', 'case_attributes': [[{'attribute_name': 'latex allergy'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.918176373001188}</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>sleeping</t>
         </is>
       </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>['one 18 bt run vt ~ 0300 while patient. sleeping.', 'asking for sleeping aid again.  given 10mg ambien with good results.']</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'interrupted'}}}, {'Sleep': {'Sleep': {'quality': 'good'}}}]</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Sleep', 'Pain', 'Eating']</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'interrupted'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'x1', 'quality': 'loose'}}}, {'Sleep': {'Sleep': {'quality': 'good'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'lasix', 'amount': 'Unknown', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>['one 18 bt run vt ~ 0300 while patient. sleeping.', 'oob to commode x1, small loose stool. guiac neg.', 'asking for sleeping aid again.  given 10mg ambien with good results.', "hr up to 110-120's with exertion , ie oob to commode.", 'on by mouth lasix.']</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:one 18 bt run vt ~ 0300 while patient. sleeping.', 'e2=Excretion|1:oob to commode x1, small loose stool. guiac neg.', 'e3=Sleep|1:asking for sleeping aid again.  given 10mg ambien with good results.', "e4=Pain|1:hr up to 110-120's with exertion , ie oob to commode.", 'e5=Eating|1:on by mouth lasix.']</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -4621,56 +5101,66 @@
       <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-02 07:08:00'), Timestamp('2151-04-02 08:13:00'))</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing admission note 1900-0700: status post stent\ncc: in brief, 67 year old male who presented to osh with non-radiating cp to osh. ekg with inferior changes with question of rv involvement. nitro, mso4, and heparin instituted with failure to make pain free. tnk introduced causing patient hr to drop to 40s. atropine given with patient responding. patient later tranfered to [**hospital1 3**] for emergent cath.\n\ncath lab: arrival to cath lab with 3/10 cp with question of new onset of chb, later found to be in wenkebauch. consented for cool-mi. lhc performed resulting in diffuse diseas. no data on exact disease to exact vessels. pda crossed and stent diployed to rca with no c/o cp post dilation. post dilation bp dropping to 70s and hr to 40s. ivfs wo. atropine totaling 3mg. dopa at 10mcgs, later maxed at 20mcg/kg. c/o [**3-29**] cp with continued severe st elevations.  cooling processes aborted and randomized to cool. still with no "re-flow" patient becoming nauseas. iabp and tv pacer placed. patient 100% paced and bp recovering.\niv dye 220. transfered to ccu for management.\n\nsee fhp for pmh and allergies\n\ns-lethargic and sedated.\n\nsee carevue for vs and objective data\n\no-ms: recieved lethargic from cath lab. recieved versed and demerol previously. opening eyes to verbal stimuli. unable to follow and obye commands. responds to painful stimuli. narcan ordered and held. shortly thereafter patient becoming acutely agitated. trying to get up oob. requiring 4pt restraints. given 2mg of haldol and 2mg of ativan and since has been sedate. opening eyes to verbal stimuli. still unable to follow commands and remains very groggy.\n\ncv: hr 40s to 120s. v-paced-sb-st. rare pvcs. transvenous pacer sensing and capturing upon arrival. post agitation, not sensing of capturing. trancutaneous pad placed and tested. intrisic hr 70s to 100s. nsr to st. iabp with fair systolic and some diastolic unloading.\nmaps 70s to 80s. dopa previously at 20mgcs/kg/min but weaned to off.\niabp requiring manual pressure for continous ooze. ooze currently stable. no hematoma noted. left groin site with small hard hematoma. area marked with no noted further expansion. pulses intially absent. now palpable dps and dopplerable pts bilaterally. heparin started at 500u/hr for iabp protection. ptt at mn not accurate d/t closeness of bolus in cath lab.\n\nresp: ls coarss and dim at bases. placed on coolneb at 40%. o2sat 97-99%. breathing intially shallow with rr 10s to 11. no noted periods of apnea. abgs at time acidotic with planned repeat in am. currently rrs mid teens. ls remain course and now with np[**md number(3) 788**].\n\ngu/gi: foley draining adequate amounts of urine. patient about 2l(+). d1/2ns at 125cc/hr continue time 2ls. abd soft with (+) bs. lactic acid drawn around mn in the upper 5s, drawn in the setting of ischemic event.\n\nid: intially shivering. rectal temp 97.8. previously cooling process started in cath lab. blanket warmer applied. tm 97.8 axillary. left in place on low setting.\n\nheme: hct 39 and plts 300s at osh. hct 36 and plts 240s. continue to follow. t+s sent to bb this am.\n\nsoc: married wit\n', 'event': ['Pain', 'Excretion', 'Sleep', 'Pain', 'Family', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "Patient\'s history",\n            "attribute_value": "67 year old male with non-radiating chest pain, inferior changes on EKG, and question of RV involvement"\n        },\n        {\n            "attribute_name": "Previous medications",\n            "attribute_value": "Nitro, MSO4, heparin, TNK, atropine, dopamine"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "3/10 cp with question of new onset of chb",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "3/10",\n                    "location": "chest",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "Foley draining adequate amounts of urine. patient about 2l(+)",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "adequate amounts",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "s-lethargic and sedated. opening eyes to verbal stimuli.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "lethargic and sedated",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "responds to painful stimuli.",\n            "actor": "patient",\n            "object": "painful stimuli",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "soc: married wit",\n            "actor": "patient",\n            "object": "family member",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "Unknown",\n                    "relation": "married"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Eating",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "food",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': '3/10', 'location': 'chest', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adequate amounts', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'lethargic and sedated', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'married'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['3/10 cp with question of new onset of chb', 'Foley draining adequate amounts of urine. patient about 2l(+)', 's-lethargic and sedated. opening eyes to verbal stimuli.', 'responds to painful stimuli.', 'soc: married wit', 'None'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-02 07:08:00 and 2151-04-02 08:13:00):\n           ccu nursing admission note 1900-0700: status post stent\ncc: in brief, 67 year old male who presented to osh with non-radiating cp to osh. ekg with inferior changes with question of rv involvement. nitro, mso4, and heparin instituted with failure to make pain free. tnk introduced causing patient hr to drop to 40s. atropine given with patient responding. patient later tranfered to [**hospital1 3**] for emergent cath.\n\ncath lab: arrival to cath lab with 3/10 cp with question of new onset of chb, later found to be in wenkebauch. consented for cool-mi. lhc performed resulting in diffuse diseas. no data on exact disease to exact vessels. pda crossed and stent diployed to rca with no c/o cp post dilation. post dilation bp dropping to 70s and hr to 40s. ivfs wo. atropine totaling 3mg. dopa at 10mcgs, later maxed at 20mcg/kg. c/o [**3-29**] cp with continued severe st elevations.  cooling processes aborted and randomized to cool. still with no "re-flow" patient becoming nauseas. iabp and tv pacer placed. patient 100% paced and bp recovering.\niv dye 220. transfered to ccu for management.\n\nsee fhp for pmh and allergies\n\ns-lethargic and sedated.\n\nsee carevue for vs and objective data\n\no-ms: recieved lethargic from cath lab. recieved versed and demerol previously. opening eyes to verbal stimuli. unable to follow and obye commands. responds to painful stimuli. narcan ordered and held. shortly thereafter patient becoming acutely agitated. trying to get up oob. requiring 4pt restraints. given 2mg of haldol and 2mg of ativan and since has been sedate. opening eyes to verbal stimuli. still unable to follow commands and remains very groggy.\n\ncv: hr 40s to 120s. v-paced-sb-st. rare pvcs. transvenous pacer sensing and capturing upon arrival. post agitation, not sensing of capturing. trancutaneous pad placed and tested. intrisic hr 70s to 100s. nsr to st. iabp with fair systolic and some diastolic unloading.\nmaps 70s to 80s. dopa previously at 20mgcs/kg/min but weaned to off.\niabp requiring manual pressure for continous ooze. ooze currently stable. no hematoma noted. left groin site with small hard hematoma. area marked with no noted further expansion. pulses intially absent. now palpable dps and dopplerable pts bilaterally. heparin started at 500u/hr for iabp protection. ptt at mn not accurate d/t closeness of bolus in cath lab.\n\nresp: ls coarss and dim at bases. placed on coolneb at 40%. o2sat 97-99%. breathing intially shallow with rr 10s to 11. no noted periods of apnea. abgs at time acidotic with planned repeat in am. currently rrs mid teens. ls remain course and now with np[**md number(3) 788**].\n\ngu/gi: foley draining adequate amounts of urine. patient about 2l(+). d1/2ns at 125cc/hr continue time 2ls. abd soft with (+) bs. lactic acid drawn around mn in the upper 5s, drawn in the setting of ischemic event.\n\nid: intially shivering. rectal temp 97.8. previously cooling process started in cath lab. blanket warmer applied. tm 97.8 axillary. left in place on low setting.\n\nheme: hct 39 and plts 300s at osh. hct 36 and plts 240s. continue to follow. t+s sent to bb this am.\n\nsoc: married wit\n\n        ', 'case_attributes': [[{'attribute_name': "Patient's history", 'attribute_value': '67 year old male with non-radiating chest pain, inferior changes on EKG, and question of RV involvement'}, {'attribute_name': 'Previous medications', 'attribute_value': 'Nitro, MSO4, heparin, TNK, atropine, dopamine'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 25.843612235039473}</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>no noted periods of apnea|</t>
         </is>
       </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>['s-lethargic and sedated. opening eyes to verbal stimuli.']</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'lethargic and sedated', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Sleep', 'Pain', 'Family', 'Eating']</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': '3/10', 'location': 'chest', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'adequate amounts', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'lethargic and sedated', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'Unknown', 'relation': 'married'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>['3/10 cp with question of new onset of chb', 'Foley draining adequate amounts of urine. patient about 2l(+)', 's-lethargic and sedated. opening eyes to verbal stimuli.', 'responds to painful stimuli.', 'soc: married wit', 'None']</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>['e1=Pain|1:3/10 cp with question of new onset of chb', 'e2=Excretion|0:Foley draining adequate amounts of urine. patient about 2l(+)', 'e3=Sleep|0:s-lethargic and sedated. opening eyes to verbal stimuli.', 'e4=Pain|1:responds to painful stimuli.', 'e5=Family|1:soc: married wit', 'e6=Eating|0:None']</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -4702,56 +5192,66 @@
       <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F50" t="n">
-        <v>1</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-02 17:03:00'), Timestamp('2151-04-02 17:28:00'))</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
+          <t>{'text': "ccu progress note 7a-7p\nneuro: patient lethargic most of day. disoriented at times, patient talking in sleep. family in all day, noting pts confusion at times. bilat leg immobilizers on. bilat wrist restraints on loosely to remind patient not to pull out groin lines. no sedation given today. patient slept in naps most of day.\n\ncardiac: sr 60-90s. maps 70-80s. started on captopril 6.25mg tid and isordil 10mg tid. hct 33.8 this afternoon (am 34.3). heparin drops @ 500u/hr. last ptt 59.1. 3 pivs. pacer wire pulled early this morning from l groin, l sheath d/c'd at noon - small hematoma remains at site - no further bleeding noted. r iabp d+i, 1:1 good augmentation, good waveform. 2+ dp and dopplerable patient.\n\nresp: ls coarse. non-productive congestive cough. o2 3l n/c. sats  &gt;98%. am abg: 7.37/37/159.\n\ngi/gu: foley patent. good u/o. abd soft +bs. npo x/ meds and ice chips. nauseated + vomited small amt thick green emesis (guiac neg) - given phenergan 25mg ivp with good effect per ho.\n\nplan: recheck pm labs: hct + ck.  ?increase captopril dose. ?decrease iabp to 1:2 overnite. ?plan to d/c iabp in am.\n", 'event': ['Sleep', 'Pain', 'Family', 'Excretion', 'Eating', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient slept in naps most of day.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "most of day"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "None",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "family in all day, noting pts confusion at times.",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "foley patent. good u/o.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "good",\n                    "quality": "patent"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "npo x/ meds and ice chips.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "None",\n                    "amount": "None",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Excretion",\n            "text_quote": "nauseated + vomited small amt thick green emesis (guiac neg)",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "vomit",\n                    "frequency": "small amt",\n                    "quality": "thick green"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "unknown",\n            "event_id_2": "e6"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of day'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': 'patent'}}}, {'Eating': {'Eating': {'food': 'None', 'amount': 'None', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'vomit', 'frequency': 'small amt', 'quality': 'thick green'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]], 'text_quotes': ['patient slept in naps most of day.', 'None', 'family in all day, noting pts confusion at times.', 'foley patent. good u/o.', 'npo x/ meds and ice chips.', 'nauseated + vomited small amt thick green emesis (guiac neg)'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-02 17:03:00 and 2151-04-02 17:28:00):\n           ccu progress note 7a-7p\nneuro: patient lethargic most of day. disoriented at times, patient talking in sleep. family in all day, noting pts confusion at times. bilat leg immobilizers on. bilat wrist restraints on loosely to remind patient not to pull out groin lines. no sedation given today. patient slept in naps most of day.\n\ncardiac: sr 60-90s. maps 70-80s. started on captopril 6.25mg tid and isordil 10mg tid. hct 33.8 this afternoon (am 34.3). heparin drops @ 500u/hr. last ptt 59.1. 3 pivs. pacer wire pulled early this morning from l groin, l sheath d/c\'d at noon - small hematoma remains at site - no further bleeding noted. r iabp d+i, 1:1 good augmentation, good waveform. 2+ dp and dopplerable patient.\n\nresp: ls coarse. non-productive congestive cough. o2 3l n/c. sats  &gt;98%. am abg: 7.37/37/159.\n\ngi/gu: foley patent. good u/o. abd soft +bs. npo x/ meds and ice chips. nauseated + vomited small amt thick green emesis (guiac neg) - given phenergan 25mg ivp with good effect per ho.\n\nplan: recheck pm labs: hct + ck.  ?increase captopril dose. ?decrease iabp to 1:2 overnite. ?plan to d/c iabp in am.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'family member', 'patient', 'patient', 'patient'], 'event_detection_time': 23.51720629213378}</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>patient talking in sleep|patient slept in naps most of day</t>
         </is>
       </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>['patient slept in naps most of day.']</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of day'}}}]</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Family', 'Excretion', 'Eating', 'Excretion']</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of day'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': 'patent'}}}, {'Eating': {'Eating': {'food': 'None', 'amount': 'None', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'vomit', 'frequency': 'small amt', 'quality': 'thick green'}}}]</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>['patient slept in naps most of day.', 'None', 'family in all day, noting pts confusion at times.', 'foley patent. good u/o.', 'npo x/ meds and ice chips.', 'nauseated + vomited small amt thick green emesis (guiac neg)']</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient slept in naps most of day.', 'e2=Pain|0:None', 'e3=Family|1:family in all day, noting pts confusion at times.', 'e4=Excretion|1:foley patent. good u/o.', 'e5=Eating|1:npo x/ meds and ice chips.', 'e6=Excretion|1:nauseated + vomited small amt thick green emesis (guiac neg)']</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e5', 'relation': 'unknown', 'event_id_2': 'e6'}]]</t>
         </is>
@@ -4786,56 +5286,66 @@
       <c r="E51" t="n">
         <v>1</v>
       </c>
-      <c r="F51" t="n">
-        <v>1</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-03 05:09:00'), Timestamp('2151-04-03 05:48:00'))</t>
+        </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>{'text': 'nursing progress note 7p-7a\nneuro;  patient. confused to time and place earlier in eve after receiving dose of phenergan.  restless, picking at air and sheets.  pleasant and cooperative.  patient. slept in short naps throughout noc.  awakes easily.\nwrist restraints removed.  patient. not pulling at lines.\n\ncv:  hr 55-65 sr-sb no vea noted.  iabp weaned to 1:2, patient. tolerating wean without c/o chest discomfort or changes in bp.  cont on heparin at 500 u/hr.\n\nresp:  congested, coarse cough.  raising blood tinged sputum.  oxygen saturation 99% on 3l nc.  coarse breath sounds.\n\ngu:  foley draining clear yellow urine ~ 30 cc/hr.\n\ngi:  vomited small amt of undigested food.  guiac neg.  no further n/v. no bm tonight, passing flatus.\n\nstable overnight less confusion, compliant with meds.\n\n? plan to d/c iabp, cont to follow ck trend.\n', 'event': ['Sleep', 'Excretion', 'Eating', 'Pain', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient. slept in short naps throughout noc.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "noc",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "short naps",\n                    "duration": "throughout noc"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "foley draining clear yellow urine ~ 30 cc/hr.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "~ 30 cc/hr",\n                    "quality": "clear yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "vomited small amt of undigested food.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "undigested food",\n                    "amount": "small amt",\n                    "method": "vomited"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "no c/o chest discomfort",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "none",\n                    "location": "chest",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'short naps', 'duration': 'throughout noc'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '~ 30 cc/hr', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'undigested food', 'amount': 'small amt', 'method': 'vomited'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'chest', 'duration': 'Unknown'}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['patient. slept in short naps throughout noc.', 'foley draining clear yellow urine ~ 30 cc/hr.', 'vomited small amt of undigested food.', 'no c/o chest discomfort', ''], 'event_time': ['noc', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-03 05:09:00 and 2151-04-03 05:48:00):\n           nursing progress note 7p-7a\nneuro;  patient. confused to time and place earlier in eve after receiving dose of phenergan.  restless, picking at air and sheets.  pleasant and cooperative.  patient. slept in short naps throughout noc.  awakes easily.\nwrist restraints removed.  patient. not pulling at lines.\n\ncv:  hr 55-65 sr-sb no vea noted.  iabp weaned to 1:2, patient. tolerating wean without c/o chest discomfort or changes in bp.  cont on heparin at 500 u/hr.\n\nresp:  congested, coarse cough.  raising blood tinged sputum.  oxygen saturation 99% on 3l nc.  coarse breath sounds.\n\ngu:  foley draining clear yellow urine ~ 30 cc/hr.\n\ngi:  vomited small amt of undigested food.  guiac neg.  no further n/v. no bm tonight, passing flatus.\n\nstable overnight less confusion, compliant with meds.\n\n? plan to d/c iabp, cont to follow ck trend.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 18.32800731412135}</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>slept in short naps|awakes easily</t>
         </is>
       </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>['patient. slept in short naps throughout noc.']</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'short naps', 'duration': 'throughout noc'}}}]</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Eating', 'Pain', 'Family']</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'short naps', 'duration': 'throughout noc'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '~ 30 cc/hr', 'quality': 'clear yellow'}}}, {'Eating': {'Eating': {'food': 'undigested food', 'amount': 'small amt', 'method': 'vomited'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'chest', 'duration': 'Unknown'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>['patient. slept in short naps throughout noc.', 'foley draining clear yellow urine ~ 30 cc/hr.', 'vomited small amt of undigested food.', 'no c/o chest discomfort', '']</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient. slept in short naps throughout noc.', 'e2=Excretion|1:foley draining clear yellow urine ~ 30 cc/hr.', 'e3=Eating|1:vomited small amt of undigested food.', 'e4=Pain|0:no c/o chest discomfort', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -4899,56 +5409,66 @@
       <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52" t="n">
-        <v>1</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-04-04 06:13:00'), Timestamp('2151-04-04 06:29:00'))</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nsg progress note 7p-7a/ status post imi; rcca stent\n\ns- " it hurts when you press on the chset.."\n\no- see flowsheet for objective data\n\n[**name (ni) 79**] patient with increased aflutter/atachy with rate- 55-65, 1 st degree avb and bp borderline with maps 55-60. given 250 normal saline bolus with no change. diuresed 1 liter after earlier lasix and captopril 6.25 given for maps&gt; 60. by 9:30-10p, bp remains with maps barely 60 and patient also c/o "sharp" pain in the left shoulder and upper left chest- much worse with pressure- r/o ? muscular skeletal- serial ekg\'s revealing st depression anteriorly, but no change from previous\npatient treated with dopa 5 mcg for bp and with mso4/tylenol for pain.\ncv fellow in to assess and echo revealed good wall motion anteriorly.\npatient fell asleep, but continue to ring light to say pain was not gone.\nattempted more mso04 x 2 mg, repeat ekg\'s , cycling cpks- ( all trending down currently) and cv fellow back in to reassess.\npain migrated to center of chest and ? worse st depression.\nattempted tng/heparin/more mso4- 2 mg x 2 for total 8 mg and d/c dopa\npain totally unchanged after ms04/tng/heparin and ekg results vague\necho #2 by cv fellow unchanged from previous and attending consulted re: ? possible return to cath lab for relook/possible iabp.\npatient restarted on dopa and tng d/c d/t drifting down of bp again after meds. of note, pain also reproduced and much worse with change of position- rolling to left as well as pressing on chest wall.\npericardial rub ausculated and it was determined source of pain to be pericarditis.\nrepeat tylenol at 2:30 and patient asleep currently\nstat labs drwan 11p revealed nml lytes, cpk trending down, but\nhct 28.5. currently receiving 1 u prbc.\n\n[**name (ni) 81**] patient with strong cough, producing greenish sputum- unable to catch\nin spec cup.\noxygen saturation 99%- 3 l np- no problems with oxygenation.\nsome increased jvd- unable to re-diurese d/t borderline bp.\n\nid- afebrile\n\ngi- taking food/lix without issues\n(+) bowel sounds.\nsmall results on bedpan\n\nheme- see above\n\nms/social- daughter and wife [**name (ni) 3173**] all filled in as to plan of care and current plan\ndaughter called 12a, 6a and informed of new pain since they left and dx of pericarditis.\n\na/[**name (ni) **] patient status post rca stent/mi/recent iabp d/c- developing hypotension/afib/pericariditis\n\nrepsonding to pain meds/antiinflammatories\n\ncontinue to attempt to wean dopa as tolerated.\ncheck 8 am ptt on heparin drops.\ncontinue to cycle cpk\'s.\npain relief with tylenol 650 qid rtc.\nkeep patient and family aware of plan of care\nsputum spec as able to obtain- am cxr\nincrease activity as patient tolerates.\nclose observation/monitoring\n\n', 'event': ['Pain', 'Excretion', 'Sleep', 'Pain', 'Family', 'Eating', 'Excretion', 'Pain', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8', 'e9'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "status post imi",\n            "attribute_value": "true"\n        },\n        {\n            "attribute_name": "rcca stent",\n            "attribute_value": "true"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "it hurts when you press on the chest",\n            "actor": "patient",\n            "object": "chest",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "sharp",\n                    "location": "left shoulder and upper left chest",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "diuresed 1 liter after earlier lasix",\n            "actor": "patient",\n            "object": "urine",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "1 liter",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "patient fell asleep",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "pain migrated to center of chest and ? worse st depression",\n            "actor": "patient",\n            "object": "chest",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "worse",\n                    "location": "center of chest",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "daughter and wife all filled in as to plan of care and current plan",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "communication",\n                    "relation": "daughter and wife"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Eating",\n            "text_quote": "gi- taking food/lix without issues",\n            "actor": "patient",\n            "object": "food",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Excretion",\n            "text_quote": "small results on bedpan",\n            "actor": "patient",\n            "object": "stool",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "small",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Pain",\n            "text_quote": "pain relief with tylenol 650 qid rtc",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Sleep",\n            "text_quote": "patient asleep currently",\n            "actor": "patient",\n            "object": "Unknown",\n            "negation": false,\n            "time": "2:30",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "before",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e6",\n            "relation": "before",\n            "event_id_2": "e7"\n        },\n        {\n            "event_id_1": "e7",\n            "relation": "before",\n            "event_id_2": "e8"\n        },\n        {\n            "event_id_1": "e8",\n            "relation": "before",\n            "event_id_2": "e9"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'sharp', 'location': 'left shoulder and upper left chest', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1 liter', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'worse', 'location': 'center of chest', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'daughter and wife'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'small', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'before', 'event_id_2': 'e8'}, {'event_id_1': 'e8', 'relation': 'before', 'event_id_2': 'e9'}]], 'text_quotes': ['it hurts when you press on the chest', 'diuresed 1 liter after earlier lasix', 'patient fell asleep', 'pain migrated to center of chest and ? worse st depression', 'daughter and wife all filled in as to plan of care and current plan', 'gi- taking food/lix without issues', 'small results on bedpan', 'pain relief with tylenol 650 qid rtc', 'patient asleep currently'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', '2:30'], 'negation': [False, False, False, False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-04-04 06:13:00 and 2151-04-04 06:29:00):\n           ccu nsg progress note 7p-7a/ status post imi; rcca stent\n\ns- " it hurts when you press on the chset.."\n\no- see flowsheet for objective data\n\n[**name (ni) 79**] patient with increased aflutter/atachy with rate- 55-65, 1 st degree avb and bp borderline with maps 55-60. given 250 normal saline bolus with no change. diuresed 1 liter after earlier lasix and captopril 6.25 given for maps&gt; 60. by 9:30-10p, bp remains with maps barely 60 and patient also c/o "sharp" pain in the left shoulder and upper left chest- much worse with pressure- r/o ? muscular skeletal- serial ekg\'s revealing st depression anteriorly, but no change from previous\npatient treated with dopa 5 mcg for bp and with mso4/tylenol for pain.\ncv fellow in to assess and echo revealed good wall motion anteriorly.\npatient fell asleep, but continue to ring light to say pain was not gone.\nattempted more mso04 x 2 mg, repeat ekg\'s , cycling cpks- ( all trending down currently) and cv fellow back in to reassess.\npain migrated to center of chest and ? worse st depression.\nattempted tng/heparin/more mso4- 2 mg x 2 for total 8 mg and d/c dopa\npain totally unchanged after ms04/tng/heparin and ekg results vague\necho #2 by cv fellow unchanged from previous and attending consulted re: ? possible return to cath lab for relook/possible iabp.\npatient restarted on dopa and tng d/c d/t drifting down of bp again after meds. of note, pain also reproduced and much worse with change of position- rolling to left as well as pressing on chest wall.\npericardial rub ausculated and it was determined source of pain to be pericarditis.\nrepeat tylenol at 2:30 and patient asleep currently\nstat labs drwan 11p revealed nml lytes, cpk trending down, but\nhct 28.5. currently receiving 1 u prbc.\n\n[**name (ni) 81**] patient with strong cough, producing greenish sputum- unable to catch\nin spec cup.\noxygen saturation 99%- 3 l np- no problems with oxygenation.\nsome increased jvd- unable to re-diurese d/t borderline bp.\n\nid- afebrile\n\ngi- taking food/lix without issues\n(+) bowel sounds.\nsmall results on bedpan\n\nheme- see above\n\nms/social- daughter and wife [**name (ni) 3173**] all filled in as to plan of care and current plan\ndaughter called 12a, 6a and informed of new pain since they left and dx of pericarditis.\n\na/[**name (ni) **] patient status post rca stent/mi/recent iabp d/c- developing hypotension/afib/pericariditis\n\nrepsonding to pain meds/antiinflammatories\n\ncontinue to attempt to wean dopa as tolerated.\ncheck 8 am ptt on heparin drops.\ncontinue to cycle cpk\'s.\npain relief with tylenol 650 qid rtc.\nkeep patient and family aware of plan of care\nsputum spec as able to obtain- am cxr\nincrease activity as patient tolerates.\nclose observation/monitoring\n\n\n        ', 'case_attributes': [[{'attribute_name': 'status post imi', 'attribute_value': 'true'}, {'attribute_name': 'rcca stent', 'attribute_value': 'true'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 40.07159873796627}</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>patient fell asleep</t>
         </is>
       </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>[True, False]</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>['patient fell asleep', 'patient asleep currently']</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Sleep', 'Pain', 'Family', 'Eating', 'Excretion', 'Pain', 'Sleep']</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'sharp', 'location': 'left shoulder and upper left chest', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '1 liter', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'worse', 'location': 'center of chest', 'duration': 'Unknown'}}}, {'Family': {'Family': {'interaction': 'communication', 'relation': 'daughter and wife'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'small', 'quality': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>['it hurts when you press on the chest', 'diuresed 1 liter after earlier lasix', 'patient fell asleep', 'pain migrated to center of chest and ? worse st depression', 'daughter and wife all filled in as to plan of care and current plan', 'gi- taking food/lix without issues', 'small results on bedpan', 'pain relief with tylenol 650 qid rtc', 'patient asleep currently']</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>['e1=Pain|0:it hurts when you press on the chest', 'e2=Excretion|1:diuresed 1 liter after earlier lasix', 'e3=Sleep|1:patient fell asleep', 'e4=Pain|1:pain migrated to center of chest and ? worse st depression', 'e5=Family|0:daughter and wife all filled in as to plan of care and current plan', 'e6=Eating|1:gi- taking food/lix without issues', 'e7=Excretion|1:small results on bedpan', 'e8=Pain|1:pain relief with tylenol 650 qid rtc', 'e9=Sleep|1:patient asleep currently']</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'before', 'event_id_2': 'e8'}, {'event_id_1': 'e8', 'relation': 'before', 'event_id_2': 'e9'}]]</t>
         </is>
@@ -4982,56 +5502,66 @@
       <c r="E53" t="n">
         <v>1</v>
       </c>
-      <c r="F53" t="n">
-        <v>1</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-07 04:03:00'), Timestamp('2151-05-07 04:28:00'))</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>{'text': "patient. awakens easily; c/o pain with minimal repositioning. medicated with mso4 2mg at a time as long as bp tol. sleeping well in between doses.\nremains on milrinone @ .25. ci improved from 1.8 after large volume transfusions. mixed venous sat 54% prior to transfusions. a-paced for bp due to varying sinus rate 58-88. neo being weaned as tol. max. dose 1.5 last evening.\nclear bs. o2 changed from 100% nrb to nasal prongs @ 4l; sao2 100%. chest tubes continue to average 100/h.\nnpo except for minimal ice chips.\nvoiding qs.\n\nheme: patient's hct 21.7 after one unit; down from 28. 2 u prbc's given check hct after transfusion fusion. ffp and plta given also.\n\nplan: continue to monitor chest drng and hct's. wean neo as tol. glocose management as needed;\nmed. for pain as bp allows.\n\n\n\n", 'event': ['Pain', 'Sleep', 'Excretion', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o pain with minimal repositioning",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "minimal",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "sleeping well in between doses",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "medication (mso4)",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "well",\n                    "duration": "in between doses"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "voiding qs",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "qs",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "npo except for minimal ice chips",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "ice chips",\n                    "amount": "minimal",\n                    "method": "oral"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "after",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'minimal', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'well', 'duration': 'in between doses'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'qs', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ice chips', 'amount': 'minimal', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['c/o pain with minimal repositioning', 'sleeping well in between doses', 'voiding qs', 'npo except for minimal ice chips'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True], 'caused_by': ['Unknown', 'medication (mso4)', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-07 04:03:00 and 2151-05-07 04:28:00):\n           patient. awakens easily; c/o pain with minimal repositioning. medicated with mso4 2mg at a time as long as bp tol. sleeping well in between doses.\nremains on milrinone @ .25. ci improved from 1.8 after large volume transfusions. mixed venous sat 54% prior to transfusions. a-paced for bp due to varying sinus rate 58-88. neo being weaned as tol. max. dose 1.5 last evening.\nclear bs. o2 changed from 100% nrb to nasal prongs @ 4l; sao2 100%. chest tubes continue to average 100/h.\nnpo except for minimal ice chips.\nvoiding qs.\n\nheme: patient\'s hct 21.7 after one unit; down from 28. 2 u prbc\'s given check hct after transfusion fusion. ffp and plta given also.\n\nplan: continue to monitor chest drng and hct\'s. wean neo as tol. glocose management as needed;\nmed. for pain as bp allows.\n\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 15.781878619920462}</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>sleeping well in between doses</t>
         </is>
       </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>['sleeping well in between doses']</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'well', 'duration': 'in between doses'}}}]</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Eating']</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'minimal', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'well', 'duration': 'in between doses'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'qs', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'ice chips', 'amount': 'minimal', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>['c/o pain with minimal repositioning', 'sleeping well in between doses', 'voiding qs', 'npo except for minimal ice chips']</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o pain with minimal repositioning', 'e2=Sleep|1:sleeping well in between doses', 'e3=Excretion|1:voiding qs', 'e4=Eating|1:npo except for minimal ice chips']</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -5063,56 +5593,66 @@
       <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54" t="n">
-        <v>0</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-08 06:19:00'), Timestamp('2151-05-08 06:28:00'))</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>{'text': "neuro;  awake most of night.  a&amp;ox3.  not episodes of anxiety.\ncv:  in and out of af at biginning of shift rate 80-110.  ci 1.2-1.4.  on amio drops.  neo restarted for bp 80's.  milrinone restarted .25mcg converted to sb 50's.  bp improved able to shut off neo.  ci still 1.5.  milrinone increased 0.4mcg and patient [**name (ni) **] 70.  ci 2.23 after 2hr with milrinone at 0.4mcg.  milrinone decreased to 0.25mcg per dr. [**last name (stitle) 2791**]. ci this am 1.96.  sv02 60.  cont apace 70. underlying sb 50-60. bp 110-135/60.  ct output 20-50cc/hr\nresp:  po2 60's on 4lnc with oxygen saturation 97%.  o2 increased 6l nc.  po2 70's sats 100%.  lungs dim at base.  [**first name9 (namepattern2) 3176**] [**location (un) 21**] with encouragement.  weak cough.\ngi/gu:  u/o gd overnight after pm lasix.  starting to taper off this am.  taking clears overnight. no c/o nausea.\npain:  medicated percocet 2 tabs this am with releif sternal inc pain.\nplan:  cont assess cardio/resp status.  pulm tlt.  medicate pain med pro re nata.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "awake most of night",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "most of night"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "medicated percocet 2 tabs this am with releif sternal inc pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "this am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": " Unknown",\n                    "location": "sternal inc",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "u/o gd overnight after pm lasix",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "good",\n                    "quality": " Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "taking clears overnight",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "clears",\n                    "amount": " Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "[**first name9 (namepattern2) 3176**] [**location (un) 21**] with encouragement",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "encouragement",\n                    "relation": " Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': ' Unknown', 'location': 'sternal inc', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': ' Unknown'}}}, {'Eating': {'Eating': {'food': 'clears', 'amount': ' Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'encouragement', 'relation': ' Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['awake most of night', 'medicated percocet 2 tabs this am with releif sternal inc pain', 'u/o gd overnight after pm lasix', 'taking clears overnight', '[**first name9 (namepattern2) 3176**] [**location (un) 21**] with encouragement'], 'event_time': ['night', 'this am', 'overnight', 'overnight', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-08 06:19:00 and 2151-05-08 06:28:00):\n           neuro;  awake most of night.  a&amp;ox3.  not episodes of anxiety.\ncv:  in and out of af at biginning of shift rate 80-110.  ci 1.2-1.4.  on amio drops.  neo restarted for bp 80\'s.  milrinone restarted .25mcg converted to sb 50\'s.  bp improved able to shut off neo.  ci still 1.5.  milrinone increased 0.4mcg and patient [**name (ni) **] 70.  ci 2.23 after 2hr with milrinone at 0.4mcg.  milrinone decreased to 0.25mcg per dr. [**last name (stitle) 2791**]. ci this am 1.96.  sv02 60.  cont apace 70. underlying sb 50-60. bp 110-135/60.  ct output 20-50cc/hr\nresp:  po2 60\'s on 4lnc with oxygen saturation 97%.  o2 increased 6l nc.  po2 70\'s sats 100%.  lungs dim at base.  [**first name9 (namepattern2) 3176**] [**location (un) 21**] with encouragement.  weak cough.\ngi/gu:  u/o gd overnight after pm lasix.  starting to taper off this am.  taking clears overnight. no c/o nausea.\npain:  medicated percocet 2 tabs this am with releif sternal inc pain.\nplan:  cont assess cardio/resp status.  pulm tlt.  medicate pain med pro re nata.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 19.98355435905978}</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>awake most of night|</t>
         </is>
       </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>['awake most of night']</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="N54" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'most of night'}}}]</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'most of night'}}}, {'Pain': {'Pain': {'severity': ' Unknown', 'location': 'sternal inc', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good', 'quality': ' Unknown'}}}, {'Eating': {'Eating': {'food': 'clears', 'amount': ' Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'encouragement', 'relation': ' Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>['awake most of night', 'medicated percocet 2 tabs this am with releif sternal inc pain', 'u/o gd overnight after pm lasix', 'taking clears overnight', '[**first name9 (namepattern2) 3176**] [**location (un) 21**] with encouragement']</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:awake most of night', 'e2=Pain|1:medicated percocet 2 tabs this am with releif sternal inc pain', 'e3=Excretion|1:u/o gd overnight after pm lasix', 'e4=Eating|1:taking clears overnight', 'e5=Family|1:[**first name9 (namepattern2) 3176**] [**location (un) 21**] with encouragement']</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5139,56 +5679,66 @@
       <c r="E55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" t="n">
-        <v>1</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-09 01:45:00'), Timestamp('2151-05-09 01:49:00'))</t>
+        </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
+          <t>{'text': "patient into afib approx. 1am, ci approx. 2.1 with svr in the 1800's, rate 90-100's, called [**name8 (md) **] md 150mg amiodarone bolus to be given, rn suggested to increase captopril in am, to unload more as well. k 4.1  20meq kcl , also ca nornal, plan to check mag level. u/o down to 50cc last hr. [**name6 (md) **] [**name8 (md) 3177**] md given 20mg lasix iv. will continue to follow ci/afib . bs treated with ssinsulin 3u. for bs 131.. patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm....\n", 'event': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Excretion', 'Unknown', 'Eating', 'Sleep', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8', 'e9'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Unknown",\n            "text_quote": "patient into afib approx. 1am",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "1am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Unknown",\n            "text_quote": "ci approx. 2.1 with svr in the 1800\'s, rate 90-100\'s",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Unknown",\n            "text_quote": "called [**name8 (md) **] md 150mg amiodarone bolus to be given",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Unknown",\n            "text_quote": "rn suggested to increase captopril in am, to unload more as well",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "u/o down to 50cc last hr",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "last hour",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "down to 50cc last hr"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "[**name8 (md) **] [**name6 (md) **] md given 20mg lasix iv",\n            "actor": "others",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Eating",\n            "text_quote": "bs treated with ssinsulin 3u. for bs 131",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "insulin",\n                    "amount": "3u"\n                }\n            }\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Sleep",\n            "text_quote": "patient turned dumped 100cc serosang, reassured back to sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "reassured back to sleep"\n                }\n            }\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Unknown",\n            "text_quote": "continues to rest, calm.., when awaken needs to be reoriented to time",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "before",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e6",\n            "relation": "before",\n            "event_id_2": "e7"\n        },\n        {\n            "event_id_1": "e7",\n            "relation": "before",\n            "event_id_2": "e8"\n        },\n        {\n            "event_id_1": "e8",\n            "relation": "before",\n            "event_id_2": "e9"\n        }\n    ]\n}', 'attributes': [{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'down to 50cc last hr'}}}, {'Unknown': {}}, {'Eating': {'Eating': {'food': 'insulin', 'amount': '3u'}}}, {'Sleep': {'Sleep': {'quality': 'reassured back to sleep'}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'before', 'event_id_2': 'e8'}, {'event_id_1': 'e8', 'relation': 'before', 'event_id_2': 'e9'}]], 'text_quotes': ['patient into afib approx. 1am', "ci approx. 2.1 with svr in the 1800's, rate 90-100's", 'called [**name8 (md) **] md 150mg amiodarone bolus to be given', 'rn suggested to increase captopril in am, to unload more as well', 'u/o down to 50cc last hr', '[**name8 (md) **] [**name6 (md) **] md given 20mg lasix iv', 'bs treated with ssinsulin 3u. for bs 131', 'patient turned dumped 100cc serosang, reassured back to sleep', 'continues to rest, calm.., when awaken needs to be reoriented to time'], 'event_time': ['1am', 'Unknown', 'Unknown', 'am', 'last hour', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-09 01:45:00 and 2151-05-09 01:49:00):\n           patient into afib approx. 1am, ci approx. 2.1 with svr in the 1800\'s, rate 90-100\'s, called [**name8 (md) **] md 150mg amiodarone bolus to be given, rn suggested to increase captopril in am, to unload more as well. k 4.1  20meq kcl , also ca nornal, plan to check mag level. u/o down to 50cc last hr. [**name6 (md) **] [**name8 (md) 3177**] md given 20mg lasix iv. will continue to follow ci/afib . bs treated with ssinsulin 3u. for bs 131.. patient turned dumped 100cc serosang, reassured back to sleep, continues to rest, calm.., when awaken needs to be reoriented to time, patien tcooperative/calm....\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'others', 'others', 'patient', 'others', 'patient', 'patient', 'patient'], 'event_detection_time': 33.47542398306541}</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>back to sleep</t>
         </is>
       </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>['patient turned dumped 100cc serosang, reassured back to sleep']</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="N55" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'reassured back to sleep'}}}]</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Excretion', 'Unknown', 'Eating', 'Sleep', 'Unknown']</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>[{'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'down to 50cc last hr'}}}, {'Unknown': {}}, {'Eating': {'Eating': {'food': 'insulin', 'amount': '3u'}}}, {'Sleep': {'Sleep': {'quality': 'reassured back to sleep'}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>['patient into afib approx. 1am', "ci approx. 2.1 with svr in the 1800's, rate 90-100's", 'called [**name8 (md) **] md 150mg amiodarone bolus to be given', 'rn suggested to increase captopril in am, to unload more as well', 'u/o down to 50cc last hr', '[**name8 (md) **] [**name6 (md) **] md given 20mg lasix iv', 'bs treated with ssinsulin 3u. for bs 131', 'patient turned dumped 100cc serosang, reassured back to sleep', 'continues to rest, calm.., when awaken needs to be reoriented to time']</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>['e1=Unknown|1:patient into afib approx. 1am', "e2=Unknown|1:ci approx. 2.1 with svr in the 1800's, rate 90-100's", 'e3=Unknown|1:called [**name8 (md) **] md 150mg amiodarone bolus to be given', 'e4=Unknown|1:rn suggested to increase captopril in am, to unload more as well', 'e5=Excretion|1:u/o down to 50cc last hr', 'e6=Unknown|0:[**name8 (md) **] [**name6 (md) **] md given 20mg lasix iv', 'e7=Eating|1:bs treated with ssinsulin 3u. for bs 131', 'e8=Sleep|1:patient turned dumped 100cc serosang, reassured back to sleep', 'e9=Unknown|1:continues to rest, calm.., when awaken needs to be reoriented to time']</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'before', 'event_id_2': 'e7'}, {'event_id_1': 'e7', 'relation': 'before', 'event_id_2': 'e8'}, {'event_id_1': 'e8', 'relation': 'before', 'event_id_2': 'e9'}]]</t>
         </is>
@@ -5215,56 +5765,66 @@
       <c r="E56" t="n">
         <v>1</v>
       </c>
-      <c r="F56" t="n">
-        <v>1</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-09 05:10:00'), Timestamp('2151-05-09 05:14:00'))</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>{'text': 'patient with good night sleep, calm, no ativan given at 5am with bathe 2 percocet given, ci hovering at 2 with afib/ apacedat 80, increase captopril this am for better afterload, on nights k/ca replaced am labs now pending. bilateral bs clear with decreasecat bases, patient doing well with deep breathing exrecises. ace wraps from legs removed strenum dsg d/i ??? removal today ??? d/c ct today. laisx total of 60mg given thru the night with good results.. milrone remains at .125mcg/kg/min.. amiodarone at .5mg/min. ?? change to by mouth amiodarone medicate pro re nata for pain/anxiety...\n', 'event': ['Sleep', 'Pain', 'Eating', 'Excretion', 'Family', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8', 'e9', 'e10'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient with good night sleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "pain/anxiety",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "bilateral bs clear with decreasecat bases, patient doing well with deep breathing exrecises.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Unknown",\n            "text_quote": "ace wraps from legs removed strenum dsg d/i ??? removal today ??? d/c ct today.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Unknown",\n            "text_quote": "laisx total of 60mg given thru the night with good results.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Unknown",\n            "text_quote": "milrone remains at .125mcg/kg/min.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Unknown",\n            "text_quote": "amiodarone at .5mg/min.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": []\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good'}}}, {'Pain': {'Pain': {'severity': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Excretion': {'Excretion': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[]], 'text_quotes': ['patient with good night sleep', 'pain/anxiety', '', '', '', 'bilateral bs clear with decreasecat bases, patient doing well with deep breathing exrecises.', 'ace wraps from legs removed strenum dsg d/i ??? removal today ??? d/c ct today.', 'laisx total of 60mg given thru the night with good results.', 'milrone remains at .125mcg/kg/min.', 'amiodarone at .5mg/min.'], 'event_time': ['night', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'night', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-09 05:10:00 and 2151-05-09 05:14:00):\n           patient with good night sleep, calm, no ativan given at 5am with bathe 2 percocet given, ci hovering at 2 with afib/ apacedat 80, increase captopril this am for better afterload, on nights k/ca replaced am labs now pending. bilateral bs clear with decreasecat bases, patient doing well with deep breathing exrecises. ace wraps from legs removed strenum dsg d/i ??? removal today ??? d/c ct today. laisx total of 60mg given thru the night with good results.. milrone remains at .125mcg/kg/min.. amiodarone at .5mg/min. ?? change to by mouth amiodarone medicate pro re nata for pain/anxiety...\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 25.75574522605166}</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>good night sleep</t>
         </is>
       </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>['patient with good night sleep']</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="N56" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good'}}}]</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Eating', 'Excretion', 'Family', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good'}}}, {'Pain': {'Pain': {'severity': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Excretion': {'Excretion': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>['patient with good night sleep', 'pain/anxiety', '', '', '', 'bilateral bs clear with decreasecat bases, patient doing well with deep breathing exrecises.', 'ace wraps from legs removed strenum dsg d/i ??? removal today ??? d/c ct today.', 'laisx total of 60mg given thru the night with good results.', 'milrone remains at .125mcg/kg/min.', 'amiodarone at .5mg/min.']</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient with good night sleep', 'e2=Pain|1:pain/anxiety', 'e3=Eating|1:', 'e4=Excretion|1:', 'e5=Family|1:', 'e6=Unknown|1:bilateral bs clear with decreasecat bases, patient doing well with deep breathing exrecises.', 'e7=Unknown|1:ace wraps from legs removed strenum dsg d/i ??? removal today ??? d/c ct today.', 'e8=Unknown|1:laisx total of 60mg given thru the night with good results.', 'e9=Unknown|1:milrone remains at .125mcg/kg/min.', 'e10=Unknown|1:amiodarone at .5mg/min.']</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>[[]]</t>
         </is>
@@ -5291,56 +5851,66 @@
       <c r="E57" t="n">
         <v>1</v>
       </c>
-      <c r="F57" t="n">
-        <v>1</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-10 04:08:00'), Timestamp('2151-05-10 04:11:00'))</t>
+        </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
+          <t>{'text': "patient sleeping fairly well despite activity in the room, offered to give ativan .5mg repeat patient stated he did not need it, fell back to sleep. per [** 3177**] at mn milirone dcd, ci at at 3am just 2.0 ??? in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]. am labs pending. k/ca replaced... patient with no complaints of pain.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "patient sleeping fairly well despite activity in the room, fell back to sleep.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "fairly well"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "patient with no complaints of pain.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "k/ca replaced...",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "offered to give ativan .5mg repeat patient stated he did not need it, per [** 3177**] at mn milirone dcd, ci at at 3am just 2.0 ??? in crease captopril dose while sleeping bp in the 80\'s .. goood response from [** **]. am labs pending.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e6",\n            "relation": "after",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Pain': {'Pain': {}}}, {'Excretion': {'Excretion': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'after', 'event_id_2': 'e2'}]], 'text_quotes': ['patient sleeping fairly well despite activity in the room, fell back to sleep.', 'patient with no complaints of pain.', 'k/ca replaced...', '', '', "offered to give ativan .5mg repeat patient stated he did not need it, per [** 3177**] at mn milirone dcd, ci at at 3am just 2.0 ??? in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]. am labs pending."], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-10 04:08:00 and 2151-05-10 04:11:00):\n           patient sleeping fairly well despite activity in the room, offered to give ativan .5mg repeat patient stated he did not need it, fell back to sleep. per [** 3177**] at mn milirone dcd, ci at at 3am just 2.0 ??? in crease captopril dose while sleeping bp in the 80\'s .. goood response from [** **]. am labs pending. k/ca replaced... patient with no complaints of pain.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.60163307096809}</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
           <t xml:space="preserve">sleeping fairly well|fell back to sleep|while sleeping </t>
         </is>
       </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>['patient sleeping fairly well despite activity in the room, fell back to sleep.']</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="N57" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}]</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating', 'Family', 'Unknown']</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'fairly well'}}}, {'Pain': {'Pain': {}}}, {'Excretion': {'Excretion': {}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>['patient sleeping fairly well despite activity in the room, fell back to sleep.', 'patient with no complaints of pain.', 'k/ca replaced...', '', '', "offered to give ativan .5mg repeat patient stated he did not need it, per [** 3177**] at mn milirone dcd, ci at at 3am just 2.0 ??? in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]. am labs pending."]</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>['e1=Sleep|0:patient sleeping fairly well despite activity in the room, fell back to sleep.', 'e2=Pain|1:patient with no complaints of pain.', 'e3=Excretion|1:k/ca replaced...', 'e4=Eating|1:', 'e5=Family|1:', "e6=Unknown|0:offered to give ativan .5mg repeat patient stated he did not need it, per [** 3177**] at mn milirone dcd, ci at at 3am just 2.0 ??? in crease captopril dose while sleeping bp in the 80's .. goood response from [** **]. am labs pending."]</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e6', 'relation': 'after', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -5374,56 +5944,66 @@
       <c r="E58" t="n">
         <v>1</v>
       </c>
-      <c r="F58" t="n">
-        <v>1</v>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>(Timestamp('2151-05-11 06:40:00'), Timestamp('2151-05-11 06:47:00'))</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
+          <t>{'text': "neuro: a+ox3. mae, pleasant. gave 1mg by mouth ativan for sleep. good effect.\n\ncv: stable hr/bp. good ci's off milrinone. nsr 70-80. no afib. palpable distal pulses.\n\nresp: lungs are clear with diminished r base. spo2&gt;95%.\n\ngu: foley to gravity. good diurese with iv [** **].\n\ngi: soft abd, +bs, 1 med brn formed bm.\n\naccess: d/c'd swann, and aline. 20g [**first name9 (namepattern2) 747**] [**last name (un) **].\n\nassess: hemodynamically stable.\n\nplan: [**hospital **] transfer to floor today.\n", 'event': ['Sleep', 'Excretion', 'Eating', 'Pain', 'Family', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "gave 1mg by mouth ativan for sleep. good effect.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "gu: foley to gravity. good diurese with iv [** **].",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "good diurese"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Excretion",\n            "text_quote": "gi: soft abd, +bs, 1 med brn formed bm.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e6"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good diurese'}}}, {'Eating': {'Eating': {}}}, {'Pain': {'Pain': {}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {'type': 'stool'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]], 'text_quotes': ['gave 1mg by mouth ativan for sleep. good effect.', 'gu: foley to gravity. good diurese with iv [** **].', '', '', '', 'gi: soft abd, +bs, 1 med brn formed bm.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, True, True, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2151-05-11 06:40:00 and 2151-05-11 06:47:00):\n           neuro: a+ox3. mae, pleasant. gave 1mg by mouth ativan for sleep. good effect.\n\ncv: stable hr/bp. good ci\'s off milrinone. nsr 70-80. no afib. palpable distal pulses.\n\nresp: lungs are clear with diminished r base. spo2&gt;95%.\n\ngu: foley to gravity. good diurese with iv [** **].\n\ngi: soft abd, +bs, 1 med brn formed bm.\n\naccess: d/c\'d swann, and aline. 20g [**first name9 (namepattern2) 747**] [**last name (un) **].\n\nassess: hemodynamically stable.\n\nplan: [**hospital **] transfer to floor today.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.41285578091629}</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>ativan for sleep. good effect.</t>
         </is>
       </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>['gave 1mg by mouth ativan for sleep. good effect.']</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good'}}}]</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Eating', 'Pain', 'Family', 'Excretion']</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'good diurese'}}}, {'Eating': {'Eating': {}}}, {'Pain': {'Pain': {}}}, {'Family': {'Family': {}}}, {'Excretion': {'Excretion': {'type': 'stool'}}}]</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>['gave 1mg by mouth ativan for sleep. good effect.', 'gu: foley to gravity. good diurese with iv [** **].', '', '', '', 'gi: soft abd, +bs, 1 med brn formed bm.']</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:gave 1mg by mouth ativan for sleep. good effect.', 'e2=Excretion|1:gu: foley to gravity. good diurese with iv [** **].', 'e3=Eating|1:', 'e4=Pain|1:', 'e5=Family|1:', 'e6=Excretion|1:gi: soft abd, +bs, 1 med brn formed bm.']</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e6'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -5461,56 +6041,66 @@
       <c r="E59" t="n">
         <v>1</v>
       </c>
-      <c r="F59" t="n">
-        <v>1</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-12 03:01:00'), Timestamp('2183-03-12 03:31:00'))</t>
+        </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
+          <t>{'text': 'ccu nursing progress note 1900-0700: 3vd, preop cabg\ns-" am i getting a sleeping pill tonight."\n\nsee carevues for vs and objective data\n\no-ms: a/o/x/3. very pleasant. appearing relaxed before surgery and asking appropriate questions. obeying and following commands. ativan 0.5mg by mouth given at hs and sleeping throughout night. maes.\n\ncv/heme: hr 50s to 70s. sb to nsr with no noted ectopy. sbps 100s to 130s. heparing and nitro conitnued overngiht. heparing at 550u/hr with therepeautic ptt. nitro at 0.13mcg/kg/min. denies cp. 1uprbcs transfused without incident into evening shift. repeat hct 2hrs post 31. hib scrub given last night. octor this am.\n\nresp: ls clear and dim at bases. denies sob. o2sats &gt; 95% on 4lnp. n\n\ngu/gi: foley draining cyu. huos trending down (+) for day. diuresed post transfusion with 40mg of lasix ivp. (-) 1.5ls into mn. abd soft with (+) bss. tolerating pos well. npo after mn.\n\nendo: fs qid. fs wnl. slscl coverage if needed.\n\nid: low grade temps. continues by mouth cipro for uti.\n\nsoc: daughter visiting on [**last name (lf) 3085**], [**first name3 (lf) **] [**name (ni) 718**] hcp and to be notified if case of emergency. number in chart.\n\na/p: status post ami with 3vd\ncabg this am\n', 'event': ['Sleep', 'Eating', 'Family', 'Pain', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "status post ami with 3vd"\n        },\n        {\n            "attribute_name": "cabg scheduled for this morning"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleeping throughout night",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "night",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "good",\n                    "duration": "throughout the night"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Eating",\n            "text_quote": "npo after mn",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "after morning",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "nothing by mouth",\n                    "amount": "none",\n                    "method": "npo"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Family",\n            "text_quote": "daughter visiting on [**last name (lf) 3085**], [**first name3 (lf) **] [**name (ni) 718**] hcp and to be notified if case of emergency",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "daughter"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Pain",\n            "text_quote": "denies cp",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "none",\n                    "location": "chest",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "foley draining cyu",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": " Unknown",\n                    "quality": " Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'throughout the night'}}}, {'Eating': {'Eating': {'food': 'nothing by mouth', 'amount': 'none', 'method': 'npo'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'chest', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': ' Unknown', 'quality': ' Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['sleeping throughout night', 'npo after mn', 'daughter visiting on [**last name (lf) 3085**], [**first name3 (lf) **] [**name (ni) 718**] hcp and to be notified if case of emergency', 'denies cp', 'foley draining cyu'], 'event_time': ['night', 'after morning', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, True, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-12 03:01:00 and 2183-03-12 03:31:00):\n           ccu nursing progress note 1900-0700: 3vd, preop cabg\ns-" am i getting a sleeping pill tonight."\n\nsee carevues for vs and objective data\n\no-ms: a/o/x/3. very pleasant. appearing relaxed before surgery and asking appropriate questions. obeying and following commands. ativan 0.5mg by mouth given at hs and sleeping throughout night. maes.\n\ncv/heme: hr 50s to 70s. sb to nsr with no noted ectopy. sbps 100s to 130s. heparing and nitro conitnued overngiht. heparing at 550u/hr with therepeautic ptt. nitro at 0.13mcg/kg/min. denies cp. 1uprbcs transfused without incident into evening shift. repeat hct 2hrs post 31. hib scrub given last night. octor this am.\n\nresp: ls clear and dim at bases. denies sob. o2sats &gt; 95% on 4lnp. n\n\ngu/gi: foley draining cyu. huos trending down (+) for day. diuresed post transfusion with 40mg of lasix ivp. (-) 1.5ls into mn. abd soft with (+) bss. tolerating pos well. npo after mn.\n\nendo: fs qid. fs wnl. slscl coverage if needed.\n\nid: low grade temps. continues by mouth cipro for uti.\n\nsoc: daughter visiting on [**last name (lf) 3085**], [**first name3 (lf) **] [**name (ni) 718**] hcp and to be notified if case of emergency. number in chart.\n\na/p: status post ami with 3vd\ncabg this am\n\n        ', 'case_attributes': [[{'attribute_name': 'status post ami with 3vd'}, {'attribute_name': 'cabg scheduled for this morning'}]], 'actor': ['patient', 'patient', 'family member', 'patient', 'patient'], 'event_detection_time': 20.969706926029176}</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>sleeping throughout night</t>
         </is>
       </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>['sleeping throughout night']</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'throughout the night'}}}]</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>['Sleep', 'Eating', 'Family', 'Pain', 'Excretion']</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'good', 'duration': 'throughout the night'}}}, {'Eating': {'Eating': {'food': 'nothing by mouth', 'amount': 'none', 'method': 'npo'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'daughter'}}}, {'Pain': {'Pain': {'severity': 'none', 'location': 'chest', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': ' Unknown', 'quality': ' Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>['sleeping throughout night', 'npo after mn', 'daughter visiting on [**last name (lf) 3085**], [**first name3 (lf) **] [**name (ni) 718**] hcp and to be notified if case of emergency', 'denies cp', 'foley draining cyu']</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleeping throughout night', 'e2=Eating|1:npo after mn', 'e3=Family|1:daughter visiting on [**last name (lf) 3085**], [**first name3 (lf) **] [**name (ni) 718**] hcp and to be notified if case of emergency', 'e4=Pain|1:denies cp', 'e5=Excretion|1:foley draining cyu']</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5548,56 +6138,66 @@
       <c r="E60" t="n">
         <v>1</v>
       </c>
-      <c r="F60" t="n">
-        <v>1</v>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-13 18:05:00'), Timestamp('2183-03-13 18:31:00'))</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
+          <t>{'text': "npn:\n\nneuro: alert and oriented to place, [**doctor first name 184**] and month most of time..this eve sl confused. c/o incisional as well as back pain-will restart neurontin. mae..with equal strength. dozing intermittently but needs frequent reminders re operation. very restless at times.\ncv: 70-80's nsr with occ apc's..now apaced at 92 for co. attempted to wean epi to .015 in am with decreased ci &lt; 1.7 and svo2 55..returned  to .03. cont to require sm doses of neo to keep map&gt; 60. k repleted. treated with 1u prbc's-post hct 30.  palp pedal pulses. 2+ edema.  ci&gt; 2.2 so epi again decreased to .015 at 1700 with a paced hr at 92 with ci&gt;2.1 pa pressures -keep @ 35-40/15-20\nresp: patient was extubated @ 7am with good post abg. sats&gt; 98% though patient with frequent c/o not being able to breath with rr 16-20 with sats 96-100% on 4l nc o2. lungs diminished bases. ct/mt to sxn without airleak-draining 20-70cc/hr serosang. cough fair-nonprod.\ngi: ogt dc'd with extub- abd softly distended and round, +bs, + belching..treated withh reglan 10 iv x2. tol sm amts clears.\ngu: foley to gd with stable cr .8. uo decreased mid am -sl improvement with pc's but given 20 iv with good diuresis.\nendo: remains on insulin drops per ct protocol-see flowshheet.\nactivity: turned and repositioned side to side frequently-patient very restless and fidgety.\ncomfort: medicated with mso4 2mg q 1-2 hrs-attempted using percocet but ? relief --frequently c/o chest incisional/ct pain as well as back pain.\nincisions: sternal dressing d/i with old staining. ct/mt-d/t with sm st. l leg ace wrap changed -incision c/d -no dng-jp intact.\na: ci presently&gt; 2 with epi wean, keep pa pressures @ 40/20\np: attempt to wean epi overnight if ci remains &gt; 2. [**month (only) 22**] need further volume- ? another unit pc's, medicated for pain frequently--reorient pro re nata. enc c and db.\n", 'event': ['Pain', 'Sleep', 'Pain', 'Excretion', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "c/o incisional as well as back pain-will restart neurontin.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "incisional and back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "dozing intermittently but needs frequent reminders re operation.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "intermittent"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "frequently c/o chest incisional/ct pain as well as back pain.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "chest incisional and back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "uo decreased mid am -sl improvement with pc\'s but given 20 iv with good diuresis.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "decreased",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "tol sm amts clears.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "small amounts",\n                    "amount": "small",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'incisional and back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest incisional and back', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'decreased', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'small amounts', 'amount': 'small', 'method': 'oral'}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]], 'text_quotes': ['c/o incisional as well as back pain-will restart neurontin.', 'dozing intermittently but needs frequent reminders re operation.', 'frequently c/o chest incisional/ct pain as well as back pain.', "uo decreased mid am -sl improvement with pc's but given 20 iv with good diuresis.", 'tol sm amts clears.', ''], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-13 18:05:00 and 2183-03-13 18:31:00):\n           npn:\n\nneuro: alert and oriented to place, [**doctor first name 184**] and month most of time..this eve sl confused. c/o incisional as well as back pain-will restart neurontin. mae..with equal strength. dozing intermittently but needs frequent reminders re operation. very restless at times.\ncv: 70-80\'s nsr with occ apc\'s..now apaced at 92 for co. attempted to wean epi to .015 in am with decreased ci &lt; 1.7 and svo2 55..returned  to .03. cont to require sm doses of neo to keep map&gt; 60. k repleted. treated with 1u prbc\'s-post hct 30.  palp pedal pulses. 2+ edema.  ci&gt; 2.2 so epi again decreased to .015 at 1700 with a paced hr at 92 with ci&gt;2.1 pa pressures -keep @ 35-40/15-20\nresp: patient was extubated @ 7am with good post abg. sats&gt; 98% though patient with frequent c/o not being able to breath with rr 16-20 with sats 96-100% on 4l nc o2. lungs diminished bases. ct/mt to sxn without airleak-draining 20-70cc/hr serosang. cough fair-nonprod.\ngi: ogt dc\'d with extub- abd softly distended and round, +bs, + belching..treated withh reglan 10 iv x2. tol sm amts clears.\ngu: foley to gd with stable cr .8. uo decreased mid am -sl improvement with pc\'s but given 20 iv with good diuresis.\nendo: remains on insulin drops per ct protocol-see flowshheet.\nactivity: turned and repositioned side to side frequently-patient very restless and fidgety.\ncomfort: medicated with mso4 2mg q 1-2 hrs-attempted using percocet but ? relief --frequently c/o chest incisional/ct pain as well as back pain.\nincisions: sternal dressing d/i with old staining. ct/mt-d/t with sm st. l leg ace wrap changed -incision c/d -no dng-jp intact.\na: ci presently&gt; 2 with epi wean, keep pa pressures @ 40/20\np: attempt to wean epi overnight if ci remains &gt; 2. [**month (only) 22**] need further volume- ? another unit pc\'s, medicated for pain frequently--reorient pro re nata. enc c and db.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 22.62414307706058}</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>dozing intermittently</t>
         </is>
       </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="M60" t="inlineStr">
         <is>
           <t>['dozing intermittently but needs frequent reminders re operation.']</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Pain', 'Excretion', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'incisional and back', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'chest incisional and back', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'decreased', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'small amounts', 'amount': 'small', 'method': 'oral'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>['c/o incisional as well as back pain-will restart neurontin.', 'dozing intermittently but needs frequent reminders re operation.', 'frequently c/o chest incisional/ct pain as well as back pain.', "uo decreased mid am -sl improvement with pc's but given 20 iv with good diuresis.", 'tol sm amts clears.', '']</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>['e1=Pain|1:c/o incisional as well as back pain-will restart neurontin.', 'e2=Sleep|1:dozing intermittently but needs frequent reminders re operation.', 'e3=Pain|1:frequently c/o chest incisional/ct pain as well as back pain.', "e4=Excretion|1:uo decreased mid am -sl improvement with pc's but given 20 iv with good diuresis.", 'e5=Eating|1:tol sm amts clears.', 'e6=Family|1:']</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -5633,56 +6233,66 @@
       <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="F61" t="n">
-        <v>1</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-14 04:18:00'), Timestamp('2183-03-14 04:35:00'))</t>
+        </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>{'text': "csru update.\nneuro: patient restless/moaning aloud throughout the pm. cooperative to all care. follows commands. inconsistently able to state she's in the hospital or which year it is. maew in bed with good strength. converses appropriatly.\n\ncv: vs/hemos as per flowsheet. thermo co and mvo2 sats drifting. hespan given w/out effect. epi increased to 0.025mcq/k/min with mod effect-&gt;lr 500cc given. [**last name (namepattern4) 7744**] md aware and fluids ordered as noted.  on low dose neo for bp. a-paced. hct 26 this am.\n\nresp: moaning resps. crackles noted at times. fair, non-productive cough this am. tol cpt. oxygen saturation 96-100% on 4l n/c. unable to is.\n\ngi: abd soft round. hypo bsp. sips h20 this pm. frequent belching.\ndenies nausea.\n\ngu: uop marginal at times via foley.\n\npain: mso4 4mg sq q 3-4hr. cont moaning c/o back pain and some inc pain.\n\nassess: marginal co/ci with drifting mv02 this pm requiring increase in epi. unable to sleep this pm.\n\nplan: ?transfuse. attempt epi wean later.\n", 'event': ['Pain', 'Sleep', 'Eating', 'Excretion', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "cont moaning c/o back pain and some inc pain.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "moderate",\n                    "location": "back",\n                    "duration": "all pm"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "unable to sleep this pm.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "pm",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "none"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "sips h20 this pm.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "pm",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "water",\n                    "amount": "sips",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "uop marginal at times via foley.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "marginal",\n                    "quality": "unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "",\n            "object": "",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'moderate', 'location': 'back', 'duration': 'all pm'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'none'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'marginal', 'quality': 'unknown'}}}, {'Family': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['cont moaning c/o back pain and some inc pain.', 'unable to sleep this pm.', 'sips h20 this pm.', 'uop marginal at times via foley.', ''], 'event_time': ['Unknown', 'pm', 'pm', 'Unknown', 'Unknown'], 'negation': [False, True, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-14 04:18:00 and 2183-03-14 04:35:00):\n           csru update.\nneuro: patient restless/moaning aloud throughout the pm. cooperative to all care. follows commands. inconsistently able to state she\'s in the hospital or which year it is. maew in bed with good strength. converses appropriatly.\n\ncv: vs/hemos as per flowsheet. thermo co and mvo2 sats drifting. hespan given w/out effect. epi increased to 0.025mcq/k/min with mod effect-&gt;lr 500cc given. [**last name (namepattern4) 7744**] md aware and fluids ordered as noted.  on low dose neo for bp. a-paced. hct 26 this am.\n\nresp: moaning resps. crackles noted at times. fair, non-productive cough this am. tol cpt. oxygen saturation 96-100% on 4l n/c. unable to is.\n\ngi: abd soft round. hypo bsp. sips h20 this pm. frequent belching.\ndenies nausea.\n\ngu: uop marginal at times via foley.\n\npain: mso4 4mg sq q 3-4hr. cont moaning c/o back pain and some inc pain.\n\nassess: marginal co/ci with drifting mv02 this pm requiring increase in epi. unable to sleep this pm.\n\nplan: ?transfuse. attempt epi wean later.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', ''], 'event_detection_time': 17.98917239299044}</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>unable to sleep this pm</t>
         </is>
       </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>['unable to sleep this pm.']</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="N61" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'none'}}}]</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Eating', 'Excretion', 'Family']</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'moderate', 'location': 'back', 'duration': 'all pm'}}}, {'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'none'}}}, {'Eating': {'Eating': {'food': 'water', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'marginal', 'quality': 'unknown'}}}, {'Family': {}}]</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>['cont moaning c/o back pain and some inc pain.', 'unable to sleep this pm.', 'sips h20 this pm.', 'uop marginal at times via foley.', '']</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>['e1=Pain|1:cont moaning c/o back pain and some inc pain.', 'e2=Sleep|1:unable to sleep this pm.', 'e3=Eating|1:sips h20 this pm.', 'e4=Excretion|1:uop marginal at times via foley.', 'e5=Family|1:']</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5720,56 +6330,66 @@
       <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62" t="n">
-        <v>1</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-14 12:28:00'), Timestamp('2183-03-14 12:54:00'))</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
+          <t>{'text': "npn 7am-1300pm: status post cabg x3, asd repair [**3-12**]\n\nneuro: alert but dozing intermittently...moaning consistently when awake. oriented to hosp and most of time operation,knows month and year. mae with equal strength. cont to be very restless at times. moaning and talking in sleep at times.\ncv: 92 a paced with rare apc. pad 20-27. cvp 17-20.  ci- 1.92-2.2. mvo2 sats-52-56. rec 1u prbc's for hct 26. palp pedal pulses. cont to require epi at .025, on/off neo though now off since 9am. k and ca repleted.\nresp: lungs diminished at bases with fine crackles-rec lasix 20 mg iv x1, oxygen saturation 96-100 % on 4l  nc. cough fair-good though remains nonprod. ct/mt to sxn without airleak. draining mod serosang dng.\ngu: foley with vigorous diuresis after iv lasix. cr 1.2-near baseline.\ngi: abd softly distended with + bs, decreased belching. tol only small amts clears. no n/v.\nendo: remains on insulin drops at 3u/hr -keeping glucoses 88-99.\nincisions: sternum and mt dressings d/i-sm old staining. l leg with ace wrap intact with jp -sm sang dng.\nactivity: remains on bedrest-turning side to side.\ncomfort: medicated with percocet for pain. neurontin restarted for back pain.\na: still requiring epi for ci.\np: wean epi as tolerates, transfuse pro re nata, replete lytes, enc c and db, med for pain pro re nata.\n", 'event': ['Sleep', 'Pain', 'Excretion', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "alert but dozing intermittently...moaning consistently when awake. moaning and talking in sleep at times.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "poor",\n          "duration": "intermittent"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "medicated with percocet for pain. neurontin restarted for back pain.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "moderate",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "foley with vigorous diuresis after iv lasix.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "iv lasix",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "vigorous",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Eating",\n      "text_quote": "tol only small amts clears.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "small amounts",\n          "amount": "small",\n          "method": "oral"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'back', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'vigorous', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'small amounts', 'amount': 'small', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['alert but dozing intermittently...moaning consistently when awake. moaning and talking in sleep at times.', 'medicated with percocet for pain. neurontin restarted for back pain.', 'foley with vigorous diuresis after iv lasix.', 'tol only small amts clears.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'iv lasix', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-14 12:28:00 and 2183-03-14 12:54:00):\n           npn 7am-1300pm: status post cabg x3, asd repair [**3-12**]\n\nneuro: alert but dozing intermittently...moaning consistently when awake. oriented to hosp and most of time operation,knows month and year. mae with equal strength. cont to be very restless at times. moaning and talking in sleep at times.\ncv: 92 a paced with rare apc. pad 20-27. cvp 17-20.  ci- 1.92-2.2. mvo2 sats-52-56. rec 1u prbc\'s for hct 26. palp pedal pulses. cont to require epi at .025, on/off neo though now off since 9am. k and ca repleted.\nresp: lungs diminished at bases with fine crackles-rec lasix 20 mg iv x1, oxygen saturation 96-100 % on 4l  nc. cough fair-good though remains nonprod. ct/mt to sxn without airleak. draining mod serosang dng.\ngu: foley with vigorous diuresis after iv lasix. cr 1.2-near baseline.\ngi: abd softly distended with + bs, decreased belching. tol only small amts clears. no n/v.\nendo: remains on insulin drops at 3u/hr -keeping glucoses 88-99.\nincisions: sternum and mt dressings d/i-sm old staining. l leg with ace wrap intact with jp -sm sang dng.\nactivity: remains on bedrest-turning side to side.\ncomfort: medicated with percocet for pain. neurontin restarted for back pain.\na: still requiring epi for ci.\np: wean epi as tolerates, transfuse pro re nata, replete lytes, enc c and db, med for pain pro re nata.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient'], 'event_detection_time': 16.889300836948678}</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>dozing intermittently|talking in sleep</t>
         </is>
       </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="M62" t="inlineStr">
         <is>
           <t>['alert but dozing intermittently...moaning consistently when awake. moaning and talking in sleep at times.']</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="N62" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}]</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion', 'Eating']</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'intermittent'}}}, {'Pain': {'Pain': {'severity': 'moderate', 'location': 'back', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'vigorous', 'quality': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'small amounts', 'amount': 'small', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>['alert but dozing intermittently...moaning consistently when awake. moaning and talking in sleep at times.', 'medicated with percocet for pain. neurontin restarted for back pain.', 'foley with vigorous diuresis after iv lasix.', 'tol only small amts clears.']</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>['e1=Sleep|0:alert but dozing intermittently...moaning consistently when awake. moaning and talking in sleep at times.', 'e2=Pain|1:medicated with percocet for pain. neurontin restarted for back pain.', 'e3=Excretion|1:foley with vigorous diuresis after iv lasix.', 'e4=Eating|1:tol only small amts clears.']</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -5801,56 +6421,66 @@
       <c r="E63" t="n">
         <v>1</v>
       </c>
-      <c r="F63" t="n">
-        <v>1</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-15 07:07:00'), Timestamp('2183-03-15 07:13:00'))</t>
+        </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
+          <t>{'text': "patient alert and oriented, mae.\nepi weaned off over night ci &gt;2 svo2 &gt;60. hr a paced at 92. no ectiopy. bp stable 104 to 130. see [**last name (un) **] sheet. for co and sg numbers.\nk and mag repleted this am.\nurine out qs.\n taking sips of fls abd soft active bowel sounds all incision intact except for sm lt upper thigh wound which was oozing ser sang drainage now it is dry with dsd aplied.\npatient with strong acough on command swallows secretions sats [**name6 (md) 7745**] on np's. turns side to side easily with out help but sleeps on back compl that her back hurts her when she tried sto sleep on her side.\n", 'event': ['Sleep', 'Pain', 'Eating', 'Excretion', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "sleeps on back compl that her back hurts her when she tried sto sleep on her side",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "compl that her back hurts her when she tried sto sleep on her side",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "back",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "taking sips of fls",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "fls",\n                    "amount": "sips",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "urine out qs",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "qs",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "soft active bowel sounds all incision intact except for sm lt upper thigh wound which was oozing ser sang drainage now it is dry with dsd aplied",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "Unknown",\n                    "quality": "soft"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "before",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'fls', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'qs', 'quality': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'soft'}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['sleeps on back compl that her back hurts her when she tried sto sleep on her side', 'compl that her back hurts her when she tried sto sleep on her side', 'taking sips of fls', 'urine out qs', 'soft active bowel sounds all incision intact except for sm lt upper thigh wound which was oozing ser sang drainage now it is dry with dsd aplied'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-15 07:07:00 and 2183-03-15 07:13:00):\n           patient alert and oriented, mae.\nepi weaned off over night ci &gt;2 svo2 &gt;60. hr a paced at 92. no ectiopy. bp stable 104 to 130. see [**last name (un) **] sheet. for co and sg numbers.\nk and mag repleted this am.\nurine out qs.\n taking sips of fls abd soft active bowel sounds all incision intact except for sm lt upper thigh wound which was oozing ser sang drainage now it is dry with dsd aplied.\npatient with strong acough on command swallows secretions sats [**name6 (md) 7745**] on np\'s. turns side to side easily with out help but sleeps on back compl that her back hurts her when she tried sto sleep on her side.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 20.139409627998248}</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>sleeps on back|sleep on her side</t>
         </is>
       </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>['sleeps on back compl that her back hurts her when she tried sto sleep on her side']</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="N63" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Eating', 'Excretion', 'Excretion']</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'fls', 'amount': 'sips', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'qs', 'quality': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'Unknown', 'quality': 'soft'}}}]</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>['sleeps on back compl that her back hurts her when she tried sto sleep on her side', 'compl that her back hurts her when she tried sto sleep on her side', 'taking sips of fls', 'urine out qs', 'soft active bowel sounds all incision intact except for sm lt upper thigh wound which was oozing ser sang drainage now it is dry with dsd aplied']</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:sleeps on back compl that her back hurts her when she tried sto sleep on her side', 'e2=Pain|1:compl that her back hurts her when she tried sto sleep on her side', 'e3=Eating|1:taking sips of fls', 'e4=Excretion|1:urine out qs', 'e5=Excretion|1:soft active bowel sounds all incision intact except for sm lt upper thigh wound which was oozing ser sang drainage now it is dry with dsd aplied']</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -5877,56 +6507,66 @@
       <c r="E64" t="n">
         <v>1</v>
       </c>
-      <c r="F64" t="n">
-        <v>1</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-16 06:24:00'), Timestamp('2183-03-16 06:35:00'))</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
+          <t>{'text': 'ekg nsr, no ectopy.  diastolic blood pressure 90-100s, lower when asleep.  afebrile.  uo 25-30cc/hr after initial diuresis with lasix.  breath sounds clear, decreased at bases, deep breathes well, nonproductive cough, maintains spo2 95-98% on 4l nc.  chest incision dry, ct site dry.  ct draining small amts serous fluid, no air leak.  abd soft, bowel sounds present, only wanted water overnight, says she had indigestion from eating supper, lots of burping.  remains off insulin drops, covered with ssi. multiple contusions unchanged.  medicated for pain x 3 with percocet, good relief with two tabs.  alert and oriented, cooperative with care.  family visited.  slept when undisturbed.\n', 'event': ['Sleep', 'Pain', 'Eating', 'Family', 'Excretion'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "slept when undisturbed.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "medicated for pain x 3 with percocet, good relief with two tabs.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "only wanted water overnight, says she had indigestion from eating supper, lots of burping.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "supper",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "family visited.",\n            "actor": "patient",\n            "object": "family member",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "visit",\n                    "relation": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Excretion",\n            "text_quote": "uo 25-30cc/hr after initial diuresis with lasix.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "25-30cc/hr",\n                    "quality": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e5",\n            "relation": "after",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'supper', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '25-30cc/hr', 'quality': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'after', 'event_id_2': 'e4'}]], 'text_quotes': ['slept when undisturbed.', 'medicated for pain x 3 with percocet, good relief with two tabs.', 'only wanted water overnight, says she had indigestion from eating supper, lots of burping.', 'family visited.', 'uo 25-30cc/hr after initial diuresis with lasix.'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-16 06:24:00 and 2183-03-16 06:35:00):\n           ekg nsr, no ectopy.  diastolic blood pressure 90-100s, lower when asleep.  afebrile.  uo 25-30cc/hr after initial diuresis with lasix.  breath sounds clear, decreased at bases, deep breathes well, nonproductive cough, maintains spo2 95-98% on 4l nc.  chest incision dry, ct site dry.  ct draining small amts serous fluid, no air leak.  abd soft, bowel sounds present, only wanted water overnight, says she had indigestion from eating supper, lots of burping.  remains off insulin drops, covered with ssi. multiple contusions unchanged.  medicated for pain x 3 with percocet, good relief with two tabs.  alert and oriented, cooperative with care.  family visited.  slept when undisturbed.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.52879738784395}</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>lower when asleep|slept when undisturbed</t>
         </is>
       </c>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>['slept when undisturbed.']</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="N64" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Eating', 'Family', 'Excretion']</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'supper', 'amount': 'Unknown', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': '25-30cc/hr', 'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>['slept when undisturbed.', 'medicated for pain x 3 with percocet, good relief with two tabs.', 'only wanted water overnight, says she had indigestion from eating supper, lots of burping.', 'family visited.', 'uo 25-30cc/hr after initial diuresis with lasix.']</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:slept when undisturbed.', 'e2=Pain|1:medicated for pain x 3 with percocet, good relief with two tabs.', 'e3=Eating|1:only wanted water overnight, says she had indigestion from eating supper, lots of burping.', 'e4=Family|1:family visited.', 'e5=Excretion|1:uo 25-30cc/hr after initial diuresis with lasix.']</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e5', 'relation': 'after', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -5962,56 +6602,66 @@
       <c r="E65" t="n">
         <v>1</v>
       </c>
-      <c r="F65" t="n">
-        <v>1</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-16 18:21:00'), Timestamp('2183-03-16 18:28:00'))</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>{'text': "update\npatient sp cabg- de lined today- periph iv placed #20 in right antecub. ct d/c and wires secured under drsg.\n\nneuro: patient awake, alert oriented x 3, did required reorientation to time this am and after nap. mae\n\ncardiac: patient in nsr one episode of st noted which subsided on own. diastolic blood pressure remains 96-110/ lower when patient asleep. palp pedal pulses. patient has not received lopressor at this time-\n\nresp: weaned to 3l np with sat &gt;96%, bs noted to have crackles in bases this am, clear slightly with coughing, this afternoon dim in bases bilat. coughing without raising.\n\ngi: abd soft, none tender, bs present, no bm today, appetite fair- tol by mouth's well.\n\ngu: foley in place at this time, patient cont to receive lasix ivp- ? d/c foley in am after patient receives am dose of lasix,\n\npain: patient med with 2 perocet with excellent relief.\n\nglu: glu up to 156 this afternoon- tx per sliding scale then down to 114 this eve,\n\nplan: transfer to floor when bed avail or staffing adeq.\n", 'event': ['Sleep', 'Pain', 'Eating', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "did required reorientation to time this am and after nap",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Pain",\n            "text_quote": "patient med with 2 perocet with excellent relief",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown",\n                    "location": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "appetite fair- tol by mouth\'s well",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Excretion",\n            "text_quote": "no bm today",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool",\n                    "frequency": "none",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Sleep",\n            "text_quote": "diastolic blood pressure remains 96-110/ lower when patient asleep",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]], 'text_quotes': ['did required reorientation to time this am and after nap', 'patient med with 2 perocet with excellent relief', "appetite fair- tol by mouth's well", 'no bm today', 'diastolic blood pressure remains 96-110/ lower when patient asleep'], 'event_time': ['am', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-16 18:21:00 and 2183-03-16 18:28:00):\n           update\npatient sp cabg- de lined today- periph iv placed #20 in right antecub. ct d/c and wires secured under drsg.\n\nneuro: patient awake, alert oriented x 3, did required reorientation to time this am and after nap. mae\n\ncardiac: patient in nsr one episode of st noted which subsided on own. diastolic blood pressure remains 96-110/ lower when patient asleep. palp pedal pulses. patient has not received lopressor at this time-\n\nresp: weaned to 3l np with sat &gt;96%, bs noted to have crackles in bases this am, clear slightly with coughing, this afternoon dim in bases bilat. coughing without raising.\n\ngi: abd soft, none tender, bs present, no bm today, appetite fair- tol by mouth\'s well.\n\ngu: foley in place at this time, patient cont to receive lasix ivp- ? d/c foley in am after patient receives am dose of lasix,\n\npain: patient med with 2 perocet with excellent relief.\n\nglu: glu up to 156 this afternoon- tx per sliding scale then down to 114 this eve,\n\nplan: transfer to floor when bed avail or staffing adeq.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 19.107787878019735}</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>after nap|when patient asleep</t>
         </is>
       </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>[True, True]</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>['did required reorientation to time this am and after nap', 'diastolic blood pressure remains 96-110/ lower when patient asleep']</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="N65" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Eating', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'stool', 'frequency': 'none', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>['did required reorientation to time this am and after nap', 'patient med with 2 perocet with excellent relief', "appetite fair- tol by mouth's well", 'no bm today', 'diastolic blood pressure remains 96-110/ lower when patient asleep']</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:did required reorientation to time this am and after nap', 'e2=Pain|1:patient med with 2 perocet with excellent relief', "e3=Eating|1:appetite fair- tol by mouth's well", 'e4=Excretion|1:no bm today', 'e5=Sleep|1:diastolic blood pressure remains 96-110/ lower when patient asleep']</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -6038,56 +6688,66 @@
       <c r="E66" t="n">
         <v>1</v>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>(Timestamp('2183-03-17 04:45:00'), Timestamp('2183-03-17 04:47:00'))</t>
+        </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
+          <t>{'text': "patient with quiet night sleep... afebrile sr in the 70's , 2lnp with o2sata approx. 97%... lungs clear bilaterallly. chest tubes dcd on days allchest dsg d/i. moderate response from pm lasix, [**month (only) 22**] need increase lasix dose for greater diuresis... patient sleeping comfortable after 2 percocet given...\n", 'event': ['Sleep', 'Pain', 'Excretion'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Sleep",\n      "text_quote": "patient with quiet night sleep",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "quiet"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "patient sleeping comfortable after 2 percocet given",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Excretion",\n      "text_quote": "moderate response from pm lasix, need increase lasix dose for greater diuresis",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "after",\n      "event_id_2": "e3"\n    }\n  ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'quiet'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]], 'text_quotes': ['patient with quiet night sleep', 'patient sleeping comfortable after 2 percocet given', 'moderate response from pm lasix, need increase lasix dose for greater diuresis'], 'event_time': ['night', 'Unknown', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2183-03-17 04:45:00 and 2183-03-17 04:47:00):\n           patient with quiet night sleep... afebrile sr in the 70\'s , 2lnp with o2sata approx. 97%... lungs clear bilaterallly. chest tubes dcd on days allchest dsg d/i. moderate response from pm lasix, [**month (only) 22**] need increase lasix dose for greater diuresis... patient sleeping comfortable after 2 percocet given...\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 12.432585758855566}</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>quiet night sleep|patient sleeping</t>
         </is>
       </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>['patient with quiet night sleep']</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="N66" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'quiet'}}}]</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>['Sleep', 'Pain', 'Excretion']</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'quiet'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'Unknown', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>['patient with quiet night sleep', 'patient sleeping comfortable after 2 percocet given', 'moderate response from pm lasix, need increase lasix dose for greater diuresis']</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:patient with quiet night sleep', 'e2=Pain|1:patient sleeping comfortable after 2 percocet given', 'e3=Excretion|0:moderate response from pm lasix, need increase lasix dose for greater diuresis']</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'after', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -6122,56 +6782,66 @@
       <c r="E67" t="n">
         <v>1</v>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-05 13:18:00'), Timestamp('2171-01-05 13:52:00'))</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
+          <t>{'text': 'admission\npatient admitted from er at 0900 with diagnosis of aortic dissection to be medically treated, see admission sheet for details of. received patient on esmolol and nipride gtts. see flowsheet for details of gtts and assessments.\n\nneuro: patient alert and oriented, mae, follows commands. denies pain.\n\ncv: hr 80s. sr no ectopy. k repleted for 3.6. goal diastolic blood pressure 100-120 as per nipride order. goal diastolic blood pressure 110s [**name8 (md) **] md [**last name (titles) **]. + palpable pulses.\n\nresp: ls clear. sats dips ~1 sec to 88% at times while sleeping, ?[**name6 (md) **] apnea md skanathraja aware, ? pulmonary consult. 5lnc sats &gt;95%. rr 12-30.\n\ngi/gu: abd obese slightly distended, no change fro earlier as per patient. md [**doctor last name **] aware. npo except meds [**name8 (md) **] md [**name8 (md) 7087**] for now. patient voiding via urine amber clear. patient receiving ~250cc/hr of fluid with meds, no maintenance fluid for now [**name8 (md) **] md [**last name (titles) 7087**].\n\nendo: fs 188-200, covered with cvicu scale.\n\nsocial: family spoke to md. patient spoke to md. family updated with poc.\n\nplan: monitor hemodynamics. monitor resp. status. by mouth labetolol to start. monitor for pain. continue to monitor.\n\n\n', 'event': ['Pain', 'Sleep', 'Excretion', 'Family', 'Eating'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "admission diagnosis",\n            "attribute_value": "aortic dissection"\n        },\n        {\n            "attribute_name": "medications on admission",\n            "attribute_value": "esmolol and nipride gtts"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "denies pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "None"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "sats dips ~1 sec to 88% at times while sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "interrupted"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Excretion",\n            "text_quote": "patient voiding via urine amber clear",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "quality": "amber clear"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Family",\n            "text_quote": "family spoke to md. patient spoke to md.",\n            "actor": "patient and family member",\n            "object": "md",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "communication"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Eating",\n            "text_quote": "npo except meds",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "None"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "unknown",\n            "event_id_2": "e4"\n        },\n        {\n            "event_id_1": "e4",\n            "relation": "unknown",\n            "event_id_2": "e5"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'None'}}}, {'Sleep': {'Sleep': {'quality': 'interrupted'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'quality': 'amber clear'}}}, {'Family': {'Family': {'interaction': 'communication'}}}, {'Eating': {'Eating': {'food': 'None'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]], 'text_quotes': ['denies pain', 'sats dips ~1 sec to 88% at times while sleeping', 'patient voiding via urine amber clear', 'family spoke to md. patient spoke to md.', 'npo except meds'], 'event_time': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'negation': [True, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-05 13:18:00 and 2171-01-05 13:52:00):\n           admission\npatient admitted from er at 0900 with diagnosis of aortic dissection to be medically treated, see admission sheet for details of. received patient on esmolol and nipride gtts. see flowsheet for details of gtts and assessments.\n\nneuro: patient alert and oriented, mae, follows commands. denies pain.\n\ncv: hr 80s. sr no ectopy. k repleted for 3.6. goal diastolic blood pressure 100-120 as per nipride order. goal diastolic blood pressure 110s [**name8 (md) **] md [**last name (titles) **]. + palpable pulses.\n\nresp: ls clear. sats dips ~1 sec to 88% at times while sleeping, ?[**name6 (md) **] apnea md skanathraja aware, ? pulmonary consult. 5lnc sats &gt;95%. rr 12-30.\n\ngi/gu: abd obese slightly distended, no change fro earlier as per patient. md [**doctor last name **] aware. npo except meds [**name8 (md) **] md [**name8 (md) 7087**] for now. patient voiding via urine amber clear. patient receiving ~250cc/hr of fluid with meds, no maintenance fluid for now [**name8 (md) **] md [**last name (titles) 7087**].\n\nendo: fs 188-200, covered with cvicu scale.\n\nsocial: family spoke to md. patient spoke to md. family updated with poc.\n\nplan: monitor hemodynamics. monitor resp. status. by mouth labetolol to start. monitor for pain. continue to monitor.\n\n\n\n        ', 'case_attributes': [[{'attribute_name': 'admission diagnosis', 'attribute_value': 'aortic dissection'}, {'attribute_name': 'medications on admission', 'attribute_value': 'esmolol and nipride gtts'}]], 'actor': ['patient', 'patient', 'patient', 'patient and family member', 'patient'], 'event_detection_time': 21.142497948836535}</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>at times while sleeping</t>
         </is>
       </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>['sats dips ~1 sec to 88% at times while sleeping']</t>
         </is>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="N67" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'interrupted'}}}]</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>['Pain', 'Sleep', 'Excretion', 'Family', 'Eating']</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'None'}}}, {'Sleep': {'Sleep': {'quality': 'interrupted'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'quality': 'amber clear'}}}, {'Family': {'Family': {'interaction': 'communication'}}}, {'Eating': {'Eating': {'food': 'None'}}}]</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>['denies pain', 'sats dips ~1 sec to 88% at times while sleeping', 'patient voiding via urine amber clear', 'family spoke to md. patient spoke to md.', 'npo except meds']</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>['e1=Pain|1:denies pain', 'e2=Sleep|1:sats dips ~1 sec to 88% at times while sleeping', 'e3=Excretion|1:patient voiding via urine amber clear', 'e4=Family|1:family spoke to md. patient spoke to md.', 'e5=Eating|1:npo except meds']</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'unknown', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'unknown', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -6199,56 +6869,66 @@
       <c r="E68" t="n">
         <v>1</v>
       </c>
-      <c r="F68" t="n">
-        <v>1</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-05 19:33:00'), Timestamp('2171-01-05 19:41:00'))</t>
+        </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
+          <t>{'text': 'addendum\nmd [**doctor last name **] aware of hr continues to be 80s despite 300mcg/kg/min of esmolol. md aware of amt of ivf with esmolol drops, no new orders. diastolic blood pressure drifting to 90-100s hr 80s while on 300mcg/kg/min, ok to wean esmolol drops md [**doctor last name **] after labetolol by mouth given. md aware of patient not voiding for ~ 6 hours, foley placed as [**name8 (md) **] md. u/o 650cc with immediate insertion. pulmonary consulted d/t sleep apnea, bipap at bedside when asleep. see flowsheet for details. continue to monitor.\n', 'event': ['Excretion', 'Sleep'], 'event_id': ['e1', 'e2'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "patient not voiding for ~ 6 hours, foley placed as [**name8 (md) **] md. u/o 650cc with immediate insertion.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "not voiding for ~ 6 hours",\n                    "quality": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "pulmonary consulted d/t sleep apnea, bipap at bedside when asleep.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'not voiding for ~ 6 hours', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient not voiding for ~ 6 hours, foley placed as [**name8 (md) **] md. u/o 650cc with immediate insertion.', 'pulmonary consulted d/t sleep apnea, bipap at bedside when asleep.'], 'event_time': ['Unknown', 'Unknown'], 'negation': [False, False], 'caused_by': ['Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-05 19:33:00 and 2171-01-05 19:41:00):\n           addendum\nmd [**doctor last name **] aware of hr continues to be 80s despite 300mcg/kg/min of esmolol. md aware of amt of ivf with esmolol drops, no new orders. diastolic blood pressure drifting to 90-100s hr 80s while on 300mcg/kg/min, ok to wean esmolol drops md [**doctor last name **] after labetolol by mouth given. md aware of patient not voiding for ~ 6 hours, foley placed as [**name8 (md) **] md. u/o 650cc with immediate insertion. pulmonary consulted d/t sleep apnea, bipap at bedside when asleep. see flowsheet for details. continue to monitor.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient'], 'event_detection_time': 9.37692808615975}</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>sleep apnea|when asleep</t>
         </is>
       </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>['pulmonary consulted d/t sleep apnea, bipap at bedside when asleep.']</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="N68" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>['Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'not voiding for ~ 6 hours', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>['patient not voiding for ~ 6 hours, foley placed as [**name8 (md) **] md. u/o 650cc with immediate insertion.', 'pulmonary consulted d/t sleep apnea, bipap at bedside when asleep.']</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>['e1=Excretion|1:patient not voiding for ~ 6 hours, foley placed as [**name8 (md) **] md. u/o 650cc with immediate insertion.', 'e2=Sleep|1:pulmonary consulted d/t sleep apnea, bipap at bedside when asleep.']</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
@@ -6279,56 +6959,66 @@
       <c r="E69" t="n">
         <v>1</v>
       </c>
-      <c r="F69" t="n">
-        <v>1</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-06 02:12:00'), Timestamp('2171-01-06 02:27:00'))</t>
+        </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
+          <t>{'text': 'patient. had visitors during the evening. stated that he was very tired and wanted to sleep around 9pm. i discussed the issue of bipap with him and that if he dropped his sa02 while asleep, we would be placed on bipap. patient. asked if the bipap gave information re: sleep apnea diagnosis. i stated that he would have to undergo a sleep study for an official diagnosis.\npatient. was placed on bipap when sao2 fell to 85%. see vent flowsheet for settings.\npatient. continues on esmolol with labile bp. esmolol titrated to max. of 200mcq/kg. nipride added to keep diastolic blood pressure ~120 or &lt;.\nhuo adequate. patient. c/o discomfort at urinary meatus. lidocaine jelly uroject order obtained and locally applied with relief. bs treated with ssri. patient. slept most of the night: self-repositioned in bed.\nplan: by mouth labetalol. possibly add another antihypertensive [**doctor last name **] so as to wean off esmolol &amp; nipride. monitor morning labs. monitor sao2 while asleep.\n\n\n\n\n\n', 'event': ['Family', 'Sleep', 'Pain', 'Excretion', 'Sleep'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Family",\n      "text_quote": "patient had visitors during the evening",\n      "actor": "patient",\n      "object": "family member",\n      "negation": false,\n      "time": "evening",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "visit",\n          "relation": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Sleep",\n      "text_quote": "stated that he was very tired and wanted to sleep around 9pm",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "around 9pm",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Pain",\n      "text_quote": "patient c/o discomfort at urinary meatus",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "urinary meatus",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "patient c/o discomfort at urinary meatus",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "Unknown",\n          "quality": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "patient slept most of the night: self-repositioned in bed",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "most of the night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "most of the night"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    },\n    {\n      "event_id_1": "e2",\n      "relation": "before",\n      "event_id_2": "e3"\n    },\n    {\n      "event_id_1": "e3",\n      "relation": "simultaneous",\n      "event_id_2": "e4"\n    },\n    {\n      "event_id_1": "e4",\n      "relation": "before",\n      "event_id_2": "e5"\n    }\n  ]\n}', 'attributes': [{'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'urinary meatus', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the night'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]], 'text_quotes': ['patient had visitors during the evening', 'stated that he was very tired and wanted to sleep around 9pm', 'patient c/o discomfort at urinary meatus', 'patient c/o discomfort at urinary meatus', 'patient slept most of the night: self-repositioned in bed'], 'event_time': ['evening', 'around 9pm', 'Unknown', 'Unknown', 'most of the night'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-06 02:12:00 and 2171-01-06 02:27:00):\n           patient. had visitors during the evening. stated that he was very tired and wanted to sleep around 9pm. i discussed the issue of bipap with him and that if he dropped his sa02 while asleep, we would be placed on bipap. patient. asked if the bipap gave information re: sleep apnea diagnosis. i stated that he would have to undergo a sleep study for an official diagnosis.\npatient. was placed on bipap when sao2 fell to 85%. see vent flowsheet for settings.\npatient. continues on esmolol with labile bp. esmolol titrated to max. of 200mcq/kg. nipride added to keep diastolic blood pressure ~120 or &lt;.\nhuo adequate. patient. c/o discomfort at urinary meatus. lidocaine jelly uroject order obtained and locally applied with relief. bs treated with ssri. patient. slept most of the night: self-repositioned in bed.\nplan: by mouth labetalol. possibly add another antihypertensive [**doctor last name **] so as to wean off esmolol &amp; nipride. monitor morning labs. monitor sao2 while asleep.\n\n\n\n\n\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.25437999004498}</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>slept most of the night|while asleep</t>
         </is>
       </c>
-      <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>[False, True]</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>['stated that he was very tired and wanted to sleep around 9pm', 'patient slept most of the night: self-repositioned in bed']</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="N69" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the night'}}}]</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>['Family', 'Sleep', 'Pain', 'Excretion', 'Sleep']</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>[{'Family': {'Family': {'interaction': 'visit', 'relation': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'Unknown', 'location': 'urinary meatus', 'duration': 'Unknown'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'Unknown', 'quality': 'Unknown'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'most of the night'}}}]</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>['patient had visitors during the evening', 'stated that he was very tired and wanted to sleep around 9pm', 'patient c/o discomfort at urinary meatus', 'patient c/o discomfort at urinary meatus', 'patient slept most of the night: self-repositioned in bed']</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>['e1=Family|0:patient had visitors during the evening', 'e2=Sleep|1:stated that he was very tired and wanted to sleep around 9pm', 'e3=Pain|0:patient c/o discomfort at urinary meatus', 'e4=Excretion|0:patient c/o discomfort at urinary meatus', 'e5=Sleep|0:patient slept most of the night: self-repositioned in bed']</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'before', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}, {'event_id_1': 'e4', 'relation': 'before', 'event_id_2': 'e5'}]]</t>
         </is>
@@ -6362,56 +7052,66 @@
       <c r="E70" t="n">
         <v>1</v>
       </c>
-      <c r="F70" t="n">
-        <v>1</v>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-07 06:22:00'), Timestamp('2171-01-07 06:43:00'))</t>
+        </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
+          <t>{'text': '45 year old admitted from osh [**1-3**] with aortic dissection by cta. poc is medical management of bp.\n\nneuro/pain:  a&amp;o x3, pleasant and cooperative. denied pain until ~ 0230 when awakened from sleep to urinate and noticed [**3-30**] "pressure" in upper abdomen. no change in bp or hr. md [**doctor last name **] notified and at bedside to examine patient. dilaudid 2mg by mouth for pain, dilaudid 2mg sc 1 hour later for continued [**3-30**] pain with effect, currently pain rated [**11-29**]. face ruddy all shift, blood shot eyes.\n\npulm:  n/c at 5l sats wnl. + apneic episodes desats only to 92%. using bi-pap intermittently. lungs diminished bases. + nonproductive cough.\n\ncv: sinus rhythm, rare ectopy. esmolol drops as high as 200mcg/kg to keep hr 70-80. r radial aline for bp monitoring. bp labile. nipride drops titrated to keep diastolic blood pressure &lt; 140. hydralazine 20mg ivp x 1, lopressor and hydralazine by mouth doses increased. pedal pulses palapted.\n\nendo:  qid ssri covergae per cvicu protocol.\n\ngi: abdomen obese, semi-firm. c/o pressure pain over entire mid to upper abdomen. denies nausea.\n\nsocial:  brother called in for update.\n\nplan: increase by mouth medications, dc esmolol and nipride gtts. pain medication pro re nata. oob to chair.\n', 'event': ['Sleep', 'Excretion', 'Pain', 'Eating', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [\n        {\n            "attribute_name": "age",\n            "attribute_value": "45"\n        },\n        {\n            "attribute_name": "admission reason",\n            "attribute_value": "aortic dissection by cta"\n        }\n    ],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "awakened from sleep to urinate",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "0230",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "interrupted"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "awakened from sleep to urinate",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "0230",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "noticed \'pressure\' in upper abdomen",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "0230",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": " pressure",\n                    "location": "upper abdomen"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "dilaudid 2mg by mouth for pain",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "e3",\n            "event_attributes": {\n                "Eating": {\n                    "food": "dilaudid 2mg",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "brother called in for update",\n            "actor": "family member",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {\n                    "interaction": "call",\n                    "relation": "brother"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "before",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'interrupted'}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Pain': {'Pain': {'severity': ' pressure', 'location': 'upper abdomen'}}}, {'Eating': {'Eating': {'food': 'dilaudid 2mg', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'call', 'relation': 'brother'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]], 'text_quotes': ['awakened from sleep to urinate', 'awakened from sleep to urinate', "noticed 'pressure' in upper abdomen", 'dilaudid 2mg by mouth for pain', 'brother called in for update'], 'event_time': ['0230', '0230', '0230', 'Unknown', 'Unknown'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'e3', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-07 06:22:00 and 2171-01-07 06:43:00):\n           45 year old admitted from osh [**1-3**] with aortic dissection by cta. poc is medical management of bp.\n\nneuro/pain:  a&amp;o x3, pleasant and cooperative. denied pain until ~ 0230 when awakened from sleep to urinate and noticed [**3-30**] "pressure" in upper abdomen. no change in bp or hr. md [**doctor last name **] notified and at bedside to examine patient. dilaudid 2mg by mouth for pain, dilaudid 2mg sc 1 hour later for continued [**3-30**] pain with effect, currently pain rated [**11-29**]. face ruddy all shift, blood shot eyes.\n\npulm:  n/c at 5l sats wnl. + apneic episodes desats only to 92%. using bi-pap intermittently. lungs diminished bases. + nonproductive cough.\n\ncv: sinus rhythm, rare ectopy. esmolol drops as high as 200mcg/kg to keep hr 70-80. r radial aline for bp monitoring. bp labile. nipride drops titrated to keep diastolic blood pressure &lt; 140. hydralazine 20mg ivp x 1, lopressor and hydralazine by mouth doses increased. pedal pulses palapted.\n\nendo:  qid ssri covergae per cvicu protocol.\n\ngi: abdomen obese, semi-firm. c/o pressure pain over entire mid to upper abdomen. denies nausea.\n\nsocial:  brother called in for update.\n\nplan: increase by mouth medications, dc esmolol and nipride gtts. pain medication pro re nata. oob to chair.\n\n        ', 'case_attributes': [[{'attribute_name': 'age', 'attribute_value': '45'}, {'attribute_name': 'admission reason', 'attribute_value': 'aortic dissection by cta'}]], 'actor': ['patient', 'patient', 'patient', 'patient', 'family member'], 'event_detection_time': 20.905050948960707}</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>awakened from sleep</t>
         </is>
       </c>
-      <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>['awakened from sleep to urinate']</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'interrupted'}}}]</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Pain', 'Eating', 'Family']</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'interrupted'}}}, {'Excretion': {'Excretion': {'type': 'urine'}}}, {'Pain': {'Pain': {'severity': ' pressure', 'location': 'upper abdomen'}}}, {'Eating': {'Eating': {'food': 'dilaudid 2mg', 'method': 'oral'}}}, {'Family': {'Family': {'interaction': 'call', 'relation': 'brother'}}}]</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>['awakened from sleep to urinate', 'awakened from sleep to urinate', "noticed 'pressure' in upper abdomen", 'dilaudid 2mg by mouth for pain', 'brother called in for update']</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>['e1=Sleep|1:awakened from sleep to urinate', 'e2=Excretion|1:awakened from sleep to urinate', "e3=Pain|0:noticed 'pressure' in upper abdomen", 'e4=Eating|1:dilaudid 2mg by mouth for pain', 'e5=Family|1:brother called in for update']</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}, {'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -6446,56 +7146,66 @@
       <c r="E71" t="n">
         <v>1</v>
       </c>
-      <c r="F71" t="n">
-        <v>1</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-07 17:32:00'), Timestamp('2171-01-07 17:40:00'))</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
+          <t>{'text': '[**1-7**] 7a-7p\nneuro: a+ox3, mae, follows commands, up to chair and commode by self with nurse standing by, stable on feet, mild abd pain this am, no abd pain this pm (resolved w/out intervention)\n\ncv: sr 70-95, no ectopy, diastolic blood pressure 125-155 (art line with overshoot, team aware, following cuff), esmolol/nipride gtts titrated to keep diastolic blood pressure&lt;140, lopressor by mouth increased to qid, norvasc started, hydralasine iv pro re nata diastolic blood pressure &gt;140, patient c/o shivering/chills today with mildly elevated temp (37.8), wbc wnl, no explanation for chills discovered, patient swaddled in warm blankets with resolution of chills by this pm\n\nresp: lungs cta, dim to bases, 02 sats &gt;95% on ra while awake, nc 5l placed on while sleeping\n\ngi: abdomen obese, soft, bowel sounds present, patient c/o "full" feeling, dulcolax by mouth given and multiple attempts on commode with no bm\n\ngu: voids per urinal clear yellow/amber urine\n\naccess: 2 piv placed by iv therapy, patient difficult stick, left ac piv expires tonight\n\nassess: improving htn control\n\nplan: wean nipride and esmolol as tolerated to keep diastolic blood pressure&lt;140, hydralasine iv q8h for diastolic blood pressure&gt;140, minimal exertion today, increase activity tomorrow?  once off gtts transfer to floor/vicu\n', 'event': ['Pain', 'Excretion', 'Sleep', 'Eating', 'Pain'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Pain",\n            "text_quote": "mild abd pain this am, no abd pain this pm (resolved w/out intervention)",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "am",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mild",\n                    "location": "abdomen",\n                    "duration": "this am"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "voids per urinal clear yellow/amber urine",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "per urinal",\n                    "quality": "clear yellow/amber"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Sleep",\n            "text_quote": "02 sats &gt;95% on ra while awake, nc 5l placed on while sleeping",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "Unknown",\n                    "duration": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "patient c/o \\"full\\" feeling, dulcolax by mouth given and multiple attempts on commode with no bm",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "Unknown",\n                    "amount": "Unknown",\n                    "method": "oral"\n                }\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Pain",\n            "text_quote": "patient c/o shivering/chills today with mildly elevated temp (37.8)",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "today",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "mildly elevated",\n                    "location": "body",\n                    "duration": "today"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e5"\n        },\n        {\n            "event_id_1": "e3",\n            "relation": "simultaneous",\n            "event_id_2": "e4"\n        }\n    ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'mild', 'location': 'abdomen', 'duration': 'this am'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'per urinal', 'quality': 'clear yellow/amber'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Pain': {'Pain': {'severity': 'mildly elevated', 'location': 'body', 'duration': 'today'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]], 'text_quotes': ['mild abd pain this am, no abd pain this pm (resolved w/out intervention)', 'voids per urinal clear yellow/amber urine', '02 sats &gt;95% on ra while awake, nc 5l placed on while sleeping', 'patient c/o "full" feeling, dulcolax by mouth given and multiple attempts on commode with no bm', 'patient c/o shivering/chills today with mildly elevated temp (37.8)'], 'event_time': ['am', 'Unknown', 'Unknown', 'Unknown', 'today'], 'negation': [False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-07 17:32:00 and 2171-01-07 17:40:00):\n           [**1-7**] 7a-7p\nneuro: a+ox3, mae, follows commands, up to chair and commode by self with nurse standing by, stable on feet, mild abd pain this am, no abd pain this pm (resolved w/out intervention)\n\ncv: sr 70-95, no ectopy, diastolic blood pressure 125-155 (art line with overshoot, team aware, following cuff), esmolol/nipride gtts titrated to keep diastolic blood pressure&lt;140, lopressor by mouth increased to qid, norvasc started, hydralasine iv pro re nata diastolic blood pressure &gt;140, patient c/o shivering/chills today with mildly elevated temp (37.8), wbc wnl, no explanation for chills discovered, patient swaddled in warm blankets with resolution of chills by this pm\n\nresp: lungs cta, dim to bases, 02 sats &gt;95% on ra while awake, nc 5l placed on while sleeping\n\ngi: abdomen obese, soft, bowel sounds present, patient c/o "full" feeling, dulcolax by mouth given and multiple attempts on commode with no bm\n\ngu: voids per urinal clear yellow/amber urine\n\naccess: 2 piv placed by iv therapy, patient difficult stick, left ac piv expires tonight\n\nassess: improving htn control\n\nplan: wean nipride and esmolol as tolerated to keep diastolic blood pressure&lt;140, hydralasine iv q8h for diastolic blood pressure&gt;140, minimal exertion today, increase activity tomorrow?  once off gtts transfer to floor/vicu\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 21.059805542230606}</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>while sleeping</t>
         </is>
       </c>
-      <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>['02 sats &gt;95% on ra while awake, nc 5l placed on while sleeping']</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>['Pain', 'Excretion', 'Sleep', 'Eating', 'Pain']</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'mild', 'location': 'abdomen', 'duration': 'this am'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'per urinal', 'quality': 'clear yellow/amber'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'Unknown', 'amount': 'Unknown', 'method': 'oral'}}}, {'Pain': {'Pain': {'severity': 'mildly elevated', 'location': 'body', 'duration': 'today'}}}]</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>['mild abd pain this am, no abd pain this pm (resolved w/out intervention)', 'voids per urinal clear yellow/amber urine', '02 sats &gt;95% on ra while awake, nc 5l placed on while sleeping', 'patient c/o "full" feeling, dulcolax by mouth given and multiple attempts on commode with no bm', 'patient c/o shivering/chills today with mildly elevated temp (37.8)']</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>['e1=Pain|1:mild abd pain this am, no abd pain this pm (resolved w/out intervention)', 'e2=Excretion|1:voids per urinal clear yellow/amber urine', 'e3=Sleep|1:02 sats &gt;95% on ra while awake, nc 5l placed on while sleeping', 'e4=Eating|1:patient c/o "full" feeling, dulcolax by mouth given and multiple attempts on commode with no bm', 'e5=Pain|1:patient c/o shivering/chills today with mildly elevated temp (37.8)']</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e5'}, {'event_id_1': 'e3', 'relation': 'simultaneous', 'event_id_2': 'e4'}]]</t>
         </is>
@@ -6529,56 +7239,66 @@
       <c r="E72" t="n">
         <v>1</v>
       </c>
-      <c r="F72" t="n">
-        <v>1</v>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-08 02:49:00'), Timestamp('2171-01-08 03:00:00'))</t>
+        </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
+          <t>{'text': '7pm-7am update\nneuro: patient alert and orieanted x3. mae and able to follow commands. restless overnight. oob to commode frequently. patient repositioned frequently. oob to chiar this am. patient unable to get comofortable. face remains flushed and eyes appear blood shot.\n\ncv: patient remains nsr, no ectopy noted. hr 70-80\'s. patient restarted on nipride and esmolol drops overnight. drops\'s titrated to keep diastolic blood pressure &lt; 140. see flowsheet. esmolol drops currently running at 150 mcg/kg/min. nipride drops currently at 1.5 mcg/kg/min. bp labile. a line positional. patient also on lopressor,norvasc and hydralazine by mouth for bp control. patient given hydralazine iv x 1 for htn. hct stable. + pp\n\nresp: ls clear with dim bases bil. patient placed on mask ventitlation ~ 2-3 hrs overnight. bipap taken off per the patients request. patient placed on 4 l nc while sleeping. oxygen saturation 90-96%. patient has periods of apeana and desats to ~ 90% wiht those episodes.\n\ngi/gu: patient with + bs. patient c/o "abd fullness". patient to the commode frequently overnight, no stool. patient voiding in urinal clear yellow urine\n\nendo: elvated bs treated with ss reg insulin per procotol\n\nid: t max 99.0 orally. wbc\'s 9.6\n\nplan: bp control, wean nipride and esmolol drops\'s as tolerated\n', 'event': ['Sleep', 'Excretion', 'Pain', 'Eating', 'Family', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6', 'e7', 'e8', 'e9', 'e10', 'e11'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Sleep",\n            "text_quote": "restless overnight. patient repositioned frequently.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "poor"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Excretion",\n            "text_quote": "oob to commode frequently. patient voiding in urinal clear yellow urine",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "urine",\n                    "frequency": "frequent"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Pain",\n            "text_quote": "patient unable to get comfortable. face remains flushed and eyes appear blood shot.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Pain": {\n                    "severity": "Unknown"\n                }\n            }\n        },\n        {\n            "event_id": "e4",\n            "event_type": "Eating",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {}\n            }\n        },\n        {\n            "event_id": "e5",\n            "event_type": "Family",\n            "text_quote": "",\n            "actor": "patient",\n            "object": "patient",\n            "negation": true,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Family": {}\n            }\n        },\n        {\n            "event_id": "e6",\n            "event_type": "Unknown",\n            "text_quote": "patient alert and orieanted x3. mae and able to follow commands.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e7",\n            "event_type": "Unknown",\n            "text_quote": "cv: patient remains nsr, no ectopy noted. hr 70-80\'s.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e8",\n            "event_type": "Unknown",\n            "text_quote": "resp: ls clear with dim bases bil. patient placed on mask ventitlation ~ 2-3 hrs overnight.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "overnight",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e9",\n            "event_type": "Unknown",\n            "text_quote": "gi/gu: patient with + bs. patient c/o \\"abd fullness\\".",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e10",\n            "event_type": "Unknown",\n            "text_quote": "endo: elvated bs treated with ss reg insulin per procotol",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        },\n        {\n            "event_id": "e11",\n            "event_type": "Unknown",\n            "text_quote": "id: t max 99.0 orally. wbc\'s 9.6",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {}\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "before",\n            "event_id_2": "e8"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "simultaneous",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'frequent'}}}, {'Pain': {'Pain': {'severity': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e8'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]], 'text_quotes': ['restless overnight. patient repositioned frequently.', 'oob to commode frequently. patient voiding in urinal clear yellow urine', 'patient unable to get comfortable. face remains flushed and eyes appear blood shot.', '', '', 'patient alert and orieanted x3. mae and able to follow commands.', "cv: patient remains nsr, no ectopy noted. hr 70-80's.", 'resp: ls clear with dim bases bil. patient placed on mask ventitlation ~ 2-3 hrs overnight.', 'gi/gu: patient with + bs. patient c/o "abd fullness".', 'endo: elvated bs treated with ss reg insulin per procotol', "id: t max 99.0 orally. wbc's 9.6"], 'event_time': ['overnight', 'overnight', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'overnight', 'Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False, True, True, False, False, False, False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-08 02:49:00 and 2171-01-08 03:00:00):\n           7pm-7am update\nneuro: patient alert and orieanted x3. mae and able to follow commands. restless overnight. oob to commode frequently. patient repositioned frequently. oob to chiar this am. patient unable to get comofortable. face remains flushed and eyes appear blood shot.\n\ncv: patient remains nsr, no ectopy noted. hr 70-80\'s. patient restarted on nipride and esmolol drops overnight. drops\'s titrated to keep diastolic blood pressure &lt; 140. see flowsheet. esmolol drops currently running at 150 mcg/kg/min. nipride drops currently at 1.5 mcg/kg/min. bp labile. a line positional. patient also on lopressor,norvasc and hydralazine by mouth for bp control. patient given hydralazine iv x 1 for htn. hct stable. + pp\n\nresp: ls clear with dim bases bil. patient placed on mask ventitlation ~ 2-3 hrs overnight. bipap taken off per the patients request. patient placed on 4 l nc while sleeping. oxygen saturation 90-96%. patient has periods of apeana and desats to ~ 90% wiht those episodes.\n\ngi/gu: patient with + bs. patient c/o "abd fullness". patient to the commode frequently overnight, no stool. patient voiding in urinal clear yellow urine\n\nendo: elvated bs treated with ss reg insulin per procotol\n\nid: t max 99.0 orally. wbc\'s 9.6\n\nplan: bp control, wean nipride and esmolol drops\'s as tolerated\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 32.93079059687443}</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>while sleeping|periods of apeana</t>
         </is>
       </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>[False]</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>['restless overnight. patient repositioned frequently.']</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}]</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>['Sleep', 'Excretion', 'Pain', 'Eating', 'Family', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown']</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'poor'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'frequent'}}}, {'Pain': {'Pain': {'severity': 'Unknown'}}}, {'Eating': {'Eating': {}}}, {'Family': {'Family': {}}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}, {'Unknown': {}}]</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>['restless overnight. patient repositioned frequently.', 'oob to commode frequently. patient voiding in urinal clear yellow urine', 'patient unable to get comfortable. face remains flushed and eyes appear blood shot.', '', '', 'patient alert and orieanted x3. mae and able to follow commands.', "cv: patient remains nsr, no ectopy noted. hr 70-80's.", 'resp: ls clear with dim bases bil. patient placed on mask ventitlation ~ 2-3 hrs overnight.', 'gi/gu: patient with + bs. patient c/o "abd fullness".', 'endo: elvated bs treated with ss reg insulin per procotol', "id: t max 99.0 orally. wbc's 9.6"]</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>['e1=Sleep|0:restless overnight. patient repositioned frequently.', 'e2=Excretion|0:oob to commode frequently. patient voiding in urinal clear yellow urine', 'e3=Pain|0:patient unable to get comfortable. face remains flushed and eyes appear blood shot.', 'e4=Eating|1:', 'e5=Family|1:', 'e6=Unknown|1:patient alert and orieanted x3. mae and able to follow commands.', "e7=Unknown|1:cv: patient remains nsr, no ectopy noted. hr 70-80's.", 'e8=Unknown|1:resp: ls clear with dim bases bil. patient placed on mask ventitlation ~ 2-3 hrs overnight.', 'e9=Unknown|1:gi/gu: patient with + bs. patient c/o "abd fullness".', 'e10=Unknown|1:endo: elvated bs treated with ss reg insulin per procotol', "e11=Unknown|1:id: t max 99.0 orally. wbc's 9.6"]</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e8'}, {'event_id_1': 'e2', 'relation': 'simultaneous', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -6611,56 +7331,66 @@
       <c r="E73" t="n">
         <v>1</v>
       </c>
-      <c r="F73" t="n">
-        <v>1</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-08 15:45:00'), Timestamp('2171-01-08 15:48:00'))</t>
+        </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
+          <t>{'text': "nursing progress note\nneuro:  aao x3.  oob with supervision. perrl 4mm brisk. maee.\n\nresp:  lcta sats 97% on ra. +sleep apnea.\n\ncv:  sr 70's. diastolic blood pressure &lt;140.  weaning nipride.  increased by mouth hypertensives.  esmolol drops d/c.  pulses palpable.  skin intact.  afebrile.\n\ngi/gu:  abdomen soft, obese.  large bm.  voiding clear, yellow urine\n\nendoc:  riss\n\nplan:  diastolic blood pressure &lt;140.  wean off nipride. review renal scan.\n", 'event': ['Excretion', 'Sleep', 'Eating'], 'event_id': ['e1', 'e2', 'e3'], 'phrase': '', 'raw_output': '{\n    "case_attributes": [],\n    "events": [\n        {\n            "event_id": "e1",\n            "event_type": "Excretion",\n            "text_quote": "large bm. voiding clear, yellow urine",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Excretion": {\n                    "type": "stool and urine",\n                    "frequency": "Unknown",\n                    "quality": "clear, yellow"\n                }\n            }\n        },\n        {\n            "event_id": "e2",\n            "event_type": "Sleep",\n            "text_quote": "+sleep apnea.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Sleep": {\n                    "quality": "apneic"\n                }\n            }\n        },\n        {\n            "event_id": "e3",\n            "event_type": "Eating",\n            "text_quote": "increased by mouth hypertensives.",\n            "actor": "patient",\n            "object": "patient",\n            "negation": false,\n            "time": "Unknown",\n            "caused_by": "Unknown",\n            "event_attributes": {\n                "Eating": {\n                    "food": "hypertensives",\n                    "amount": "increased",\n                    "method": "oral"\n                }\n            }\n        }\n    ],\n    "order": [\n        {\n            "event_id_1": "e1",\n            "relation": "unknown",\n            "event_id_2": "e2"\n        },\n        {\n            "event_id_1": "e2",\n            "relation": "unknown",\n            "event_id_2": "e3"\n        }\n    ]\n}', 'attributes': [{'Excretion': {'Excretion': {'type': 'stool and urine', 'frequency': 'Unknown', 'quality': 'clear, yellow'}}}, {'Sleep': {'Sleep': {'quality': 'apneic'}}}, {'Eating': {'Eating': {'food': 'hypertensives', 'amount': 'increased', 'method': 'oral'}}}], 'orders': [[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]], 'text_quotes': ['large bm. voiding clear, yellow urine', '+sleep apnea.', 'increased by mouth hypertensives.'], 'event_time': ['Unknown', 'Unknown', 'Unknown'], 'negation': [False, False, False], 'caused_by': ['Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-08 15:45:00 and 2171-01-08 15:48:00):\n           nursing progress note\nneuro:  aao x3.  oob with supervision. perrl 4mm brisk. maee.\n\nresp:  lcta sats 97% on ra. +sleep apnea.\n\ncv:  sr 70\'s. diastolic blood pressure &lt;140.  weaning nipride.  increased by mouth hypertensives.  esmolol drops d/c.  pulses palpable.  skin intact.  afebrile.\n\ngi/gu:  abdomen soft, obese.  large bm.  voiding clear, yellow urine\n\nendoc:  riss\n\nplan:  diastolic blood pressure &lt;140.  wean off nipride. review renal scan.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient'], 'event_detection_time': 12.432546955067664}</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>sleep apnea</t>
         </is>
       </c>
-      <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>['+sleep apnea.']</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'apneic'}}}]</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>['Excretion', 'Sleep', 'Eating']</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>[{'Excretion': {'Excretion': {'type': 'stool and urine', 'frequency': 'Unknown', 'quality': 'clear, yellow'}}}, {'Sleep': {'Sleep': {'quality': 'apneic'}}}, {'Eating': {'Eating': {'food': 'hypertensives', 'amount': 'increased', 'method': 'oral'}}}]</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>['large bm. voiding clear, yellow urine', '+sleep apnea.', 'increased by mouth hypertensives.']</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>['e1=Excretion|0:large bm. voiding clear, yellow urine', 'e2=Sleep|1:+sleep apnea.', 'e3=Eating|1:increased by mouth hypertensives.']</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e1', 'relation': 'unknown', 'event_id_2': 'e2'}, {'event_id_1': 'e2', 'relation': 'unknown', 'event_id_2': 'e3'}]]</t>
         </is>
@@ -6693,56 +7423,66 @@
       <c r="E74" t="n">
         <v>1</v>
       </c>
-      <c r="F74" t="n">
-        <v>1</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>(Timestamp('2171-01-09 04:13:00'), Timestamp('2171-01-09 04:28:00'))</t>
+        </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
+          <t>{'text': 'neuro: patient a&amp; ox3, mae, follows commands, &amp; polite. patient  c/o abdominal pain along front of stomach after dinner, sat in chair for new positioning. once up in chair patient c/o back pain between his shoulder blades ([**2-28**]), when asked patient stated that pain was similar to ed pain, but not as bad-&gt;pa [**doctor last name 32**] notified, gave by mouth dilaudid and ativan iv for anxiousness. patient then explained to pa [**doctor last name **] that pain was different then that of the pain that brought him into the ed. by mouth ativan pro re nata ordered. pa [**doctor last name **] would like social work to be consulted for patient today.\n\ncv: patient in nsr 70s-80s most of shift with no ectopy noted. cont on by mouth lopressor, hydralazine &amp; ^ captopril. patient became hypertensive, diastolic blood pressure ^200s. gave pro re nata hydralazine 20mg iv, ^ nipride drops, &amp; restarted esmolol drops. pa [**doctor last name **] at bedside to evaluate patient, back pain and htn. a line rewired by pa [**doctor last name **] d/t dampen &amp; inconsistency. a line cont to dampen. using both nibp &amp; art line. titrated esmolol &amp; nipride to keep diastolic blood pressure&lt;140. pp palpable\n\nresp: ra all shift, even through the night while he slept. ls clear, diminshed in bases.\n\ngi/gu: drinking plenty of fluids. +bs, no bm this shift. voiding clear yellow urine.\n\nendo: bs tx per riss.\n\nsocial:no family contact this shift. ****consult social work per team.\n\nplan: wean nipride and esmolol to keep diastolic blood pressure&lt;140. social work consult today. monitor, comfort and support patient.\n', 'event': ['Pain', 'Pain', 'Eating', 'Excretion', 'Sleep', 'Family'], 'event_id': ['e1', 'e2', 'e3', 'e4', 'e5', 'e6'], 'phrase': '', 'raw_output': '{\n  "case_attributes": [],\n  "events": [\n    {\n      "event_id": "e1",\n      "event_type": "Pain",\n      "text_quote": "patient c/o abdominal pain along front of stomach after dinner",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "after dinner",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "Unknown",\n          "location": "abdominal",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e2",\n      "event_type": "Pain",\n      "text_quote": "patient c/o back pain between his shoulder blades",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Pain": {\n          "severity": "similar to ed pain, but not as bad",\n          "location": "back",\n          "duration": "Unknown"\n        }\n      }\n    },\n    {\n      "event_id": "e3",\n      "event_type": "Eating",\n      "text_quote": "after dinner",\n      "actor": "patient",\n      "object": "food",\n      "negation": false,\n      "time": "after dinner",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Eating": {\n          "food": "dinner",\n          "amount": "Unknown",\n          "method": "oral"\n        }\n      }\n    },\n    {\n      "event_id": "e4",\n      "event_type": "Excretion",\n      "text_quote": "+bs, no bm this shift. voiding clear yellow urine.",\n      "actor": "patient",\n      "object": "urine",\n      "negation": false,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Excretion": {\n          "type": "urine",\n          "frequency": "voiding",\n          "quality": "clear yellow"\n        }\n      }\n    },\n    {\n      "event_id": "e5",\n      "event_type": "Sleep",\n      "text_quote": "ra all shift, even through the night while he slept.",\n      "actor": "patient",\n      "object": "patient",\n      "negation": false,\n      "time": "night",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Sleep": {\n          "quality": "Unknown",\n          "duration": "all night"\n        }\n      }\n    },\n    {\n      "event_id": "e6",\n      "event_type": "Family",\n      "text_quote": "no family contact this shift.",\n      "actor": "patient",\n      "object": "family member",\n      "negation": true,\n      "time": "Unknown",\n      "caused_by": "Unknown",\n      "event_attributes": {\n        "Family": {\n          "interaction": "no contact",\n          "relation": "Unknown"\n        }\n      }\n    }\n  ],\n  "order": [\n    {\n      "event_id_1": "e3",\n      "relation": "before",\n      "event_id_2": "e1"\n    },\n    {\n      "event_id_1": "e1",\n      "relation": "before",\n      "event_id_2": "e2"\n    }\n  ]\n}', 'attributes': [{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'abdominal', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'similar to ed pain, but not as bad', 'location': 'back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'dinner', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'voiding', 'quality': 'clear yellow'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'all night'}}}, {'Family': {'Family': {'interaction': 'no contact', 'relation': 'Unknown'}}}], 'orders': [[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]], 'text_quotes': ['patient c/o abdominal pain along front of stomach after dinner', 'patient c/o back pain between his shoulder blades', 'after dinner', '+bs, no bm this shift. voiding clear yellow urine.', 'ra all shift, even through the night while he slept.', 'no family contact this shift.'], 'event_time': ['after dinner', 'Unknown', 'after dinner', 'Unknown', 'night', 'Unknown'], 'negation': [False, False, False, False, False, True], 'caused_by': ['Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown', 'Unknown'], 'event_name_prompt': '\n        **Classification and Attribute Extraction Task** \n            Classify the following sentence into events that took place DURING THE SHIFT in which this note was written, \n            using one or more of the following categories: \n            Eating : The patient takes food into their body by mouth.\nExcretion : The patient discharges waste matter from their body.\nFamily : The patient has a visit, call, or communication with a family member.\nPain : The patient reports or shows signs of pain.\nSleep : The patient sleeps or the sleep’s quality or quantity is described.\nUnknown : choose "Unknown" if none of the other event type are applicable..\n            \n            Conditions: \n            ["If the event talks about a patient\'s history (before the shift) or future plan/request of an event (after the shift), DO NOT EXTRACT that event.", "Consider events ONLY if they relate to the patient as the actor (e.g., exclude caregivers\' or family members\' own experiences).", \'If the text has unclear actor, assume it as patient.\']\n            For each detected event, output strictly valid JSON following the schema below: \n            ```\n           \n                        {   \n                        "case_attributes":[ // all properties of the patients case that ocurred before the shift or at home or patient history or plan.\n                            {\n                            "attribute_name":"attribute_value" // attributes of the case such as patient history.\n                            }\n                        ]  \n                        "events": [ //events occurred/occurring DURING THE SHIFT\n                            { \n                            "event_id": string, ("e1", "e2", etc.)\n                            "event_type": string ("Sleep", "Excretion", "Eating", "Family", "Pain", "Unknown"), \n                            "text_quote": string (fragment of the text from which attributes are extracted), \n                            "actor": string ("patient", "family member", "others"),\n                            "object": string ("patient", "family member", "others"),\n                            "negation": boolean, (true if the event is negated e.g., did not sleep. false otherwise)\n                            "time": string (e.g., am, morning, 5pm . default: "Unknown"), \n                            "caused_by": string (name of another event that caused this event. default: "Unknown"), \n                            \n            "event_attributes": { \n                            // Only extract attributes for events present in the text:\n                            "Sleep": { \n                            "quality": string (e.g., poor, good, etc.),\n                            "duration": string (e.g., short, on and off, etc.),\n                            }, \n                            "Excretion": { \n                            "type": string (e.g., urine, stool, etc.),\n                            "frequency": string (e.g., 2x, rare, etc.),\n                            "quality": string (e.g., hard, yellow, etc.)\n                            }, \n                            "Family": { \n                            "interaction": string (e.g., visit, call, communication, etc.), \n                            "relation": string (e.g., mother, son, etc.)\n                            }, \n                            "Pain": { \n                            "severity": string (e.g., mild, moderate, severe, numeric scale if present, etc.), \n                            "location": string (e.g., right knee, head, etc.), \n                            "duration": string (e.g., all night, 3 hours, etc.)\n                            }, \n                            "Eating": { \n                            "food": string, (e.g., pancakes, porridge, etc.)\n                            "amount": string, (e.g., 1, 2 bowls, etc.)\n                            "method": string (e.g., oral, tube, etc.)\n                            } \n                            } \n                            } \n                        ], \n                        "order": [ //partial order of extracted events\n                            { \n                            "event_id_1": string, (e1, e2...)\n                            "relation": string ("before", "after", "simultaneous", "unknown"), \n                            "event_id_2": string (e1, e2...)\n                            } \n                        ],\n                        \n                        }  \n           ```\n           \n           ---\n           Text (written between 2171-01-09 04:13:00 and 2171-01-09 04:28:00):\n           neuro: patient a&amp; ox3, mae, follows commands, &amp; polite. patient  c/o abdominal pain along front of stomach after dinner, sat in chair for new positioning. once up in chair patient c/o back pain between his shoulder blades ([**2-28**]), when asked patient stated that pain was similar to ed pain, but not as bad-&gt;pa [**doctor last name 32**] notified, gave by mouth dilaudid and ativan iv for anxiousness. patient then explained to pa [**doctor last name **] that pain was different then that of the pain that brought him into the ed. by mouth ativan pro re nata ordered. pa [**doctor last name **] would like social work to be consulted for patient today.\n\ncv: patient in nsr 70s-80s most of shift with no ectopy noted. cont on by mouth lopressor, hydralazine &amp; ^ captopril. patient became hypertensive, diastolic blood pressure ^200s. gave pro re nata hydralazine 20mg iv, ^ nipride drops, &amp; restarted esmolol drops. pa [**doctor last name **] at bedside to evaluate patient, back pain and htn. a line rewired by pa [**doctor last name **] d/t dampen &amp; inconsistency. a line cont to dampen. using both nibp &amp; art line. titrated esmolol &amp; nipride to keep diastolic blood pressure&lt;140. pp palpable\n\nresp: ra all shift, even through the night while he slept. ls clear, diminshed in bases.\n\ngi/gu: drinking plenty of fluids. +bs, no bm this shift. voiding clear yellow urine.\n\nendo: bs tx per riss.\n\nsocial:no family contact this shift. ****consult social work per team.\n\nplan: wean nipride and esmolol to keep diastolic blood pressure&lt;140. social work consult today. monitor, comfort and support patient.\n\n        ', 'case_attributes': [[]], 'actor': ['patient', 'patient', 'patient', 'patient', 'patient', 'patient'], 'event_detection_time': 22.881769533036277}</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>while he slept</t>
         </is>
       </c>
-      <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>[True]</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>['ra all shift, even through the night while he slept.']</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>[{'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'all night'}}}]</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>['Pain', 'Pain', 'Eating', 'Excretion', 'Sleep', 'Family']</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>[{'Pain': {'Pain': {'severity': 'Unknown', 'location': 'abdominal', 'duration': 'Unknown'}}}, {'Pain': {'Pain': {'severity': 'similar to ed pain, but not as bad', 'location': 'back', 'duration': 'Unknown'}}}, {'Eating': {'Eating': {'food': 'dinner', 'amount': 'Unknown', 'method': 'oral'}}}, {'Excretion': {'Excretion': {'type': 'urine', 'frequency': 'voiding', 'quality': 'clear yellow'}}}, {'Sleep': {'Sleep': {'quality': 'Unknown', 'duration': 'all night'}}}, {'Family': {'Family': {'interaction': 'no contact', 'relation': 'Unknown'}}}]</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>['patient c/o abdominal pain along front of stomach after dinner', 'patient c/o back pain between his shoulder blades', 'after dinner', '+bs, no bm this shift. voiding clear yellow urine.', 'ra all shift, even through the night while he slept.', 'no family contact this shift.']</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>['e1=Pain|0:patient c/o abdominal pain along front of stomach after dinner', 'e2=Pain|1:patient c/o back pain between his shoulder blades', 'e3=Eating|1:after dinner', 'e4=Excretion|1:+bs, no bm this shift. voiding clear yellow urine.', 'e5=Sleep|1:ra all shift, even through the night while he slept.', 'e6=Family|1:no family contact this shift.']</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>[[{'event_id_1': 'e3', 'relation': 'before', 'event_id_2': 'e1'}, {'event_id_1': 'e1', 'relation': 'before', 'event_id_2': 'e2'}]]</t>
         </is>
